--- a/Named/MYSQL/PracticalTask/2/price/velosipedy.xlsx
+++ b/Named/MYSQL/PracticalTask/2/price/velosipedy.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4507" uniqueCount="1544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4507" uniqueCount="1545">
   <si>
     <t>Прайс www.sima-land.ru</t>
   </si>
@@ -4652,6 +4652,9 @@
   </si>
   <si>
     <t>Велосипед 20 дюйм Graffiti Premium Girl, цвет бирюзовый-розовый 7642850</t>
+  </si>
+  <si>
+    <t>);</t>
   </si>
 </sst>
 </file>
@@ -4949,7 +4952,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="220">
+  <cellXfs count="221">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -5587,21 +5590,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -5925,26 +5929,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="215" t="s">
+      <c r="A1" s="216" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="215"/>
-      <c r="C1" s="215"/>
-      <c r="D1" s="215"/>
+      <c r="B1" s="216"/>
+      <c r="C1" s="216"/>
+      <c r="D1" s="216"/>
     </row>
     <row r="2" spans="1:4" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="216" t="s">
+      <c r="A2" s="217" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="216"/>
-      <c r="C2" s="216"/>
-      <c r="D2" s="216"/>
+      <c r="B2" s="217"/>
+      <c r="C2" s="217"/>
+      <c r="D2" s="217"/>
     </row>
     <row r="3" spans="1:4" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="216" t="s">
+      <c r="A3" s="217" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="216"/>
+      <c r="B3" s="217"/>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:4" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5984,12 +5988,12 @@
       </c>
     </row>
     <row r="12" spans="1:4" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="214" t="s">
+      <c r="A12" s="218" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="214"/>
-      <c r="C12" s="214"/>
-      <c r="D12" s="214"/>
+      <c r="B12" s="218"/>
+      <c r="C12" s="218"/>
+      <c r="D12" s="218"/>
     </row>
     <row r="13" spans="1:4" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
@@ -6146,12 +6150,12 @@
       </c>
     </row>
     <row r="24" spans="1:4" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="214" t="s">
+      <c r="A24" s="218" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="214"/>
-      <c r="C24" s="214"/>
-      <c r="D24" s="214"/>
+      <c r="B24" s="218"/>
+      <c r="C24" s="218"/>
+      <c r="D24" s="218"/>
     </row>
     <row r="25" spans="1:4" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
@@ -6445,12 +6449,12 @@
       </c>
     </row>
     <row r="46" spans="1:4" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="214" t="s">
+      <c r="A46" s="218" t="s">
         <v>14</v>
       </c>
-      <c r="B46" s="214"/>
-      <c r="C46" s="214"/>
-      <c r="D46" s="214"/>
+      <c r="B46" s="218"/>
+      <c r="C46" s="218"/>
+      <c r="D46" s="218"/>
     </row>
     <row r="47" spans="1:4" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
@@ -6951,12 +6955,12 @@
       </c>
     </row>
     <row r="83" spans="1:4" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="214" t="s">
+      <c r="A83" s="218" t="s">
         <v>15</v>
       </c>
-      <c r="B83" s="214"/>
-      <c r="C83" s="214"/>
-      <c r="D83" s="214"/>
+      <c r="B83" s="218"/>
+      <c r="C83" s="218"/>
+      <c r="D83" s="218"/>
     </row>
     <row r="84" spans="1:4" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
@@ -6987,12 +6991,12 @@
       </c>
     </row>
     <row r="86" spans="1:4" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="214" t="s">
+      <c r="A86" s="218" t="s">
         <v>16</v>
       </c>
-      <c r="B86" s="214"/>
-      <c r="C86" s="214"/>
-      <c r="D86" s="214"/>
+      <c r="B86" s="218"/>
+      <c r="C86" s="218"/>
+      <c r="D86" s="218"/>
     </row>
     <row r="87" spans="1:4" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="6">
@@ -7065,12 +7069,12 @@
       </c>
     </row>
     <row r="92" spans="1:4" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="214" t="s">
+      <c r="A92" s="218" t="s">
         <v>18</v>
       </c>
-      <c r="B92" s="214"/>
-      <c r="C92" s="214"/>
-      <c r="D92" s="214"/>
+      <c r="B92" s="218"/>
+      <c r="C92" s="218"/>
+      <c r="D92" s="218"/>
     </row>
     <row r="93" spans="1:4" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="6">
@@ -7605,12 +7609,12 @@
       </c>
     </row>
     <row r="131" spans="1:4" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="214" t="s">
+      <c r="A131" s="218" t="s">
         <v>42</v>
       </c>
-      <c r="B131" s="214"/>
-      <c r="C131" s="214"/>
-      <c r="D131" s="214"/>
+      <c r="B131" s="218"/>
+      <c r="C131" s="218"/>
+      <c r="D131" s="218"/>
     </row>
     <row r="132" spans="1:4" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="6">
@@ -8156,12 +8160,12 @@
       </c>
     </row>
     <row r="171" spans="1:4" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="214" t="s">
+      <c r="A171" s="218" t="s">
         <v>43</v>
       </c>
-      <c r="B171" s="214"/>
-      <c r="C171" s="214"/>
-      <c r="D171" s="214"/>
+      <c r="B171" s="218"/>
+      <c r="C171" s="218"/>
+      <c r="D171" s="218"/>
     </row>
     <row r="172" spans="1:4" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="6">
@@ -8472,12 +8476,12 @@
       </c>
     </row>
     <row r="194" spans="1:4" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="214" t="s">
+      <c r="A194" s="218" t="s">
         <v>64</v>
       </c>
-      <c r="B194" s="214"/>
-      <c r="C194" s="214"/>
-      <c r="D194" s="214"/>
+      <c r="B194" s="218"/>
+      <c r="C194" s="218"/>
+      <c r="D194" s="218"/>
     </row>
     <row r="195" spans="1:4" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="6">
@@ -8620,12 +8624,12 @@
       </c>
     </row>
     <row r="205" spans="1:4" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="214" t="s">
+      <c r="A205" s="218" t="s">
         <v>75</v>
       </c>
-      <c r="B205" s="214"/>
-      <c r="C205" s="214"/>
-      <c r="D205" s="214"/>
+      <c r="B205" s="218"/>
+      <c r="C205" s="218"/>
+      <c r="D205" s="218"/>
     </row>
     <row r="206" spans="1:4" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="6">
@@ -8824,12 +8828,12 @@
       </c>
     </row>
     <row r="220" spans="1:4" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="214" t="s">
+      <c r="A220" s="218" t="s">
         <v>84</v>
       </c>
-      <c r="B220" s="214"/>
-      <c r="C220" s="214"/>
-      <c r="D220" s="214"/>
+      <c r="B220" s="218"/>
+      <c r="C220" s="218"/>
+      <c r="D220" s="218"/>
     </row>
     <row r="221" spans="1:4" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="6">
@@ -8874,12 +8878,12 @@
       </c>
     </row>
     <row r="224" spans="1:4" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="214" t="s">
+      <c r="A224" s="218" t="s">
         <v>88</v>
       </c>
-      <c r="B224" s="214"/>
-      <c r="C224" s="214"/>
-      <c r="D224" s="214"/>
+      <c r="B224" s="218"/>
+      <c r="C224" s="218"/>
+      <c r="D224" s="218"/>
     </row>
     <row r="225" spans="1:4" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="6">
@@ -8896,12 +8900,12 @@
       </c>
     </row>
     <row r="226" spans="1:4" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="214" t="s">
+      <c r="A226" s="218" t="s">
         <v>90</v>
       </c>
-      <c r="B226" s="214"/>
-      <c r="C226" s="214"/>
-      <c r="D226" s="214"/>
+      <c r="B226" s="218"/>
+      <c r="C226" s="218"/>
+      <c r="D226" s="218"/>
     </row>
     <row r="227" spans="1:4" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="6">
@@ -9240,12 +9244,12 @@
       </c>
     </row>
     <row r="251" spans="1:4" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A251" s="214" t="s">
+      <c r="A251" s="218" t="s">
         <v>115</v>
       </c>
-      <c r="B251" s="214"/>
-      <c r="C251" s="214"/>
-      <c r="D251" s="214"/>
+      <c r="B251" s="218"/>
+      <c r="C251" s="218"/>
+      <c r="D251" s="218"/>
     </row>
     <row r="252" spans="1:4" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="6">
@@ -10004,12 +10008,12 @@
       </c>
     </row>
     <row r="306" spans="1:4" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A306" s="214" t="s">
+      <c r="A306" s="218" t="s">
         <v>171</v>
       </c>
-      <c r="B306" s="214"/>
-      <c r="C306" s="214"/>
-      <c r="D306" s="214"/>
+      <c r="B306" s="218"/>
+      <c r="C306" s="218"/>
+      <c r="D306" s="218"/>
     </row>
     <row r="307" spans="1:4" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="6">
@@ -10166,12 +10170,12 @@
       </c>
     </row>
     <row r="318" spans="1:4" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A318" s="214" t="s">
+      <c r="A318" s="218" t="s">
         <v>183</v>
       </c>
-      <c r="B318" s="214"/>
-      <c r="C318" s="214"/>
-      <c r="D318" s="214"/>
+      <c r="B318" s="218"/>
+      <c r="C318" s="218"/>
+      <c r="D318" s="218"/>
     </row>
     <row r="319" spans="1:4" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="6">
@@ -10510,12 +10514,12 @@
       </c>
     </row>
     <row r="343" spans="1:4" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A343" s="214" t="s">
+      <c r="A343" s="218" t="s">
         <v>208</v>
       </c>
-      <c r="B343" s="214"/>
-      <c r="C343" s="214"/>
-      <c r="D343" s="214"/>
+      <c r="B343" s="218"/>
+      <c r="C343" s="218"/>
+      <c r="D343" s="218"/>
     </row>
     <row r="344" spans="1:4" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="6">
@@ -10672,12 +10676,12 @@
       </c>
     </row>
     <row r="355" spans="1:4" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A355" s="214" t="s">
+      <c r="A355" s="218" t="s">
         <v>220</v>
       </c>
-      <c r="B355" s="214"/>
-      <c r="C355" s="214"/>
-      <c r="D355" s="214"/>
+      <c r="B355" s="218"/>
+      <c r="C355" s="218"/>
+      <c r="D355" s="218"/>
     </row>
     <row r="356" spans="1:4" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="6">
@@ -10904,12 +10908,12 @@
       </c>
     </row>
     <row r="372" spans="1:4" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A372" s="214" t="s">
+      <c r="A372" s="218" t="s">
         <v>225</v>
       </c>
-      <c r="B372" s="214"/>
-      <c r="C372" s="214"/>
-      <c r="D372" s="214"/>
+      <c r="B372" s="218"/>
+      <c r="C372" s="218"/>
+      <c r="D372" s="218"/>
     </row>
     <row r="373" spans="1:4" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="6">
@@ -12046,12 +12050,12 @@
       </c>
     </row>
     <row r="454" spans="1:4" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A454" s="214" t="s">
+      <c r="A454" s="218" t="s">
         <v>307</v>
       </c>
-      <c r="B454" s="214"/>
-      <c r="C454" s="214"/>
-      <c r="D454" s="214"/>
+      <c r="B454" s="218"/>
+      <c r="C454" s="218"/>
+      <c r="D454" s="218"/>
     </row>
     <row r="455" spans="1:4" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="6">
@@ -12278,12 +12282,12 @@
       </c>
     </row>
     <row r="471" spans="1:4" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A471" s="214" t="s">
+      <c r="A471" s="218" t="s">
         <v>319</v>
       </c>
-      <c r="B471" s="214"/>
-      <c r="C471" s="214"/>
-      <c r="D471" s="214"/>
+      <c r="B471" s="218"/>
+      <c r="C471" s="218"/>
+      <c r="D471" s="218"/>
     </row>
     <row r="472" spans="1:4" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="6">
@@ -12300,12 +12304,12 @@
       </c>
     </row>
     <row r="473" spans="1:4" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A473" s="214" t="s">
+      <c r="A473" s="218" t="s">
         <v>320</v>
       </c>
-      <c r="B473" s="214"/>
-      <c r="C473" s="214"/>
-      <c r="D473" s="214"/>
+      <c r="B473" s="218"/>
+      <c r="C473" s="218"/>
+      <c r="D473" s="218"/>
     </row>
     <row r="474" spans="1:4" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="6">
@@ -12476,12 +12480,12 @@
       </c>
     </row>
     <row r="486" spans="1:4" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A486" s="214" t="s">
+      <c r="A486" s="218" t="s">
         <v>332</v>
       </c>
-      <c r="B486" s="214"/>
-      <c r="C486" s="214"/>
-      <c r="D486" s="214"/>
+      <c r="B486" s="218"/>
+      <c r="C486" s="218"/>
+      <c r="D486" s="218"/>
     </row>
     <row r="487" spans="1:4" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="6">
@@ -12596,12 +12600,12 @@
       </c>
     </row>
     <row r="495" spans="1:4" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A495" s="214" t="s">
+      <c r="A495" s="218" t="s">
         <v>333</v>
       </c>
-      <c r="B495" s="214"/>
-      <c r="C495" s="214"/>
-      <c r="D495" s="214"/>
+      <c r="B495" s="218"/>
+      <c r="C495" s="218"/>
+      <c r="D495" s="218"/>
     </row>
     <row r="496" spans="1:4" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="6">
@@ -12968,12 +12972,12 @@
       </c>
     </row>
     <row r="522" spans="1:4" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A522" s="214" t="s">
+      <c r="A522" s="218" t="s">
         <v>360</v>
       </c>
-      <c r="B522" s="214"/>
-      <c r="C522" s="214"/>
-      <c r="D522" s="214"/>
+      <c r="B522" s="218"/>
+      <c r="C522" s="218"/>
+      <c r="D522" s="218"/>
     </row>
     <row r="523" spans="1:4" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" s="6">
@@ -13228,12 +13232,12 @@
       </c>
     </row>
     <row r="541" spans="1:4" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A541" s="214" t="s">
+      <c r="A541" s="218" t="s">
         <v>371</v>
       </c>
-      <c r="B541" s="214"/>
-      <c r="C541" s="214"/>
-      <c r="D541" s="214"/>
+      <c r="B541" s="218"/>
+      <c r="C541" s="218"/>
+      <c r="D541" s="218"/>
     </row>
     <row r="542" spans="1:4" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A542" s="6">
@@ -13782,12 +13786,12 @@
       </c>
     </row>
     <row r="581" spans="1:4" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A581" s="214" t="s">
+      <c r="A581" s="218" t="s">
         <v>381</v>
       </c>
-      <c r="B581" s="214"/>
-      <c r="C581" s="214"/>
-      <c r="D581" s="214"/>
+      <c r="B581" s="218"/>
+      <c r="C581" s="218"/>
+      <c r="D581" s="218"/>
     </row>
     <row r="582" spans="1:4" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A582" s="6">
@@ -13804,12 +13808,12 @@
       </c>
     </row>
     <row r="583" spans="1:4" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A583" s="214" t="s">
+      <c r="A583" s="218" t="s">
         <v>382</v>
       </c>
-      <c r="B583" s="214"/>
-      <c r="C583" s="214"/>
-      <c r="D583" s="214"/>
+      <c r="B583" s="218"/>
+      <c r="C583" s="218"/>
+      <c r="D583" s="218"/>
     </row>
     <row r="584" spans="1:4" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A584" s="6">
@@ -13868,12 +13872,12 @@
       </c>
     </row>
     <row r="588" spans="1:4" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A588" s="214" t="s">
+      <c r="A588" s="218" t="s">
         <v>388</v>
       </c>
-      <c r="B588" s="214"/>
-      <c r="C588" s="214"/>
-      <c r="D588" s="214"/>
+      <c r="B588" s="218"/>
+      <c r="C588" s="218"/>
+      <c r="D588" s="218"/>
     </row>
     <row r="589" spans="1:4" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A589" s="6">
@@ -14310,12 +14314,12 @@
       </c>
     </row>
     <row r="620" spans="1:4" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A620" s="214" t="s">
+      <c r="A620" s="218" t="s">
         <v>418</v>
       </c>
-      <c r="B620" s="214"/>
-      <c r="C620" s="214"/>
-      <c r="D620" s="214"/>
+      <c r="B620" s="218"/>
+      <c r="C620" s="218"/>
+      <c r="D620" s="218"/>
     </row>
     <row r="621" spans="1:4" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A621" s="6">
@@ -14738,12 +14742,12 @@
       </c>
     </row>
     <row r="651" spans="1:4" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A651" s="214" t="s">
+      <c r="A651" s="218" t="s">
         <v>449</v>
       </c>
-      <c r="B651" s="214"/>
-      <c r="C651" s="214"/>
-      <c r="D651" s="214"/>
+      <c r="B651" s="218"/>
+      <c r="C651" s="218"/>
+      <c r="D651" s="218"/>
     </row>
     <row r="652" spans="1:4" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A652" s="6">
@@ -14900,12 +14904,12 @@
       </c>
     </row>
     <row r="663" spans="1:4" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A663" s="214" t="s">
+      <c r="A663" s="218" t="s">
         <v>461</v>
       </c>
-      <c r="B663" s="214"/>
-      <c r="C663" s="214"/>
-      <c r="D663" s="214"/>
+      <c r="B663" s="218"/>
+      <c r="C663" s="218"/>
+      <c r="D663" s="218"/>
     </row>
     <row r="664" spans="1:4" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A664" s="6">
@@ -15132,12 +15136,12 @@
       </c>
     </row>
     <row r="680" spans="1:4" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A680" s="214" t="s">
+      <c r="A680" s="218" t="s">
         <v>479</v>
       </c>
-      <c r="B680" s="214"/>
-      <c r="C680" s="214"/>
-      <c r="D680" s="214"/>
+      <c r="B680" s="218"/>
+      <c r="C680" s="218"/>
+      <c r="D680" s="218"/>
     </row>
     <row r="681" spans="1:4" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A681" s="6">
@@ -15574,12 +15578,12 @@
       </c>
     </row>
     <row r="712" spans="1:4" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A712" s="214" t="s">
+      <c r="A712" s="218" t="s">
         <v>511</v>
       </c>
-      <c r="B712" s="214"/>
-      <c r="C712" s="214"/>
-      <c r="D712" s="214"/>
+      <c r="B712" s="218"/>
+      <c r="C712" s="218"/>
+      <c r="D712" s="218"/>
     </row>
     <row r="713" spans="1:4" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A713" s="6">
@@ -16002,12 +16006,12 @@
       </c>
     </row>
     <row r="743" spans="1:4" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A743" s="214" t="s">
+      <c r="A743" s="218" t="s">
         <v>542</v>
       </c>
-      <c r="B743" s="214"/>
-      <c r="C743" s="214"/>
-      <c r="D743" s="214"/>
+      <c r="B743" s="218"/>
+      <c r="C743" s="218"/>
+      <c r="D743" s="218"/>
     </row>
     <row r="744" spans="1:4" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A744" s="6">
@@ -17396,12 +17400,12 @@
       </c>
     </row>
     <row r="843" spans="1:4" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A843" s="214" t="s">
+      <c r="A843" s="218" t="s">
         <v>548</v>
       </c>
-      <c r="B843" s="214"/>
-      <c r="C843" s="214"/>
-      <c r="D843" s="214"/>
+      <c r="B843" s="218"/>
+      <c r="C843" s="218"/>
+      <c r="D843" s="218"/>
     </row>
     <row r="844" spans="1:4" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A844" s="6">
@@ -17852,12 +17856,12 @@
       </c>
     </row>
     <row r="876" spans="1:4" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A876" s="214" t="s">
+      <c r="A876" s="218" t="s">
         <v>581</v>
       </c>
-      <c r="B876" s="214"/>
-      <c r="C876" s="214"/>
-      <c r="D876" s="214"/>
+      <c r="B876" s="218"/>
+      <c r="C876" s="218"/>
+      <c r="D876" s="218"/>
     </row>
     <row r="877" spans="1:4" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A877" s="6">
@@ -18504,12 +18508,12 @@
       </c>
     </row>
     <row r="923" spans="1:4" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A923" s="214" t="s">
+      <c r="A923" s="218" t="s">
         <v>588</v>
       </c>
-      <c r="B923" s="214"/>
-      <c r="C923" s="214"/>
-      <c r="D923" s="214"/>
+      <c r="B923" s="218"/>
+      <c r="C923" s="218"/>
+      <c r="D923" s="218"/>
     </row>
     <row r="924" spans="1:4" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A924" s="6">
@@ -18834,12 +18838,12 @@
       </c>
     </row>
     <row r="947" spans="1:4" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A947" s="214" t="s">
+      <c r="A947" s="218" t="s">
         <v>609</v>
       </c>
-      <c r="B947" s="214"/>
-      <c r="C947" s="214"/>
-      <c r="D947" s="214"/>
+      <c r="B947" s="218"/>
+      <c r="C947" s="218"/>
+      <c r="D947" s="218"/>
     </row>
     <row r="948" spans="1:4" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A948" s="6">
@@ -19136,12 +19140,12 @@
       </c>
     </row>
     <row r="969" spans="1:4" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A969" s="214" t="s">
+      <c r="A969" s="218" t="s">
         <v>617</v>
       </c>
-      <c r="B969" s="214"/>
-      <c r="C969" s="214"/>
-      <c r="D969" s="214"/>
+      <c r="B969" s="218"/>
+      <c r="C969" s="218"/>
+      <c r="D969" s="218"/>
     </row>
     <row r="970" spans="1:4" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A970" s="6">
@@ -19550,12 +19554,12 @@
       </c>
     </row>
     <row r="999" spans="1:4" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A999" s="214" t="s">
+      <c r="A999" s="218" t="s">
         <v>620</v>
       </c>
-      <c r="B999" s="214"/>
-      <c r="C999" s="214"/>
-      <c r="D999" s="214"/>
+      <c r="B999" s="218"/>
+      <c r="C999" s="218"/>
+      <c r="D999" s="218"/>
     </row>
     <row r="1000" spans="1:4" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1000" s="6">
@@ -19600,12 +19604,12 @@
       </c>
     </row>
     <row r="1003" spans="1:4" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1003" s="214" t="s">
+      <c r="A1003" s="218" t="s">
         <v>622</v>
       </c>
-      <c r="B1003" s="214"/>
-      <c r="C1003" s="214"/>
-      <c r="D1003" s="214"/>
+      <c r="B1003" s="218"/>
+      <c r="C1003" s="218"/>
+      <c r="D1003" s="218"/>
     </row>
     <row r="1004" spans="1:4" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1004" s="6">
@@ -19678,12 +19682,12 @@
       </c>
     </row>
     <row r="1009" spans="1:4" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1009" s="214" t="s">
+      <c r="A1009" s="218" t="s">
         <v>623</v>
       </c>
-      <c r="B1009" s="214"/>
-      <c r="C1009" s="214"/>
-      <c r="D1009" s="214"/>
+      <c r="B1009" s="218"/>
+      <c r="C1009" s="218"/>
+      <c r="D1009" s="218"/>
     </row>
     <row r="1010" spans="1:4" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1010" s="6">
@@ -19700,12 +19704,12 @@
       </c>
     </row>
     <row r="1011" spans="1:4" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1011" s="214" t="s">
+      <c r="A1011" s="218" t="s">
         <v>625</v>
       </c>
-      <c r="B1011" s="214"/>
-      <c r="C1011" s="214"/>
-      <c r="D1011" s="214"/>
+      <c r="B1011" s="218"/>
+      <c r="C1011" s="218"/>
+      <c r="D1011" s="218"/>
     </row>
     <row r="1012" spans="1:4" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1012" s="6">
@@ -19764,12 +19768,12 @@
       </c>
     </row>
     <row r="1016" spans="1:4" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1016" s="214" t="s">
+      <c r="A1016" s="218" t="s">
         <v>630</v>
       </c>
-      <c r="B1016" s="214"/>
-      <c r="C1016" s="214"/>
-      <c r="D1016" s="214"/>
+      <c r="B1016" s="218"/>
+      <c r="C1016" s="218"/>
+      <c r="D1016" s="218"/>
     </row>
     <row r="1017" spans="1:4" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1017" s="6">
@@ -20038,12 +20042,12 @@
       </c>
     </row>
     <row r="1036" spans="1:4" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1036" s="214" t="s">
+      <c r="A1036" s="218" t="s">
         <v>649</v>
       </c>
-      <c r="B1036" s="214"/>
-      <c r="C1036" s="214"/>
-      <c r="D1036" s="214"/>
+      <c r="B1036" s="218"/>
+      <c r="C1036" s="218"/>
+      <c r="D1036" s="218"/>
     </row>
     <row r="1037" spans="1:4" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1037" s="6">
@@ -20130,12 +20134,12 @@
       </c>
     </row>
     <row r="1043" spans="1:4" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1043" s="214" t="s">
+      <c r="A1043" s="218" t="s">
         <v>656</v>
       </c>
-      <c r="B1043" s="214"/>
-      <c r="C1043" s="214"/>
-      <c r="D1043" s="214"/>
+      <c r="B1043" s="218"/>
+      <c r="C1043" s="218"/>
+      <c r="D1043" s="218"/>
     </row>
     <row r="1044" spans="1:4" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1044" s="6">
@@ -20208,12 +20212,12 @@
       </c>
     </row>
     <row r="1049" spans="1:4" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1049" s="214" t="s">
+      <c r="A1049" s="218" t="s">
         <v>662</v>
       </c>
-      <c r="B1049" s="214"/>
-      <c r="C1049" s="214"/>
-      <c r="D1049" s="214"/>
+      <c r="B1049" s="218"/>
+      <c r="C1049" s="218"/>
+      <c r="D1049" s="218"/>
     </row>
     <row r="1050" spans="1:4" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1050" s="6">
@@ -20286,12 +20290,12 @@
       </c>
     </row>
     <row r="1055" spans="1:4" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1055" s="214" t="s">
+      <c r="A1055" s="218" t="s">
         <v>667</v>
       </c>
-      <c r="B1055" s="214"/>
-      <c r="C1055" s="214"/>
-      <c r="D1055" s="214"/>
+      <c r="B1055" s="218"/>
+      <c r="C1055" s="218"/>
+      <c r="D1055" s="218"/>
     </row>
     <row r="1056" spans="1:4" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1056" s="6">
@@ -20322,12 +20326,12 @@
       </c>
     </row>
     <row r="1058" spans="1:4" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1058" s="214" t="s">
+      <c r="A1058" s="218" t="s">
         <v>670</v>
       </c>
-      <c r="B1058" s="214"/>
-      <c r="C1058" s="214"/>
-      <c r="D1058" s="214"/>
+      <c r="B1058" s="218"/>
+      <c r="C1058" s="218"/>
+      <c r="D1058" s="218"/>
     </row>
     <row r="1059" spans="1:4" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1059" s="6">
@@ -20568,12 +20572,12 @@
       </c>
     </row>
     <row r="1076" spans="1:4" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1076" s="214" t="s">
+      <c r="A1076" s="218" t="s">
         <v>681</v>
       </c>
-      <c r="B1076" s="214"/>
-      <c r="C1076" s="214"/>
-      <c r="D1076" s="214"/>
+      <c r="B1076" s="218"/>
+      <c r="C1076" s="218"/>
+      <c r="D1076" s="218"/>
     </row>
     <row r="1077" spans="1:4" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1077" s="6">
@@ -20646,12 +20650,12 @@
       </c>
     </row>
     <row r="1082" spans="1:4" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1082" s="214" t="s">
+      <c r="A1082" s="218" t="s">
         <v>682</v>
       </c>
-      <c r="B1082" s="214"/>
-      <c r="C1082" s="214"/>
-      <c r="D1082" s="214"/>
+      <c r="B1082" s="218"/>
+      <c r="C1082" s="218"/>
+      <c r="D1082" s="218"/>
     </row>
     <row r="1083" spans="1:4" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1083" s="6">
@@ -21342,12 +21346,12 @@
       </c>
     </row>
     <row r="1133" spans="1:4" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1133" s="214" t="s">
+      <c r="A1133" s="218" t="s">
         <v>732</v>
       </c>
-      <c r="B1133" s="214"/>
-      <c r="C1133" s="214"/>
-      <c r="D1133" s="214"/>
+      <c r="B1133" s="218"/>
+      <c r="C1133" s="218"/>
+      <c r="D1133" s="218"/>
     </row>
     <row r="1134" spans="1:4" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1134" s="6">
@@ -21574,12 +21578,12 @@
       </c>
     </row>
     <row r="1150" spans="1:4" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1150" s="214" t="s">
+      <c r="A1150" s="218" t="s">
         <v>734</v>
       </c>
-      <c r="B1150" s="214"/>
-      <c r="C1150" s="214"/>
-      <c r="D1150" s="214"/>
+      <c r="B1150" s="218"/>
+      <c r="C1150" s="218"/>
+      <c r="D1150" s="218"/>
     </row>
     <row r="1151" spans="1:4" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1151" s="6">
@@ -21820,12 +21824,12 @@
       </c>
     </row>
     <row r="1168" spans="1:4" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1168" s="214" t="s">
+      <c r="A1168" s="218" t="s">
         <v>752</v>
       </c>
-      <c r="B1168" s="214"/>
-      <c r="C1168" s="214"/>
-      <c r="D1168" s="214"/>
+      <c r="B1168" s="218"/>
+      <c r="C1168" s="218"/>
+      <c r="D1168" s="218"/>
     </row>
     <row r="1169" spans="1:4" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1169" s="6">
@@ -22136,12 +22140,12 @@
       </c>
     </row>
     <row r="1191" spans="1:4" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1191" s="214" t="s">
+      <c r="A1191" s="218" t="s">
         <v>775</v>
       </c>
-      <c r="B1191" s="214"/>
-      <c r="C1191" s="214"/>
-      <c r="D1191" s="214"/>
+      <c r="B1191" s="218"/>
+      <c r="C1191" s="218"/>
+      <c r="D1191" s="218"/>
     </row>
     <row r="1192" spans="1:4" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1192" s="6">
@@ -22200,12 +22204,12 @@
       </c>
     </row>
     <row r="1196" spans="1:4" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1196" s="214" t="s">
+      <c r="A1196" s="218" t="s">
         <v>780</v>
       </c>
-      <c r="B1196" s="214"/>
-      <c r="C1196" s="214"/>
-      <c r="D1196" s="214"/>
+      <c r="B1196" s="218"/>
+      <c r="C1196" s="218"/>
+      <c r="D1196" s="218"/>
     </row>
     <row r="1197" spans="1:4" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1197" s="6">
@@ -23090,12 +23094,12 @@
       </c>
     </row>
     <row r="1260" spans="1:4" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1260" s="214" t="s">
+      <c r="A1260" s="218" t="s">
         <v>816</v>
       </c>
-      <c r="B1260" s="214"/>
-      <c r="C1260" s="214"/>
-      <c r="D1260" s="214"/>
+      <c r="B1260" s="218"/>
+      <c r="C1260" s="218"/>
+      <c r="D1260" s="218"/>
     </row>
     <row r="1261" spans="1:4" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1261" s="6">
@@ -23322,12 +23326,12 @@
       </c>
     </row>
     <row r="1277" spans="1:4" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1277" s="214" t="s">
+      <c r="A1277" s="218" t="s">
         <v>833</v>
       </c>
-      <c r="B1277" s="214"/>
-      <c r="C1277" s="214"/>
-      <c r="D1277" s="214"/>
+      <c r="B1277" s="218"/>
+      <c r="C1277" s="218"/>
+      <c r="D1277" s="218"/>
     </row>
     <row r="1278" spans="1:4" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1278" s="6">
@@ -23708,12 +23712,12 @@
       </c>
     </row>
     <row r="1305" spans="1:4" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1305" s="214" t="s">
+      <c r="A1305" s="218" t="s">
         <v>857</v>
       </c>
-      <c r="B1305" s="214"/>
-      <c r="C1305" s="214"/>
-      <c r="D1305" s="214"/>
+      <c r="B1305" s="218"/>
+      <c r="C1305" s="218"/>
+      <c r="D1305" s="218"/>
     </row>
     <row r="1306" spans="1:4" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1306" s="6">
@@ -23786,12 +23790,12 @@
       </c>
     </row>
     <row r="1311" spans="1:4" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1311" s="214" t="s">
+      <c r="A1311" s="218" t="s">
         <v>859</v>
       </c>
-      <c r="B1311" s="214"/>
-      <c r="C1311" s="214"/>
-      <c r="D1311" s="214"/>
+      <c r="B1311" s="218"/>
+      <c r="C1311" s="218"/>
+      <c r="D1311" s="218"/>
     </row>
     <row r="1312" spans="1:4" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1312" s="6">
@@ -23892,12 +23896,12 @@
       </c>
     </row>
     <row r="1319" spans="1:4" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1319" s="214" t="s">
+      <c r="A1319" s="218" t="s">
         <v>860</v>
       </c>
-      <c r="B1319" s="214"/>
-      <c r="C1319" s="214"/>
-      <c r="D1319" s="214"/>
+      <c r="B1319" s="218"/>
+      <c r="C1319" s="218"/>
+      <c r="D1319" s="218"/>
     </row>
     <row r="1320" spans="1:4" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1320" s="6">
@@ -24681,12 +24685,12 @@
       </c>
     </row>
     <row r="1376" spans="1:4" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1376" s="214" t="s">
+      <c r="A1376" s="218" t="s">
         <v>917</v>
       </c>
-      <c r="B1376" s="214"/>
-      <c r="C1376" s="214"/>
-      <c r="D1376" s="214"/>
+      <c r="B1376" s="218"/>
+      <c r="C1376" s="218"/>
+      <c r="D1376" s="218"/>
     </row>
     <row r="1377" spans="1:4" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1377" s="6">
@@ -25711,12 +25715,12 @@
       </c>
     </row>
     <row r="1450" spans="1:4" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1450" s="214" t="s">
+      <c r="A1450" s="218" t="s">
         <v>981</v>
       </c>
-      <c r="B1450" s="214"/>
-      <c r="C1450" s="214"/>
-      <c r="D1450" s="214"/>
+      <c r="B1450" s="218"/>
+      <c r="C1450" s="218"/>
+      <c r="D1450" s="218"/>
     </row>
     <row r="1451" spans="1:4" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1451" s="6">
@@ -26055,12 +26059,12 @@
       </c>
     </row>
     <row r="1475" spans="1:4" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1475" s="214" t="s">
+      <c r="A1475" s="218" t="s">
         <v>1006</v>
       </c>
-      <c r="B1475" s="214"/>
-      <c r="C1475" s="214"/>
-      <c r="D1475" s="214"/>
+      <c r="B1475" s="218"/>
+      <c r="C1475" s="218"/>
+      <c r="D1475" s="218"/>
     </row>
     <row r="1476" spans="1:4" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1476" s="6">
@@ -26203,12 +26207,12 @@
       </c>
     </row>
     <row r="1486" spans="1:4" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1486" s="214" t="s">
+      <c r="A1486" s="218" t="s">
         <v>1017</v>
       </c>
-      <c r="B1486" s="214"/>
-      <c r="C1486" s="214"/>
-      <c r="D1486" s="214"/>
+      <c r="B1486" s="218"/>
+      <c r="C1486" s="218"/>
+      <c r="D1486" s="218"/>
     </row>
     <row r="1487" spans="1:4" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1487" s="6">
@@ -26306,12 +26310,12 @@
       </c>
     </row>
     <row r="1494" spans="1:4" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1494" s="214" t="s">
+      <c r="A1494" s="218" t="s">
         <v>1025</v>
       </c>
-      <c r="B1494" s="214"/>
-      <c r="C1494" s="214"/>
-      <c r="D1494" s="214"/>
+      <c r="B1494" s="218"/>
+      <c r="C1494" s="218"/>
+      <c r="D1494" s="218"/>
     </row>
     <row r="1495" spans="1:4" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1495" s="6">
@@ -26342,84 +26346,84 @@
       </c>
     </row>
     <row r="1497" spans="1:4" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1497" s="213"/>
-      <c r="B1497" s="213"/>
-      <c r="C1497" s="213"/>
-      <c r="D1497" s="213"/>
+      <c r="A1497" s="219"/>
+      <c r="B1497" s="219"/>
+      <c r="C1497" s="219"/>
+      <c r="D1497" s="219"/>
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A131:D131"/>
-    <mergeCell ref="A171:D171"/>
-    <mergeCell ref="A194:D194"/>
-    <mergeCell ref="A205:D205"/>
-    <mergeCell ref="A220:D220"/>
-    <mergeCell ref="A224:D224"/>
-    <mergeCell ref="A226:D226"/>
-    <mergeCell ref="A251:D251"/>
-    <mergeCell ref="A306:D306"/>
-    <mergeCell ref="A318:D318"/>
-    <mergeCell ref="A343:D343"/>
-    <mergeCell ref="A355:D355"/>
-    <mergeCell ref="A372:D372"/>
-    <mergeCell ref="A454:D454"/>
-    <mergeCell ref="A471:D471"/>
-    <mergeCell ref="A473:D473"/>
-    <mergeCell ref="A486:D486"/>
-    <mergeCell ref="A495:D495"/>
-    <mergeCell ref="A522:D522"/>
-    <mergeCell ref="A541:D541"/>
-    <mergeCell ref="A581:D581"/>
-    <mergeCell ref="A583:D583"/>
-    <mergeCell ref="A588:D588"/>
-    <mergeCell ref="A620:D620"/>
-    <mergeCell ref="A651:D651"/>
-    <mergeCell ref="A663:D663"/>
-    <mergeCell ref="A680:D680"/>
-    <mergeCell ref="A712:D712"/>
-    <mergeCell ref="A743:D743"/>
-    <mergeCell ref="A843:D843"/>
-    <mergeCell ref="A876:D876"/>
-    <mergeCell ref="A923:D923"/>
-    <mergeCell ref="A947:D947"/>
-    <mergeCell ref="A969:D969"/>
-    <mergeCell ref="A999:D999"/>
-    <mergeCell ref="A1003:D1003"/>
-    <mergeCell ref="A1009:D1009"/>
-    <mergeCell ref="A1011:D1011"/>
-    <mergeCell ref="A1016:D1016"/>
-    <mergeCell ref="A1036:D1036"/>
-    <mergeCell ref="A1043:D1043"/>
-    <mergeCell ref="A1049:D1049"/>
-    <mergeCell ref="A1055:D1055"/>
-    <mergeCell ref="A1058:D1058"/>
-    <mergeCell ref="A1076:D1076"/>
-    <mergeCell ref="A1082:D1082"/>
-    <mergeCell ref="A1133:D1133"/>
-    <mergeCell ref="A1150:D1150"/>
-    <mergeCell ref="A1168:D1168"/>
-    <mergeCell ref="A1191:D1191"/>
-    <mergeCell ref="A1196:D1196"/>
-    <mergeCell ref="A1260:D1260"/>
-    <mergeCell ref="A1277:D1277"/>
-    <mergeCell ref="A1305:D1305"/>
-    <mergeCell ref="A1311:D1311"/>
-    <mergeCell ref="A1319:D1319"/>
     <mergeCell ref="A1497:D1497"/>
     <mergeCell ref="A1376:D1376"/>
     <mergeCell ref="A1450:D1450"/>
     <mergeCell ref="A1475:D1475"/>
     <mergeCell ref="A1486:D1486"/>
     <mergeCell ref="A1494:D1494"/>
+    <mergeCell ref="A1260:D1260"/>
+    <mergeCell ref="A1277:D1277"/>
+    <mergeCell ref="A1305:D1305"/>
+    <mergeCell ref="A1311:D1311"/>
+    <mergeCell ref="A1319:D1319"/>
+    <mergeCell ref="A1133:D1133"/>
+    <mergeCell ref="A1150:D1150"/>
+    <mergeCell ref="A1168:D1168"/>
+    <mergeCell ref="A1191:D1191"/>
+    <mergeCell ref="A1196:D1196"/>
+    <mergeCell ref="A1049:D1049"/>
+    <mergeCell ref="A1055:D1055"/>
+    <mergeCell ref="A1058:D1058"/>
+    <mergeCell ref="A1076:D1076"/>
+    <mergeCell ref="A1082:D1082"/>
+    <mergeCell ref="A1009:D1009"/>
+    <mergeCell ref="A1011:D1011"/>
+    <mergeCell ref="A1016:D1016"/>
+    <mergeCell ref="A1036:D1036"/>
+    <mergeCell ref="A1043:D1043"/>
+    <mergeCell ref="A923:D923"/>
+    <mergeCell ref="A947:D947"/>
+    <mergeCell ref="A969:D969"/>
+    <mergeCell ref="A999:D999"/>
+    <mergeCell ref="A1003:D1003"/>
+    <mergeCell ref="A680:D680"/>
+    <mergeCell ref="A712:D712"/>
+    <mergeCell ref="A743:D743"/>
+    <mergeCell ref="A843:D843"/>
+    <mergeCell ref="A876:D876"/>
+    <mergeCell ref="A583:D583"/>
+    <mergeCell ref="A588:D588"/>
+    <mergeCell ref="A620:D620"/>
+    <mergeCell ref="A651:D651"/>
+    <mergeCell ref="A663:D663"/>
+    <mergeCell ref="A486:D486"/>
+    <mergeCell ref="A495:D495"/>
+    <mergeCell ref="A522:D522"/>
+    <mergeCell ref="A541:D541"/>
+    <mergeCell ref="A581:D581"/>
+    <mergeCell ref="A355:D355"/>
+    <mergeCell ref="A372:D372"/>
+    <mergeCell ref="A454:D454"/>
+    <mergeCell ref="A471:D471"/>
+    <mergeCell ref="A473:D473"/>
+    <mergeCell ref="A226:D226"/>
+    <mergeCell ref="A251:D251"/>
+    <mergeCell ref="A306:D306"/>
+    <mergeCell ref="A318:D318"/>
+    <mergeCell ref="A343:D343"/>
+    <mergeCell ref="A171:D171"/>
+    <mergeCell ref="A194:D194"/>
+    <mergeCell ref="A205:D205"/>
+    <mergeCell ref="A220:D220"/>
+    <mergeCell ref="A224:D224"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A131:D131"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A24:D24"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
@@ -26430,16 +26434,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J345"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="A2:I175"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I175" sqref="I175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="17.33203125" customWidth="1"/>
     <col min="5" max="5" width="111.6640625" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" style="217"/>
-    <col min="8" max="8" width="38.83203125" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" style="213"/>
+    <col min="8" max="8" width="38.83203125" style="220" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
@@ -26458,16 +26462,16 @@
       <c r="F2" t="s">
         <v>1505</v>
       </c>
-      <c r="G2" s="218" t="s">
+      <c r="G2" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="6">
         <v>19107</v>
       </c>
-      <c r="I2" s="219" t="s">
+      <c r="I2" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J2" s="219"/>
+      <c r="J2" s="215"/>
     </row>
     <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -26485,16 +26489,16 @@
       <c r="F3" t="s">
         <v>1505</v>
       </c>
-      <c r="G3" s="218" t="s">
+      <c r="G3" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="6">
         <v>19107</v>
       </c>
-      <c r="I3" s="219" t="s">
+      <c r="I3" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J3" s="219"/>
+      <c r="J3" s="215"/>
     </row>
     <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -26512,16 +26516,16 @@
       <c r="F4" t="s">
         <v>1505</v>
       </c>
-      <c r="G4" s="218" t="s">
+      <c r="G4" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="6">
         <v>19107</v>
       </c>
-      <c r="I4" s="219" t="s">
+      <c r="I4" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J4" s="219"/>
+      <c r="J4" s="215"/>
     </row>
     <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -26539,16 +26543,16 @@
       <c r="F5" t="s">
         <v>1505</v>
       </c>
-      <c r="G5" s="218" t="s">
+      <c r="G5" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="6">
         <v>19107</v>
       </c>
-      <c r="I5" s="219" t="s">
+      <c r="I5" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J5" s="219"/>
+      <c r="J5" s="215"/>
     </row>
     <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -26566,16 +26570,16 @@
       <c r="F6" t="s">
         <v>1505</v>
       </c>
-      <c r="G6" s="218" t="s">
+      <c r="G6" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="6">
         <v>20124</v>
       </c>
-      <c r="I6" s="219" t="s">
+      <c r="I6" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J6" s="219"/>
+      <c r="J6" s="215"/>
     </row>
     <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -26593,16 +26597,16 @@
       <c r="F7" t="s">
         <v>1505</v>
       </c>
-      <c r="G7" s="218" t="s">
+      <c r="G7" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="6">
         <v>20124</v>
       </c>
-      <c r="I7" s="219" t="s">
+      <c r="I7" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J7" s="219"/>
+      <c r="J7" s="215"/>
     </row>
     <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -26620,16 +26624,16 @@
       <c r="F8" t="s">
         <v>1505</v>
       </c>
-      <c r="G8" s="218" t="s">
+      <c r="G8" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="6">
         <v>22156</v>
       </c>
-      <c r="I8" s="219" t="s">
+      <c r="I8" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J8" s="219"/>
+      <c r="J8" s="215"/>
     </row>
     <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -26647,16 +26651,16 @@
       <c r="F9" t="s">
         <v>1505</v>
       </c>
-      <c r="G9" s="218" t="s">
+      <c r="G9" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="6">
         <v>22156</v>
       </c>
-      <c r="I9" s="219" t="s">
+      <c r="I9" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J9" s="219"/>
+      <c r="J9" s="215"/>
     </row>
     <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -26674,16 +26678,16 @@
       <c r="F10" t="s">
         <v>1505</v>
       </c>
-      <c r="G10" s="218" t="s">
+      <c r="G10" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="6">
         <v>20790</v>
       </c>
-      <c r="I10" s="219" t="s">
+      <c r="I10" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J10" s="219"/>
+      <c r="J10" s="215"/>
     </row>
     <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -26701,16 +26705,16 @@
       <c r="F11" t="s">
         <v>1505</v>
       </c>
-      <c r="G11" s="218" t="s">
+      <c r="G11" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="6">
         <v>20790</v>
       </c>
-      <c r="I11" s="219" t="s">
+      <c r="I11" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J11" s="219"/>
+      <c r="J11" s="215"/>
     </row>
     <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -26728,16 +26732,16 @@
       <c r="F12" t="s">
         <v>1505</v>
       </c>
-      <c r="G12" s="218" t="s">
+      <c r="G12" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="6">
         <v>19750</v>
       </c>
-      <c r="I12" s="219" t="s">
+      <c r="I12" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J12" s="219"/>
+      <c r="J12" s="215"/>
     </row>
     <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -26755,16 +26759,16 @@
       <c r="F13" t="s">
         <v>1505</v>
       </c>
-      <c r="G13" s="218" t="s">
+      <c r="G13" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H13" s="6">
         <v>15245</v>
       </c>
-      <c r="I13" s="219" t="s">
+      <c r="I13" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J13" s="219"/>
+      <c r="J13" s="215"/>
     </row>
     <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -26782,16 +26786,16 @@
       <c r="F14" t="s">
         <v>1505</v>
       </c>
-      <c r="G14" s="218" t="s">
+      <c r="G14" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H14" s="6">
         <v>15245</v>
       </c>
-      <c r="I14" s="219" t="s">
+      <c r="I14" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J14" s="219"/>
+      <c r="J14" s="215"/>
     </row>
     <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -26809,16 +26813,16 @@
       <c r="F15" t="s">
         <v>1505</v>
       </c>
-      <c r="G15" s="218" t="s">
+      <c r="G15" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H15" s="13">
+      <c r="H15" s="6">
         <v>15245</v>
       </c>
-      <c r="I15" s="219" t="s">
+      <c r="I15" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J15" s="219"/>
+      <c r="J15" s="215"/>
     </row>
     <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -26836,16 +26840,16 @@
       <c r="F16" t="s">
         <v>1505</v>
       </c>
-      <c r="G16" s="218" t="s">
+      <c r="G16" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H16" s="14">
+      <c r="H16" s="6">
         <v>19300</v>
       </c>
-      <c r="I16" s="219" t="s">
+      <c r="I16" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J16" s="219"/>
+      <c r="J16" s="215"/>
     </row>
     <row r="17" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -26863,16 +26867,16 @@
       <c r="F17" t="s">
         <v>1505</v>
       </c>
-      <c r="G17" s="218" t="s">
+      <c r="G17" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H17" s="15">
+      <c r="H17" s="6">
         <v>17157</v>
       </c>
-      <c r="I17" s="219" t="s">
+      <c r="I17" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J17" s="219"/>
+      <c r="J17" s="215"/>
     </row>
     <row r="18" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -26890,16 +26894,16 @@
       <c r="F18" t="s">
         <v>1505</v>
       </c>
-      <c r="G18" s="218" t="s">
+      <c r="G18" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H18" s="16">
+      <c r="H18" s="6">
         <v>16939</v>
       </c>
-      <c r="I18" s="219" t="s">
+      <c r="I18" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J18" s="219"/>
+      <c r="J18" s="215"/>
     </row>
     <row r="19" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -26917,16 +26921,16 @@
       <c r="F19" t="s">
         <v>1505</v>
       </c>
-      <c r="G19" s="218" t="s">
+      <c r="G19" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H19" s="16">
+      <c r="H19" s="6">
         <v>16939</v>
       </c>
-      <c r="I19" s="219" t="s">
+      <c r="I19" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J19" s="219"/>
+      <c r="J19" s="215"/>
     </row>
     <row r="20" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -26944,16 +26948,16 @@
       <c r="F20" t="s">
         <v>1505</v>
       </c>
-      <c r="G20" s="218" t="s">
+      <c r="G20" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H20" s="16">
+      <c r="H20" s="6">
         <v>16939</v>
       </c>
-      <c r="I20" s="219" t="s">
+      <c r="I20" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J20" s="219"/>
+      <c r="J20" s="215"/>
     </row>
     <row r="21" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -26971,16 +26975,16 @@
       <c r="F21" t="s">
         <v>1505</v>
       </c>
-      <c r="G21" s="218" t="s">
+      <c r="G21" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H21" s="17">
+      <c r="H21" s="6">
         <v>18091</v>
       </c>
-      <c r="I21" s="219" t="s">
+      <c r="I21" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J21" s="219"/>
+      <c r="J21" s="215"/>
     </row>
     <row r="22" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -26998,16 +27002,16 @@
       <c r="F22" t="s">
         <v>1505</v>
       </c>
-      <c r="G22" s="218" t="s">
+      <c r="G22" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H22" s="17">
+      <c r="H22" s="6">
         <v>18091</v>
       </c>
-      <c r="I22" s="219" t="s">
+      <c r="I22" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J22" s="219"/>
+      <c r="J22" s="215"/>
     </row>
     <row r="23" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -27025,16 +27029,16 @@
       <c r="F23" t="s">
         <v>1505</v>
       </c>
-      <c r="G23" s="218" t="s">
+      <c r="G23" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H23" s="17">
+      <c r="H23" s="6">
         <v>18091</v>
       </c>
-      <c r="I23" s="219" t="s">
+      <c r="I23" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J23" s="219"/>
+      <c r="J23" s="215"/>
     </row>
     <row r="24" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -27052,16 +27056,16 @@
       <c r="F24" t="s">
         <v>1505</v>
       </c>
-      <c r="G24" s="218" t="s">
+      <c r="G24" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H24" s="18">
+      <c r="H24" s="6">
         <v>17347</v>
       </c>
-      <c r="I24" s="219" t="s">
+      <c r="I24" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J24" s="219"/>
+      <c r="J24" s="215"/>
     </row>
     <row r="25" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -27079,16 +27083,16 @@
       <c r="F25" t="s">
         <v>1505</v>
       </c>
-      <c r="G25" s="218" t="s">
+      <c r="G25" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H25" s="18">
+      <c r="H25" s="6">
         <v>17347</v>
       </c>
-      <c r="I25" s="219" t="s">
+      <c r="I25" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J25" s="219"/>
+      <c r="J25" s="215"/>
     </row>
     <row r="26" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -27106,16 +27110,16 @@
       <c r="F26" t="s">
         <v>1505</v>
       </c>
-      <c r="G26" s="218" t="s">
+      <c r="G26" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H26" s="16">
+      <c r="H26" s="6">
         <v>16939</v>
       </c>
-      <c r="I26" s="219" t="s">
+      <c r="I26" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J26" s="219"/>
+      <c r="J26" s="215"/>
     </row>
     <row r="27" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -27133,16 +27137,16 @@
       <c r="F27" t="s">
         <v>1505</v>
       </c>
-      <c r="G27" s="218" t="s">
+      <c r="G27" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H27" s="16">
+      <c r="H27" s="6">
         <v>16939</v>
       </c>
-      <c r="I27" s="219" t="s">
+      <c r="I27" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J27" s="219"/>
+      <c r="J27" s="215"/>
     </row>
     <row r="28" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -27160,16 +27164,16 @@
       <c r="F28" t="s">
         <v>1505</v>
       </c>
-      <c r="G28" s="218" t="s">
+      <c r="G28" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H28" s="16">
+      <c r="H28" s="6">
         <v>16939</v>
       </c>
-      <c r="I28" s="219" t="s">
+      <c r="I28" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J28" s="219"/>
+      <c r="J28" s="215"/>
     </row>
     <row r="29" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -27187,16 +27191,16 @@
       <c r="F29" t="s">
         <v>1505</v>
       </c>
-      <c r="G29" s="218" t="s">
+      <c r="G29" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H29" s="19">
+      <c r="H29" s="6">
         <v>17137</v>
       </c>
-      <c r="I29" s="219" t="s">
+      <c r="I29" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J29" s="219"/>
+      <c r="J29" s="215"/>
     </row>
     <row r="30" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -27214,16 +27218,16 @@
       <c r="F30" t="s">
         <v>1505</v>
       </c>
-      <c r="G30" s="218" t="s">
+      <c r="G30" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H30" s="19">
+      <c r="H30" s="6">
         <v>17137</v>
       </c>
-      <c r="I30" s="219" t="s">
+      <c r="I30" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J30" s="219"/>
+      <c r="J30" s="215"/>
     </row>
     <row r="31" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -27241,16 +27245,16 @@
       <c r="F31" t="s">
         <v>1505</v>
       </c>
-      <c r="G31" s="218" t="s">
+      <c r="G31" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H31" s="19">
+      <c r="H31" s="6">
         <v>17137</v>
       </c>
-      <c r="I31" s="219" t="s">
+      <c r="I31" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J31" s="219"/>
+      <c r="J31" s="215"/>
     </row>
     <row r="32" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -27268,16 +27272,16 @@
       <c r="F32" t="s">
         <v>1505</v>
       </c>
-      <c r="G32" s="218" t="s">
+      <c r="G32" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H32" s="19">
+      <c r="H32" s="6">
         <v>17137</v>
       </c>
-      <c r="I32" s="219" t="s">
+      <c r="I32" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J32" s="219"/>
+      <c r="J32" s="215"/>
     </row>
     <row r="33" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -27295,16 +27299,16 @@
       <c r="F33" t="s">
         <v>1505</v>
       </c>
-      <c r="G33" s="218" t="s">
+      <c r="G33" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H33" s="20">
+      <c r="H33" s="6">
         <v>18990</v>
       </c>
-      <c r="I33" s="219" t="s">
+      <c r="I33" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J33" s="219"/>
+      <c r="J33" s="215"/>
     </row>
     <row r="34" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
@@ -27322,16 +27326,16 @@
       <c r="F34" t="s">
         <v>1505</v>
       </c>
-      <c r="G34" s="218" t="s">
+      <c r="G34" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H34" s="21">
+      <c r="H34" s="6">
         <v>16819</v>
       </c>
-      <c r="I34" s="219" t="s">
+      <c r="I34" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J34" s="219"/>
+      <c r="J34" s="215"/>
     </row>
     <row r="35" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
@@ -27349,16 +27353,16 @@
       <c r="F35" t="s">
         <v>1505</v>
       </c>
-      <c r="G35" s="218" t="s">
+      <c r="G35" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H35" s="22">
+      <c r="H35" s="6">
         <v>26200</v>
       </c>
-      <c r="I35" s="219" t="s">
+      <c r="I35" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J35" s="219"/>
+      <c r="J35" s="215"/>
     </row>
     <row r="36" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -27376,16 +27380,16 @@
       <c r="F36" t="s">
         <v>1505</v>
       </c>
-      <c r="G36" s="218" t="s">
+      <c r="G36" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H36" s="23">
+      <c r="H36" s="6">
         <v>30440</v>
       </c>
-      <c r="I36" s="219" t="s">
+      <c r="I36" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J36" s="219"/>
+      <c r="J36" s="215"/>
     </row>
     <row r="37" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -27403,16 +27407,16 @@
       <c r="F37" t="s">
         <v>1505</v>
       </c>
-      <c r="G37" s="218" t="s">
+      <c r="G37" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H37" s="23">
+      <c r="H37" s="6">
         <v>30440</v>
       </c>
-      <c r="I37" s="219" t="s">
+      <c r="I37" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J37" s="219"/>
+      <c r="J37" s="215"/>
     </row>
     <row r="38" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -27430,16 +27434,16 @@
       <c r="F38" t="s">
         <v>1505</v>
       </c>
-      <c r="G38" s="218" t="s">
+      <c r="G38" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H38" s="23">
+      <c r="H38" s="6">
         <v>30440</v>
       </c>
-      <c r="I38" s="219" t="s">
+      <c r="I38" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J38" s="219"/>
+      <c r="J38" s="215"/>
     </row>
     <row r="39" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
@@ -27457,16 +27461,16 @@
       <c r="F39" t="s">
         <v>1505</v>
       </c>
-      <c r="G39" s="218" t="s">
+      <c r="G39" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H39" s="24">
+      <c r="H39" s="6">
         <v>18290</v>
       </c>
-      <c r="I39" s="219" t="s">
+      <c r="I39" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J39" s="219"/>
+      <c r="J39" s="215"/>
     </row>
     <row r="40" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -27484,16 +27488,16 @@
       <c r="F40" t="s">
         <v>1505</v>
       </c>
-      <c r="G40" s="218" t="s">
+      <c r="G40" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H40" s="24">
+      <c r="H40" s="6">
         <v>18290</v>
       </c>
-      <c r="I40" s="219" t="s">
+      <c r="I40" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J40" s="219"/>
+      <c r="J40" s="215"/>
     </row>
     <row r="41" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
@@ -27511,16 +27515,16 @@
       <c r="F41" t="s">
         <v>1505</v>
       </c>
-      <c r="G41" s="218" t="s">
+      <c r="G41" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H41" s="24">
+      <c r="H41" s="6">
         <v>18290</v>
       </c>
-      <c r="I41" s="219" t="s">
+      <c r="I41" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J41" s="219"/>
+      <c r="J41" s="215"/>
     </row>
     <row r="42" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
@@ -27538,16 +27542,16 @@
       <c r="F42" t="s">
         <v>1505</v>
       </c>
-      <c r="G42" s="218" t="s">
+      <c r="G42" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H42" s="25">
+      <c r="H42" s="6">
         <v>20510</v>
       </c>
-      <c r="I42" s="219" t="s">
+      <c r="I42" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J42" s="219"/>
+      <c r="J42" s="215"/>
     </row>
     <row r="43" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
@@ -27565,16 +27569,16 @@
       <c r="F43" t="s">
         <v>1505</v>
       </c>
-      <c r="G43" s="218" t="s">
+      <c r="G43" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H43" s="25">
+      <c r="H43" s="6">
         <v>20510</v>
       </c>
-      <c r="I43" s="219" t="s">
+      <c r="I43" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J43" s="219"/>
+      <c r="J43" s="215"/>
     </row>
     <row r="44" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -27592,16 +27596,16 @@
       <c r="F44" t="s">
         <v>1505</v>
       </c>
-      <c r="G44" s="218" t="s">
+      <c r="G44" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H44" s="9">
+      <c r="H44" s="6">
         <v>20124</v>
       </c>
-      <c r="I44" s="219" t="s">
+      <c r="I44" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J44" s="219"/>
+      <c r="J44" s="215"/>
     </row>
     <row r="45" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -27619,16 +27623,16 @@
       <c r="F45" t="s">
         <v>1505</v>
       </c>
-      <c r="G45" s="218" t="s">
+      <c r="G45" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H45" s="9">
+      <c r="H45" s="6">
         <v>20124</v>
       </c>
-      <c r="I45" s="219" t="s">
+      <c r="I45" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J45" s="219"/>
+      <c r="J45" s="215"/>
     </row>
     <row r="46" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -27646,16 +27650,16 @@
       <c r="F46" t="s">
         <v>1505</v>
       </c>
-      <c r="G46" s="218" t="s">
+      <c r="G46" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H46" s="9">
+      <c r="H46" s="6">
         <v>20124</v>
       </c>
-      <c r="I46" s="219" t="s">
+      <c r="I46" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J46" s="219"/>
+      <c r="J46" s="215"/>
     </row>
     <row r="47" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
@@ -27673,16 +27677,16 @@
       <c r="F47" t="s">
         <v>1505</v>
       </c>
-      <c r="G47" s="218" t="s">
+      <c r="G47" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H47" s="9">
+      <c r="H47" s="6">
         <v>20124</v>
       </c>
-      <c r="I47" s="219" t="s">
+      <c r="I47" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J47" s="219"/>
+      <c r="J47" s="215"/>
     </row>
     <row r="48" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
@@ -27700,16 +27704,16 @@
       <c r="F48" t="s">
         <v>1505</v>
       </c>
-      <c r="G48" s="218" t="s">
+      <c r="G48" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H48" s="26">
+      <c r="H48" s="6">
         <v>20558</v>
       </c>
-      <c r="I48" s="219" t="s">
+      <c r="I48" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J48" s="219"/>
+      <c r="J48" s="215"/>
     </row>
     <row r="49" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
@@ -27727,16 +27731,16 @@
       <c r="F49" t="s">
         <v>1505</v>
       </c>
-      <c r="G49" s="218" t="s">
+      <c r="G49" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H49" s="8">
+      <c r="H49" s="6">
         <v>19107</v>
       </c>
-      <c r="I49" s="219" t="s">
+      <c r="I49" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J49" s="219"/>
+      <c r="J49" s="215"/>
     </row>
     <row r="50" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
@@ -27754,16 +27758,16 @@
       <c r="F50" t="s">
         <v>1505</v>
       </c>
-      <c r="G50" s="218" t="s">
+      <c r="G50" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H50" s="27">
+      <c r="H50" s="6">
         <v>18590</v>
       </c>
-      <c r="I50" s="219" t="s">
+      <c r="I50" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J50" s="219"/>
+      <c r="J50" s="215"/>
     </row>
     <row r="51" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
@@ -27781,16 +27785,16 @@
       <c r="F51" t="s">
         <v>1505</v>
       </c>
-      <c r="G51" s="218" t="s">
+      <c r="G51" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H51" s="27">
+      <c r="H51" s="6">
         <v>18590</v>
       </c>
-      <c r="I51" s="219" t="s">
+      <c r="I51" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J51" s="219"/>
+      <c r="J51" s="215"/>
     </row>
     <row r="52" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
@@ -27808,16 +27812,16 @@
       <c r="F52" t="s">
         <v>1505</v>
       </c>
-      <c r="G52" s="218" t="s">
+      <c r="G52" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H52" s="27">
+      <c r="H52" s="6">
         <v>18590</v>
       </c>
-      <c r="I52" s="219" t="s">
+      <c r="I52" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J52" s="219"/>
+      <c r="J52" s="215"/>
     </row>
     <row r="53" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
@@ -27835,16 +27839,16 @@
       <c r="F53" t="s">
         <v>1505</v>
       </c>
-      <c r="G53" s="218" t="s">
+      <c r="G53" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H53" s="25">
+      <c r="H53" s="6">
         <v>20510</v>
       </c>
-      <c r="I53" s="219" t="s">
+      <c r="I53" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J53" s="219"/>
+      <c r="J53" s="215"/>
     </row>
     <row r="54" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
@@ -27862,16 +27866,16 @@
       <c r="F54" t="s">
         <v>1505</v>
       </c>
-      <c r="G54" s="218" t="s">
+      <c r="G54" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H54" s="25">
+      <c r="H54" s="6">
         <v>20510</v>
       </c>
-      <c r="I54" s="219" t="s">
+      <c r="I54" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J54" s="219"/>
+      <c r="J54" s="215"/>
     </row>
     <row r="55" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
@@ -27889,16 +27893,16 @@
       <c r="F55" t="s">
         <v>1505</v>
       </c>
-      <c r="G55" s="218" t="s">
+      <c r="G55" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H55" s="25">
+      <c r="H55" s="6">
         <v>20510</v>
       </c>
-      <c r="I55" s="219" t="s">
+      <c r="I55" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J55" s="219"/>
+      <c r="J55" s="215"/>
     </row>
     <row r="56" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
@@ -27916,16 +27920,16 @@
       <c r="F56" t="s">
         <v>1505</v>
       </c>
-      <c r="G56" s="218" t="s">
+      <c r="G56" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H56" s="28">
+      <c r="H56" s="6">
         <v>29472</v>
       </c>
-      <c r="I56" s="219" t="s">
+      <c r="I56" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J56" s="219"/>
+      <c r="J56" s="215"/>
     </row>
     <row r="57" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
@@ -27943,16 +27947,16 @@
       <c r="F57" t="s">
         <v>1505</v>
       </c>
-      <c r="G57" s="218" t="s">
+      <c r="G57" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H57" s="28">
+      <c r="H57" s="6">
         <v>29472</v>
       </c>
-      <c r="I57" s="219" t="s">
+      <c r="I57" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J57" s="219"/>
+      <c r="J57" s="215"/>
     </row>
     <row r="58" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
@@ -27970,16 +27974,16 @@
       <c r="F58" t="s">
         <v>1505</v>
       </c>
-      <c r="G58" s="218" t="s">
+      <c r="G58" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H58" s="28">
+      <c r="H58" s="6">
         <v>29472</v>
       </c>
-      <c r="I58" s="219" t="s">
+      <c r="I58" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J58" s="219"/>
+      <c r="J58" s="215"/>
     </row>
     <row r="59" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
@@ -27997,16 +28001,16 @@
       <c r="F59" t="s">
         <v>1505</v>
       </c>
-      <c r="G59" s="218" t="s">
+      <c r="G59" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H59" s="29">
+      <c r="H59" s="6">
         <v>23838</v>
       </c>
-      <c r="I59" s="219" t="s">
+      <c r="I59" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J59" s="219"/>
+      <c r="J59" s="215"/>
     </row>
     <row r="60" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
@@ -28024,16 +28028,16 @@
       <c r="F60" t="s">
         <v>1505</v>
       </c>
-      <c r="G60" s="218" t="s">
+      <c r="G60" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H60" s="29">
+      <c r="H60" s="6">
         <v>23838</v>
       </c>
-      <c r="I60" s="219" t="s">
+      <c r="I60" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J60" s="219"/>
+      <c r="J60" s="215"/>
     </row>
     <row r="61" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
@@ -28051,16 +28055,16 @@
       <c r="F61" t="s">
         <v>1505</v>
       </c>
-      <c r="G61" s="218" t="s">
+      <c r="G61" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H61" s="29">
+      <c r="H61" s="6">
         <v>23838</v>
       </c>
-      <c r="I61" s="219" t="s">
+      <c r="I61" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J61" s="219"/>
+      <c r="J61" s="215"/>
     </row>
     <row r="62" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
@@ -28078,16 +28082,16 @@
       <c r="F62" t="s">
         <v>1505</v>
       </c>
-      <c r="G62" s="218" t="s">
+      <c r="G62" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H62" s="30">
+      <c r="H62" s="6">
         <v>19878</v>
       </c>
-      <c r="I62" s="219" t="s">
+      <c r="I62" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J62" s="219"/>
+      <c r="J62" s="215"/>
     </row>
     <row r="63" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
@@ -28105,16 +28109,16 @@
       <c r="F63" t="s">
         <v>1505</v>
       </c>
-      <c r="G63" s="218" t="s">
+      <c r="G63" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H63" s="30">
+      <c r="H63" s="6">
         <v>19878</v>
       </c>
-      <c r="I63" s="219" t="s">
+      <c r="I63" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J63" s="219"/>
+      <c r="J63" s="215"/>
     </row>
     <row r="64" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
@@ -28132,16 +28136,16 @@
       <c r="F64" t="s">
         <v>1505</v>
       </c>
-      <c r="G64" s="218" t="s">
+      <c r="G64" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H64" s="30">
+      <c r="H64" s="6">
         <v>19878</v>
       </c>
-      <c r="I64" s="219" t="s">
+      <c r="I64" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J64" s="219"/>
+      <c r="J64" s="215"/>
     </row>
     <row r="65" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
@@ -28159,16 +28163,16 @@
       <c r="F65" t="s">
         <v>1505</v>
       </c>
-      <c r="G65" s="218" t="s">
+      <c r="G65" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H65" s="30">
+      <c r="H65" s="6">
         <v>19878</v>
       </c>
-      <c r="I65" s="219" t="s">
+      <c r="I65" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J65" s="219"/>
+      <c r="J65" s="215"/>
     </row>
     <row r="66" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
@@ -28186,16 +28190,16 @@
       <c r="F66" t="s">
         <v>1505</v>
       </c>
-      <c r="G66" s="218" t="s">
+      <c r="G66" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H66" s="30">
+      <c r="H66" s="6">
         <v>19878</v>
       </c>
-      <c r="I66" s="219" t="s">
+      <c r="I66" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J66" s="219"/>
+      <c r="J66" s="215"/>
     </row>
     <row r="67" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
@@ -28213,16 +28217,16 @@
       <c r="F67" t="s">
         <v>1505</v>
       </c>
-      <c r="G67" s="218" t="s">
+      <c r="G67" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H67" s="30">
+      <c r="H67" s="6">
         <v>19878</v>
       </c>
-      <c r="I67" s="219" t="s">
+      <c r="I67" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J67" s="219"/>
+      <c r="J67" s="215"/>
     </row>
     <row r="68" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
@@ -28240,16 +28244,16 @@
       <c r="F68" t="s">
         <v>1505</v>
       </c>
-      <c r="G68" s="218" t="s">
+      <c r="G68" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H68" s="31">
+      <c r="H68" s="6">
         <v>14091</v>
       </c>
-      <c r="I68" s="219" t="s">
+      <c r="I68" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J68" s="219"/>
+      <c r="J68" s="215"/>
     </row>
     <row r="69" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
@@ -28267,16 +28271,16 @@
       <c r="F69" t="s">
         <v>1505</v>
       </c>
-      <c r="G69" s="218" t="s">
+      <c r="G69" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H69" s="31">
+      <c r="H69" s="6">
         <v>14091</v>
       </c>
-      <c r="I69" s="219" t="s">
+      <c r="I69" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J69" s="219"/>
+      <c r="J69" s="215"/>
     </row>
     <row r="70" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
@@ -28294,16 +28298,16 @@
       <c r="F70" t="s">
         <v>1505</v>
       </c>
-      <c r="G70" s="218" t="s">
+      <c r="G70" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H70" s="32">
+      <c r="H70" s="6">
         <v>20449</v>
       </c>
-      <c r="I70" s="219" t="s">
+      <c r="I70" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J70" s="219"/>
+      <c r="J70" s="215"/>
     </row>
     <row r="71" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
@@ -28321,16 +28325,16 @@
       <c r="F71" t="s">
         <v>1505</v>
       </c>
-      <c r="G71" s="218" t="s">
+      <c r="G71" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H71" s="32">
+      <c r="H71" s="6">
         <v>20449</v>
       </c>
-      <c r="I71" s="219" t="s">
+      <c r="I71" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J71" s="219"/>
+      <c r="J71" s="215"/>
     </row>
     <row r="72" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
@@ -28348,16 +28352,16 @@
       <c r="F72" t="s">
         <v>1505</v>
       </c>
-      <c r="G72" s="218" t="s">
+      <c r="G72" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H72" s="33">
+      <c r="H72" s="6">
         <v>2493</v>
       </c>
-      <c r="I72" s="219" t="s">
+      <c r="I72" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J72" s="219"/>
+      <c r="J72" s="215"/>
     </row>
     <row r="73" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
@@ -28375,16 +28379,16 @@
       <c r="F73" t="s">
         <v>1505</v>
       </c>
-      <c r="G73" s="218" t="s">
+      <c r="G73" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H73" s="34">
+      <c r="H73" s="6">
         <v>2572</v>
       </c>
-      <c r="I73" s="219" t="s">
+      <c r="I73" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J73" s="219"/>
+      <c r="J73" s="215"/>
     </row>
     <row r="74" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
@@ -28402,16 +28406,16 @@
       <c r="F74" t="s">
         <v>1505</v>
       </c>
-      <c r="G74" s="218" t="s">
+      <c r="G74" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H74" s="35">
+      <c r="H74" s="6">
         <v>7817</v>
       </c>
-      <c r="I74" s="219" t="s">
+      <c r="I74" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J74" s="219"/>
+      <c r="J74" s="215"/>
     </row>
     <row r="75" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
@@ -28429,16 +28433,16 @@
       <c r="F75" t="s">
         <v>1505</v>
       </c>
-      <c r="G75" s="218" t="s">
+      <c r="G75" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H75" s="36">
+      <c r="H75" s="6">
         <v>4200</v>
       </c>
-      <c r="I75" s="219" t="s">
+      <c r="I75" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J75" s="219"/>
+      <c r="J75" s="215"/>
     </row>
     <row r="76" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
@@ -28456,16 +28460,16 @@
       <c r="F76" t="s">
         <v>1505</v>
       </c>
-      <c r="G76" s="218" t="s">
+      <c r="G76" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H76" s="37">
+      <c r="H76" s="6">
         <v>2679</v>
       </c>
-      <c r="I76" s="219" t="s">
+      <c r="I76" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J76" s="219"/>
+      <c r="J76" s="215"/>
     </row>
     <row r="77" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
@@ -28483,16 +28487,16 @@
       <c r="F77" t="s">
         <v>1505</v>
       </c>
-      <c r="G77" s="218" t="s">
+      <c r="G77" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H77" s="38">
+      <c r="H77" s="6">
         <v>8249</v>
       </c>
-      <c r="I77" s="219" t="s">
+      <c r="I77" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J77" s="219"/>
+      <c r="J77" s="215"/>
     </row>
     <row r="78" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
@@ -28510,16 +28514,16 @@
       <c r="F78" t="s">
         <v>1505</v>
       </c>
-      <c r="G78" s="218" t="s">
+      <c r="G78" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H78" s="39">
+      <c r="H78" s="6">
         <v>8799</v>
       </c>
-      <c r="I78" s="219" t="s">
+      <c r="I78" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J78" s="219"/>
+      <c r="J78" s="215"/>
     </row>
     <row r="79" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
@@ -28537,16 +28541,16 @@
       <c r="F79" t="s">
         <v>1505</v>
       </c>
-      <c r="G79" s="218" t="s">
+      <c r="G79" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H79" s="40">
+      <c r="H79" s="6">
         <v>8326</v>
       </c>
-      <c r="I79" s="219" t="s">
+      <c r="I79" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J79" s="219"/>
+      <c r="J79" s="215"/>
     </row>
     <row r="80" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
@@ -28564,16 +28568,16 @@
       <c r="F80" t="s">
         <v>1505</v>
       </c>
-      <c r="G80" s="218" t="s">
+      <c r="G80" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H80" s="41">
+      <c r="H80" s="6">
         <v>6490</v>
       </c>
-      <c r="I80" s="219" t="s">
+      <c r="I80" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J80" s="219"/>
+      <c r="J80" s="215"/>
     </row>
     <row r="81" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
@@ -28591,16 +28595,16 @@
       <c r="F81" t="s">
         <v>1505</v>
       </c>
-      <c r="G81" s="218" t="s">
+      <c r="G81" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H81" s="42">
+      <c r="H81" s="6">
         <v>9651</v>
       </c>
-      <c r="I81" s="219" t="s">
+      <c r="I81" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J81" s="219"/>
+      <c r="J81" s="215"/>
     </row>
     <row r="82" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
@@ -28618,16 +28622,16 @@
       <c r="F82" t="s">
         <v>1505</v>
       </c>
-      <c r="G82" s="218" t="s">
+      <c r="G82" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H82" s="43">
+      <c r="H82" s="6">
         <v>5900</v>
       </c>
-      <c r="I82" s="219" t="s">
+      <c r="I82" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J82" s="219"/>
+      <c r="J82" s="215"/>
     </row>
     <row r="83" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
@@ -28645,16 +28649,16 @@
       <c r="F83" t="s">
         <v>1505</v>
       </c>
-      <c r="G83" s="218" t="s">
+      <c r="G83" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H83" s="44">
+      <c r="H83" s="6">
         <v>8685</v>
       </c>
-      <c r="I83" s="219" t="s">
+      <c r="I83" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J83" s="219"/>
+      <c r="J83" s="215"/>
     </row>
     <row r="84" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
@@ -28672,16 +28676,16 @@
       <c r="F84" t="s">
         <v>1505</v>
       </c>
-      <c r="G84" s="218" t="s">
+      <c r="G84" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H84" s="45">
+      <c r="H84" s="6">
         <v>9204</v>
       </c>
-      <c r="I84" s="219" t="s">
+      <c r="I84" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J84" s="219"/>
+      <c r="J84" s="215"/>
     </row>
     <row r="85" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
@@ -28699,16 +28703,16 @@
       <c r="F85" t="s">
         <v>1505</v>
       </c>
-      <c r="G85" s="218" t="s">
+      <c r="G85" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H85" s="46">
+      <c r="H85" s="6">
         <v>9614</v>
       </c>
-      <c r="I85" s="219" t="s">
+      <c r="I85" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J85" s="219"/>
+      <c r="J85" s="215"/>
     </row>
     <row r="86" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
@@ -28726,16 +28730,16 @@
       <c r="F86" t="s">
         <v>1505</v>
       </c>
-      <c r="G86" s="218" t="s">
+      <c r="G86" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H86" s="47">
+      <c r="H86" s="6">
         <v>9999</v>
       </c>
-      <c r="I86" s="219" t="s">
+      <c r="I86" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J86" s="219"/>
+      <c r="J86" s="215"/>
     </row>
     <row r="87" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
@@ -28753,16 +28757,16 @@
       <c r="F87" t="s">
         <v>1505</v>
       </c>
-      <c r="G87" s="218" t="s">
+      <c r="G87" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H87" s="48">
+      <c r="H87" s="6">
         <v>6985</v>
       </c>
-      <c r="I87" s="219" t="s">
+      <c r="I87" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J87" s="219"/>
+      <c r="J87" s="215"/>
     </row>
     <row r="88" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
@@ -28780,16 +28784,16 @@
       <c r="F88" t="s">
         <v>1505</v>
       </c>
-      <c r="G88" s="218" t="s">
+      <c r="G88" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H88" s="48">
+      <c r="H88" s="6">
         <v>6985</v>
       </c>
-      <c r="I88" s="219" t="s">
+      <c r="I88" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J88" s="219"/>
+      <c r="J88" s="215"/>
     </row>
     <row r="89" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
@@ -28807,16 +28811,16 @@
       <c r="F89" t="s">
         <v>1505</v>
       </c>
-      <c r="G89" s="218" t="s">
+      <c r="G89" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H89" s="49">
+      <c r="H89" s="6">
         <v>10648</v>
       </c>
-      <c r="I89" s="219" t="s">
+      <c r="I89" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J89" s="219"/>
+      <c r="J89" s="215"/>
     </row>
     <row r="90" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
@@ -28834,16 +28838,16 @@
       <c r="F90" t="s">
         <v>1505</v>
       </c>
-      <c r="G90" s="218" t="s">
+      <c r="G90" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H90" s="50">
+      <c r="H90" s="6">
         <v>9050</v>
       </c>
-      <c r="I90" s="219" t="s">
+      <c r="I90" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J90" s="219"/>
+      <c r="J90" s="215"/>
     </row>
     <row r="91" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
@@ -28861,16 +28865,16 @@
       <c r="F91" t="s">
         <v>1505</v>
       </c>
-      <c r="G91" s="218" t="s">
+      <c r="G91" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H91" s="51">
+      <c r="H91" s="6">
         <v>8349</v>
       </c>
-      <c r="I91" s="219" t="s">
+      <c r="I91" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J91" s="219"/>
+      <c r="J91" s="215"/>
     </row>
     <row r="92" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
@@ -28888,16 +28892,16 @@
       <c r="F92" t="s">
         <v>1505</v>
       </c>
-      <c r="G92" s="218" t="s">
+      <c r="G92" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H92" s="52">
+      <c r="H92" s="6">
         <v>9123</v>
       </c>
-      <c r="I92" s="219" t="s">
+      <c r="I92" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J92" s="219"/>
+      <c r="J92" s="215"/>
     </row>
     <row r="93" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
@@ -28915,16 +28919,16 @@
       <c r="F93" t="s">
         <v>1505</v>
       </c>
-      <c r="G93" s="218" t="s">
+      <c r="G93" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H93" s="53">
+      <c r="H93" s="6">
         <v>10368</v>
       </c>
-      <c r="I93" s="219" t="s">
+      <c r="I93" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J93" s="219"/>
+      <c r="J93" s="215"/>
     </row>
     <row r="94" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
@@ -28942,16 +28946,16 @@
       <c r="F94" t="s">
         <v>1505</v>
       </c>
-      <c r="G94" s="218" t="s">
+      <c r="G94" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H94" s="41">
+      <c r="H94" s="6">
         <v>6490</v>
       </c>
-      <c r="I94" s="219" t="s">
+      <c r="I94" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J94" s="219"/>
+      <c r="J94" s="215"/>
     </row>
     <row r="95" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
@@ -28969,16 +28973,16 @@
       <c r="F95" t="s">
         <v>1505</v>
       </c>
-      <c r="G95" s="218" t="s">
+      <c r="G95" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H95" s="54">
+      <c r="H95" s="6">
         <v>3350</v>
       </c>
-      <c r="I95" s="219" t="s">
+      <c r="I95" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J95" s="219"/>
+      <c r="J95" s="215"/>
     </row>
     <row r="96" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
@@ -28996,16 +29000,16 @@
       <c r="F96" t="s">
         <v>1505</v>
       </c>
-      <c r="G96" s="218" t="s">
+      <c r="G96" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H96" s="54">
+      <c r="H96" s="6">
         <v>3350</v>
       </c>
-      <c r="I96" s="219" t="s">
+      <c r="I96" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J96" s="219"/>
+      <c r="J96" s="215"/>
     </row>
     <row r="97" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
@@ -29023,16 +29027,16 @@
       <c r="F97" t="s">
         <v>1505</v>
       </c>
-      <c r="G97" s="218" t="s">
+      <c r="G97" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H97" s="55">
+      <c r="H97" s="6">
         <v>2850</v>
       </c>
-      <c r="I97" s="219" t="s">
+      <c r="I97" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J97" s="219"/>
+      <c r="J97" s="215"/>
     </row>
     <row r="98" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
@@ -29050,16 +29054,16 @@
       <c r="F98" t="s">
         <v>1505</v>
       </c>
-      <c r="G98" s="218" t="s">
+      <c r="G98" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H98" s="55">
+      <c r="H98" s="6">
         <v>2850</v>
       </c>
-      <c r="I98" s="219" t="s">
+      <c r="I98" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J98" s="219"/>
+      <c r="J98" s="215"/>
     </row>
     <row r="99" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
@@ -29077,16 +29081,16 @@
       <c r="F99" t="s">
         <v>1505</v>
       </c>
-      <c r="G99" s="218" t="s">
+      <c r="G99" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H99" s="56">
+      <c r="H99" s="6">
         <v>4389</v>
       </c>
-      <c r="I99" s="219" t="s">
+      <c r="I99" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J99" s="219"/>
+      <c r="J99" s="215"/>
     </row>
     <row r="100" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
@@ -29104,16 +29108,16 @@
       <c r="F100" t="s">
         <v>1505</v>
       </c>
-      <c r="G100" s="218" t="s">
+      <c r="G100" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H100" s="57">
+      <c r="H100" s="6">
         <v>15732</v>
       </c>
-      <c r="I100" s="219" t="s">
+      <c r="I100" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J100" s="219"/>
+      <c r="J100" s="215"/>
     </row>
     <row r="101" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
@@ -29131,16 +29135,16 @@
       <c r="F101" t="s">
         <v>1505</v>
       </c>
-      <c r="G101" s="218" t="s">
+      <c r="G101" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H101" s="58">
+      <c r="H101" s="6">
         <v>14142</v>
       </c>
-      <c r="I101" s="219" t="s">
+      <c r="I101" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J101" s="219"/>
+      <c r="J101" s="215"/>
     </row>
     <row r="102" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
@@ -29158,16 +29162,16 @@
       <c r="F102" t="s">
         <v>1505</v>
       </c>
-      <c r="G102" s="218" t="s">
+      <c r="G102" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H102" s="59">
+      <c r="H102" s="6">
         <v>12727</v>
       </c>
-      <c r="I102" s="219" t="s">
+      <c r="I102" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J102" s="219"/>
+      <c r="J102" s="215"/>
     </row>
     <row r="103" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
@@ -29185,16 +29189,16 @@
       <c r="F103" t="s">
         <v>1505</v>
       </c>
-      <c r="G103" s="218" t="s">
+      <c r="G103" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H103" s="60">
+      <c r="H103" s="6">
         <v>13915</v>
       </c>
-      <c r="I103" s="219" t="s">
+      <c r="I103" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J103" s="219"/>
+      <c r="J103" s="215"/>
     </row>
     <row r="104" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
@@ -29212,16 +29216,16 @@
       <c r="F104" t="s">
         <v>1505</v>
       </c>
-      <c r="G104" s="218" t="s">
+      <c r="G104" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H104" s="60">
+      <c r="H104" s="6">
         <v>13915</v>
       </c>
-      <c r="I104" s="219" t="s">
+      <c r="I104" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J104" s="219"/>
+      <c r="J104" s="215"/>
     </row>
     <row r="105" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
@@ -29239,16 +29243,16 @@
       <c r="F105" t="s">
         <v>1505</v>
       </c>
-      <c r="G105" s="218" t="s">
+      <c r="G105" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H105" s="61">
+      <c r="H105" s="6">
         <v>9129</v>
       </c>
-      <c r="I105" s="219" t="s">
+      <c r="I105" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J105" s="219"/>
+      <c r="J105" s="215"/>
     </row>
     <row r="106" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
@@ -29266,16 +29270,16 @@
       <c r="F106" t="s">
         <v>1505</v>
       </c>
-      <c r="G106" s="218" t="s">
+      <c r="G106" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H106" s="61">
+      <c r="H106" s="6">
         <v>9129</v>
       </c>
-      <c r="I106" s="219" t="s">
+      <c r="I106" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J106" s="219"/>
+      <c r="J106" s="215"/>
     </row>
     <row r="107" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
@@ -29293,16 +29297,16 @@
       <c r="F107" t="s">
         <v>1505</v>
       </c>
-      <c r="G107" s="218" t="s">
+      <c r="G107" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H107" s="39">
+      <c r="H107" s="6">
         <v>8799</v>
       </c>
-      <c r="I107" s="219" t="s">
+      <c r="I107" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J107" s="219"/>
+      <c r="J107" s="215"/>
     </row>
     <row r="108" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
@@ -29320,16 +29324,16 @@
       <c r="F108" t="s">
         <v>1505</v>
       </c>
-      <c r="G108" s="218" t="s">
+      <c r="G108" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H108" s="62">
+      <c r="H108" s="6">
         <v>7999</v>
       </c>
-      <c r="I108" s="219" t="s">
+      <c r="I108" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J108" s="219"/>
+      <c r="J108" s="215"/>
     </row>
     <row r="109" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
@@ -29347,16 +29351,16 @@
       <c r="F109" t="s">
         <v>1505</v>
       </c>
-      <c r="G109" s="218" t="s">
+      <c r="G109" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H109" s="63">
+      <c r="H109" s="6">
         <v>10999</v>
       </c>
-      <c r="I109" s="219" t="s">
+      <c r="I109" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J109" s="219"/>
+      <c r="J109" s="215"/>
     </row>
     <row r="110" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
@@ -29374,16 +29378,16 @@
       <c r="F110" t="s">
         <v>1505</v>
       </c>
-      <c r="G110" s="218" t="s">
+      <c r="G110" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H110" s="64">
+      <c r="H110" s="6">
         <v>6499</v>
       </c>
-      <c r="I110" s="219" t="s">
+      <c r="I110" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J110" s="219"/>
+      <c r="J110" s="215"/>
     </row>
     <row r="111" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
@@ -29401,16 +29405,16 @@
       <c r="F111" t="s">
         <v>1505</v>
       </c>
-      <c r="G111" s="218" t="s">
+      <c r="G111" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H111" s="64">
+      <c r="H111" s="6">
         <v>6499</v>
       </c>
-      <c r="I111" s="219" t="s">
+      <c r="I111" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J111" s="219"/>
+      <c r="J111" s="215"/>
     </row>
     <row r="112" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
@@ -29428,16 +29432,16 @@
       <c r="F112" t="s">
         <v>1505</v>
       </c>
-      <c r="G112" s="218" t="s">
+      <c r="G112" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H112" s="47">
+      <c r="H112" s="6">
         <v>9999</v>
       </c>
-      <c r="I112" s="219" t="s">
+      <c r="I112" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J112" s="219"/>
+      <c r="J112" s="215"/>
     </row>
     <row r="113" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
@@ -29455,16 +29459,16 @@
       <c r="F113" t="s">
         <v>1505</v>
       </c>
-      <c r="G113" s="218" t="s">
+      <c r="G113" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H113" s="39">
+      <c r="H113" s="6">
         <v>8799</v>
       </c>
-      <c r="I113" s="219" t="s">
+      <c r="I113" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J113" s="219"/>
+      <c r="J113" s="215"/>
     </row>
     <row r="114" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
@@ -29482,16 +29486,16 @@
       <c r="F114" t="s">
         <v>1505</v>
       </c>
-      <c r="G114" s="218" t="s">
+      <c r="G114" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H114" s="65">
+      <c r="H114" s="6">
         <v>9830</v>
       </c>
-      <c r="I114" s="219" t="s">
+      <c r="I114" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J114" s="219"/>
+      <c r="J114" s="215"/>
     </row>
     <row r="115" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
@@ -29509,16 +29513,16 @@
       <c r="F115" t="s">
         <v>1505</v>
       </c>
-      <c r="G115" s="218" t="s">
+      <c r="G115" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H115" s="66">
+      <c r="H115" s="6">
         <v>10527</v>
       </c>
-      <c r="I115" s="219" t="s">
+      <c r="I115" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J115" s="219"/>
+      <c r="J115" s="215"/>
     </row>
     <row r="116" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
@@ -29536,16 +29540,16 @@
       <c r="F116" t="s">
         <v>1505</v>
       </c>
-      <c r="G116" s="218" t="s">
+      <c r="G116" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H116" s="66">
+      <c r="H116" s="6">
         <v>10527</v>
       </c>
-      <c r="I116" s="219" t="s">
+      <c r="I116" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J116" s="219"/>
+      <c r="J116" s="215"/>
     </row>
     <row r="117" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
@@ -29563,16 +29567,16 @@
       <c r="F117" t="s">
         <v>1505</v>
       </c>
-      <c r="G117" s="218" t="s">
+      <c r="G117" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H117" s="66">
+      <c r="H117" s="6">
         <v>10527</v>
       </c>
-      <c r="I117" s="219" t="s">
+      <c r="I117" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J117" s="219"/>
+      <c r="J117" s="215"/>
     </row>
     <row r="118" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
@@ -29590,16 +29594,16 @@
       <c r="F118" t="s">
         <v>1505</v>
       </c>
-      <c r="G118" s="218" t="s">
+      <c r="G118" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H118" s="67">
+      <c r="H118" s="6">
         <v>7150</v>
       </c>
-      <c r="I118" s="219" t="s">
+      <c r="I118" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J118" s="219"/>
+      <c r="J118" s="215"/>
     </row>
     <row r="119" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
@@ -29617,16 +29621,16 @@
       <c r="F119" t="s">
         <v>1505</v>
       </c>
-      <c r="G119" s="218" t="s">
+      <c r="G119" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H119" s="67">
+      <c r="H119" s="6">
         <v>7150</v>
       </c>
-      <c r="I119" s="219" t="s">
+      <c r="I119" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J119" s="219"/>
+      <c r="J119" s="215"/>
     </row>
     <row r="120" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
@@ -29644,16 +29648,16 @@
       <c r="F120" t="s">
         <v>1505</v>
       </c>
-      <c r="G120" s="218" t="s">
+      <c r="G120" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H120" s="67">
+      <c r="H120" s="6">
         <v>7150</v>
       </c>
-      <c r="I120" s="219" t="s">
+      <c r="I120" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J120" s="219"/>
+      <c r="J120" s="215"/>
     </row>
     <row r="121" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
@@ -29671,16 +29675,16 @@
       <c r="F121" t="s">
         <v>1505</v>
       </c>
-      <c r="G121" s="218" t="s">
+      <c r="G121" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H121" s="68">
+      <c r="H121" s="6">
         <v>6989</v>
       </c>
-      <c r="I121" s="219" t="s">
+      <c r="I121" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J121" s="219"/>
+      <c r="J121" s="215"/>
     </row>
     <row r="122" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
@@ -29698,16 +29702,16 @@
       <c r="F122" t="s">
         <v>1505</v>
       </c>
-      <c r="G122" s="218" t="s">
+      <c r="G122" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H122" s="68">
+      <c r="H122" s="6">
         <v>6989</v>
       </c>
-      <c r="I122" s="219" t="s">
+      <c r="I122" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J122" s="219"/>
+      <c r="J122" s="215"/>
     </row>
     <row r="123" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
@@ -29725,16 +29729,16 @@
       <c r="F123" t="s">
         <v>1505</v>
       </c>
-      <c r="G123" s="218" t="s">
+      <c r="G123" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H123" s="69">
+      <c r="H123" s="6">
         <v>10732</v>
       </c>
-      <c r="I123" s="219" t="s">
+      <c r="I123" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J123" s="219"/>
+      <c r="J123" s="215"/>
     </row>
     <row r="124" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
@@ -29752,16 +29756,16 @@
       <c r="F124" t="s">
         <v>1505</v>
       </c>
-      <c r="G124" s="218" t="s">
+      <c r="G124" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H124" s="70">
+      <c r="H124" s="6">
         <v>7179</v>
       </c>
-      <c r="I124" s="219" t="s">
+      <c r="I124" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J124" s="219"/>
+      <c r="J124" s="215"/>
     </row>
     <row r="125" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
@@ -29779,16 +29783,16 @@
       <c r="F125" t="s">
         <v>1505</v>
       </c>
-      <c r="G125" s="218" t="s">
+      <c r="G125" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H125" s="70">
+      <c r="H125" s="6">
         <v>7179</v>
       </c>
-      <c r="I125" s="219" t="s">
+      <c r="I125" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J125" s="219"/>
+      <c r="J125" s="215"/>
     </row>
     <row r="126" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
@@ -29806,16 +29810,16 @@
       <c r="F126" t="s">
         <v>1505</v>
       </c>
-      <c r="G126" s="218" t="s">
+      <c r="G126" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H126" s="70">
+      <c r="H126" s="6">
         <v>7179</v>
       </c>
-      <c r="I126" s="219" t="s">
+      <c r="I126" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J126" s="219"/>
+      <c r="J126" s="215"/>
     </row>
     <row r="127" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
@@ -29833,16 +29837,16 @@
       <c r="F127" t="s">
         <v>1505</v>
       </c>
-      <c r="G127" s="218" t="s">
+      <c r="G127" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H127" s="70">
+      <c r="H127" s="6">
         <v>7179</v>
       </c>
-      <c r="I127" s="219" t="s">
+      <c r="I127" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J127" s="219"/>
+      <c r="J127" s="215"/>
     </row>
     <row r="128" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
@@ -29860,16 +29864,16 @@
       <c r="F128" t="s">
         <v>1505</v>
       </c>
-      <c r="G128" s="218" t="s">
+      <c r="G128" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H128" s="71">
+      <c r="H128" s="6">
         <v>7381</v>
       </c>
-      <c r="I128" s="219" t="s">
+      <c r="I128" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J128" s="219"/>
+      <c r="J128" s="215"/>
     </row>
     <row r="129" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
@@ -29887,16 +29891,16 @@
       <c r="F129" t="s">
         <v>1505</v>
       </c>
-      <c r="G129" s="218" t="s">
+      <c r="G129" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H129" s="71">
+      <c r="H129" s="6">
         <v>7381</v>
       </c>
-      <c r="I129" s="219" t="s">
+      <c r="I129" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J129" s="219"/>
+      <c r="J129" s="215"/>
     </row>
     <row r="130" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
@@ -29914,16 +29918,16 @@
       <c r="F130" t="s">
         <v>1505</v>
       </c>
-      <c r="G130" s="218" t="s">
+      <c r="G130" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H130" s="71">
+      <c r="H130" s="6">
         <v>7381</v>
       </c>
-      <c r="I130" s="219" t="s">
+      <c r="I130" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J130" s="219"/>
+      <c r="J130" s="215"/>
     </row>
     <row r="131" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
@@ -29941,16 +29945,16 @@
       <c r="F131" t="s">
         <v>1505</v>
       </c>
-      <c r="G131" s="218" t="s">
+      <c r="G131" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H131" s="71">
+      <c r="H131" s="6">
         <v>7381</v>
       </c>
-      <c r="I131" s="219" t="s">
+      <c r="I131" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J131" s="219"/>
+      <c r="J131" s="215"/>
     </row>
     <row r="132" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
@@ -29968,16 +29972,16 @@
       <c r="F132" t="s">
         <v>1505</v>
       </c>
-      <c r="G132" s="218" t="s">
+      <c r="G132" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H132" s="72">
+      <c r="H132" s="6">
         <v>8107</v>
       </c>
-      <c r="I132" s="219" t="s">
+      <c r="I132" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J132" s="219"/>
+      <c r="J132" s="215"/>
     </row>
     <row r="133" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
@@ -29995,16 +29999,16 @@
       <c r="F133" t="s">
         <v>1505</v>
       </c>
-      <c r="G133" s="218" t="s">
+      <c r="G133" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H133" s="72">
+      <c r="H133" s="6">
         <v>8107</v>
       </c>
-      <c r="I133" s="219" t="s">
+      <c r="I133" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J133" s="219"/>
+      <c r="J133" s="215"/>
     </row>
     <row r="134" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
@@ -30022,16 +30026,16 @@
       <c r="F134" t="s">
         <v>1505</v>
       </c>
-      <c r="G134" s="218" t="s">
+      <c r="G134" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H134" s="72">
+      <c r="H134" s="6">
         <v>8107</v>
       </c>
-      <c r="I134" s="219" t="s">
+      <c r="I134" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J134" s="219"/>
+      <c r="J134" s="215"/>
     </row>
     <row r="135" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
@@ -30049,16 +30053,16 @@
       <c r="F135" t="s">
         <v>1505</v>
       </c>
-      <c r="G135" s="218" t="s">
+      <c r="G135" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H135" s="73">
+      <c r="H135" s="6">
         <v>9075</v>
       </c>
-      <c r="I135" s="219" t="s">
+      <c r="I135" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J135" s="219"/>
+      <c r="J135" s="215"/>
     </row>
     <row r="136" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
@@ -30076,16 +30080,16 @@
       <c r="F136" t="s">
         <v>1505</v>
       </c>
-      <c r="G136" s="218" t="s">
+      <c r="G136" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H136" s="73">
+      <c r="H136" s="6">
         <v>9075</v>
       </c>
-      <c r="I136" s="219" t="s">
+      <c r="I136" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J136" s="219"/>
+      <c r="J136" s="215"/>
     </row>
     <row r="137" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
@@ -30103,16 +30107,16 @@
       <c r="F137" t="s">
         <v>1505</v>
       </c>
-      <c r="G137" s="218" t="s">
+      <c r="G137" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H137" s="73">
+      <c r="H137" s="6">
         <v>9075</v>
       </c>
-      <c r="I137" s="219" t="s">
+      <c r="I137" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J137" s="219"/>
+      <c r="J137" s="215"/>
     </row>
     <row r="138" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
@@ -30130,16 +30134,16 @@
       <c r="F138" t="s">
         <v>1505</v>
       </c>
-      <c r="G138" s="218" t="s">
+      <c r="G138" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H138" s="73">
+      <c r="H138" s="6">
         <v>9075</v>
       </c>
-      <c r="I138" s="219" t="s">
+      <c r="I138" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J138" s="219"/>
+      <c r="J138" s="215"/>
     </row>
     <row r="139" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
@@ -30157,16 +30161,16 @@
       <c r="F139" t="s">
         <v>1505</v>
       </c>
-      <c r="G139" s="218" t="s">
+      <c r="G139" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H139" s="74">
+      <c r="H139" s="6">
         <v>7293</v>
       </c>
-      <c r="I139" s="219" t="s">
+      <c r="I139" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J139" s="219"/>
+      <c r="J139" s="215"/>
     </row>
     <row r="140" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
@@ -30184,16 +30188,16 @@
       <c r="F140" t="s">
         <v>1505</v>
       </c>
-      <c r="G140" s="218" t="s">
+      <c r="G140" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H140" s="74">
+      <c r="H140" s="6">
         <v>7293</v>
       </c>
-      <c r="I140" s="219" t="s">
+      <c r="I140" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J140" s="219"/>
+      <c r="J140" s="215"/>
     </row>
     <row r="141" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
@@ -30211,16 +30215,16 @@
       <c r="F141" t="s">
         <v>1505</v>
       </c>
-      <c r="G141" s="218" t="s">
+      <c r="G141" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H141" s="74">
+      <c r="H141" s="6">
         <v>7293</v>
       </c>
-      <c r="I141" s="219" t="s">
+      <c r="I141" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J141" s="219"/>
+      <c r="J141" s="215"/>
     </row>
     <row r="142" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
@@ -30238,16 +30242,16 @@
       <c r="F142" t="s">
         <v>1505</v>
       </c>
-      <c r="G142" s="218" t="s">
+      <c r="G142" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H142" s="73">
+      <c r="H142" s="6">
         <v>9075</v>
       </c>
-      <c r="I142" s="219" t="s">
+      <c r="I142" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J142" s="219"/>
+      <c r="J142" s="215"/>
     </row>
     <row r="143" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
@@ -30265,16 +30269,16 @@
       <c r="F143" t="s">
         <v>1505</v>
       </c>
-      <c r="G143" s="218" t="s">
+      <c r="G143" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H143" s="75">
+      <c r="H143" s="6">
         <v>8168</v>
       </c>
-      <c r="I143" s="219" t="s">
+      <c r="I143" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J143" s="219"/>
+      <c r="J143" s="215"/>
     </row>
     <row r="144" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
@@ -30292,16 +30296,16 @@
       <c r="F144" t="s">
         <v>1505</v>
       </c>
-      <c r="G144" s="218" t="s">
+      <c r="G144" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H144" s="76">
+      <c r="H144" s="6">
         <v>7826</v>
       </c>
-      <c r="I144" s="219" t="s">
+      <c r="I144" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J144" s="219"/>
+      <c r="J144" s="215"/>
     </row>
     <row r="145" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
@@ -30319,16 +30323,16 @@
       <c r="F145" t="s">
         <v>1505</v>
       </c>
-      <c r="G145" s="218" t="s">
+      <c r="G145" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H145" s="76">
+      <c r="H145" s="6">
         <v>7826</v>
       </c>
-      <c r="I145" s="219" t="s">
+      <c r="I145" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J145" s="219"/>
+      <c r="J145" s="215"/>
     </row>
     <row r="146" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
@@ -30346,16 +30350,16 @@
       <c r="F146" t="s">
         <v>1505</v>
       </c>
-      <c r="G146" s="218" t="s">
+      <c r="G146" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H146" s="77">
+      <c r="H146" s="6">
         <v>10285</v>
       </c>
-      <c r="I146" s="219" t="s">
+      <c r="I146" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J146" s="219"/>
+      <c r="J146" s="215"/>
     </row>
     <row r="147" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
@@ -30373,16 +30377,16 @@
       <c r="F147" t="s">
         <v>1505</v>
       </c>
-      <c r="G147" s="218" t="s">
+      <c r="G147" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H147" s="78">
+      <c r="H147" s="6">
         <v>6655</v>
       </c>
-      <c r="I147" s="219" t="s">
+      <c r="I147" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J147" s="219"/>
+      <c r="J147" s="215"/>
     </row>
     <row r="148" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
@@ -30400,16 +30404,16 @@
       <c r="F148" t="s">
         <v>1505</v>
       </c>
-      <c r="G148" s="218" t="s">
+      <c r="G148" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H148" s="78">
+      <c r="H148" s="6">
         <v>6655</v>
       </c>
-      <c r="I148" s="219" t="s">
+      <c r="I148" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J148" s="219"/>
+      <c r="J148" s="215"/>
     </row>
     <row r="149" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
@@ -30427,16 +30431,16 @@
       <c r="F149" t="s">
         <v>1505</v>
       </c>
-      <c r="G149" s="218" t="s">
+      <c r="G149" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H149" s="78">
+      <c r="H149" s="6">
         <v>6655</v>
       </c>
-      <c r="I149" s="219" t="s">
+      <c r="I149" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J149" s="219"/>
+      <c r="J149" s="215"/>
     </row>
     <row r="150" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
@@ -30454,16 +30458,16 @@
       <c r="F150" t="s">
         <v>1505</v>
       </c>
-      <c r="G150" s="218" t="s">
+      <c r="G150" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H150" s="79">
+      <c r="H150" s="6">
         <v>7079</v>
       </c>
-      <c r="I150" s="219" t="s">
+      <c r="I150" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J150" s="219"/>
+      <c r="J150" s="215"/>
     </row>
     <row r="151" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
@@ -30481,16 +30485,16 @@
       <c r="F151" t="s">
         <v>1505</v>
       </c>
-      <c r="G151" s="218" t="s">
+      <c r="G151" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H151" s="79">
+      <c r="H151" s="6">
         <v>7079</v>
       </c>
-      <c r="I151" s="219" t="s">
+      <c r="I151" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J151" s="219"/>
+      <c r="J151" s="215"/>
     </row>
     <row r="152" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
@@ -30508,16 +30512,16 @@
       <c r="F152" t="s">
         <v>1505</v>
       </c>
-      <c r="G152" s="218" t="s">
+      <c r="G152" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H152" s="51">
+      <c r="H152" s="6">
         <v>8349</v>
       </c>
-      <c r="I152" s="219" t="s">
+      <c r="I152" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J152" s="219"/>
+      <c r="J152" s="215"/>
     </row>
     <row r="153" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
@@ -30535,16 +30539,16 @@
       <c r="F153" t="s">
         <v>1505</v>
       </c>
-      <c r="G153" s="218" t="s">
+      <c r="G153" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H153" s="51">
+      <c r="H153" s="6">
         <v>8349</v>
       </c>
-      <c r="I153" s="219" t="s">
+      <c r="I153" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J153" s="219"/>
+      <c r="J153" s="215"/>
     </row>
     <row r="154" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
@@ -30562,16 +30566,16 @@
       <c r="F154" t="s">
         <v>1505</v>
       </c>
-      <c r="G154" s="218" t="s">
+      <c r="G154" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H154" s="80">
+      <c r="H154" s="6">
         <v>189</v>
       </c>
-      <c r="I154" s="219" t="s">
+      <c r="I154" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J154" s="219"/>
+      <c r="J154" s="215"/>
     </row>
     <row r="155" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
@@ -30589,16 +30593,16 @@
       <c r="F155" t="s">
         <v>1505</v>
       </c>
-      <c r="G155" s="218" t="s">
+      <c r="G155" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H155" s="80">
+      <c r="H155" s="6">
         <v>291</v>
       </c>
-      <c r="I155" s="219" t="s">
+      <c r="I155" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J155" s="219"/>
+      <c r="J155" s="215"/>
     </row>
     <row r="156" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
@@ -30616,16 +30620,16 @@
       <c r="F156" t="s">
         <v>1505</v>
       </c>
-      <c r="G156" s="218" t="s">
+      <c r="G156" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H156" s="80">
+      <c r="H156" s="6">
         <v>189</v>
       </c>
-      <c r="I156" s="219" t="s">
+      <c r="I156" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J156" s="219"/>
+      <c r="J156" s="215"/>
     </row>
     <row r="157" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
@@ -30643,16 +30647,16 @@
       <c r="F157" t="s">
         <v>1505</v>
       </c>
-      <c r="G157" s="218" t="s">
+      <c r="G157" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H157" s="80">
+      <c r="H157" s="6">
         <v>291</v>
       </c>
-      <c r="I157" s="219" t="s">
+      <c r="I157" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J157" s="219"/>
+      <c r="J157" s="215"/>
     </row>
     <row r="158" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
@@ -30670,16 +30674,16 @@
       <c r="F158" t="s">
         <v>1505</v>
       </c>
-      <c r="G158" s="218" t="s">
+      <c r="G158" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H158" s="80">
+      <c r="H158" s="6">
         <v>291</v>
       </c>
-      <c r="I158" s="219" t="s">
+      <c r="I158" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J158" s="219"/>
+      <c r="J158" s="215"/>
     </row>
     <row r="159" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
@@ -30697,16 +30701,16 @@
       <c r="F159" t="s">
         <v>1505</v>
       </c>
-      <c r="G159" s="218" t="s">
+      <c r="G159" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H159" s="80">
+      <c r="H159" s="6">
         <v>291</v>
       </c>
-      <c r="I159" s="219" t="s">
+      <c r="I159" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J159" s="219"/>
+      <c r="J159" s="215"/>
     </row>
     <row r="160" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
@@ -30724,16 +30728,16 @@
       <c r="F160" t="s">
         <v>1505</v>
       </c>
-      <c r="G160" s="218" t="s">
+      <c r="G160" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H160" s="81">
+      <c r="H160" s="6">
         <v>2100</v>
       </c>
-      <c r="I160" s="219" t="s">
+      <c r="I160" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J160" s="219"/>
+      <c r="J160" s="215"/>
     </row>
     <row r="161" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
@@ -30751,16 +30755,16 @@
       <c r="F161" t="s">
         <v>1505</v>
       </c>
-      <c r="G161" s="218" t="s">
+      <c r="G161" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H161" s="82">
+      <c r="H161" s="6">
         <v>2299</v>
       </c>
-      <c r="I161" s="219" t="s">
+      <c r="I161" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J161" s="219"/>
+      <c r="J161" s="215"/>
     </row>
     <row r="162" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
@@ -30778,16 +30782,16 @@
       <c r="F162" t="s">
         <v>1505</v>
       </c>
-      <c r="G162" s="218" t="s">
+      <c r="G162" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H162" s="80">
+      <c r="H162" s="6">
         <v>625</v>
       </c>
-      <c r="I162" s="219" t="s">
+      <c r="I162" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J162" s="219"/>
+      <c r="J162" s="215"/>
     </row>
     <row r="163" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
@@ -30805,16 +30809,16 @@
       <c r="F163" t="s">
         <v>1505</v>
       </c>
-      <c r="G163" s="218" t="s">
+      <c r="G163" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H163" s="80">
+      <c r="H163" s="6">
         <v>210</v>
       </c>
-      <c r="I163" s="219" t="s">
+      <c r="I163" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J163" s="219"/>
+      <c r="J163" s="215"/>
     </row>
     <row r="164" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
@@ -30832,16 +30836,16 @@
       <c r="F164" t="s">
         <v>1505</v>
       </c>
-      <c r="G164" s="218" t="s">
+      <c r="G164" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H164" s="80">
+      <c r="H164" s="6">
         <v>715</v>
       </c>
-      <c r="I164" s="219" t="s">
+      <c r="I164" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J164" s="219"/>
+      <c r="J164" s="215"/>
     </row>
     <row r="165" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
@@ -30859,16 +30863,16 @@
       <c r="F165" t="s">
         <v>1505</v>
       </c>
-      <c r="G165" s="218" t="s">
+      <c r="G165" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H165" s="80">
+      <c r="H165" s="6">
         <v>715</v>
       </c>
-      <c r="I165" s="219" t="s">
+      <c r="I165" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J165" s="219"/>
+      <c r="J165" s="215"/>
     </row>
     <row r="166" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
@@ -30886,16 +30890,16 @@
       <c r="F166" t="s">
         <v>1505</v>
       </c>
-      <c r="G166" s="218" t="s">
+      <c r="G166" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H166" s="80">
+      <c r="H166" s="6">
         <v>715</v>
       </c>
-      <c r="I166" s="219" t="s">
+      <c r="I166" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J166" s="219"/>
+      <c r="J166" s="215"/>
     </row>
     <row r="167" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
@@ -30913,16 +30917,16 @@
       <c r="F167" t="s">
         <v>1505</v>
       </c>
-      <c r="G167" s="218" t="s">
+      <c r="G167" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H167" s="80">
+      <c r="H167" s="6">
         <v>715</v>
       </c>
-      <c r="I167" s="219" t="s">
+      <c r="I167" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J167" s="219"/>
+      <c r="J167" s="215"/>
     </row>
     <row r="168" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
@@ -30940,16 +30944,16 @@
       <c r="F168" t="s">
         <v>1505</v>
       </c>
-      <c r="G168" s="218" t="s">
+      <c r="G168" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H168" s="83">
+      <c r="H168" s="6">
         <v>1177</v>
       </c>
-      <c r="I168" s="219" t="s">
+      <c r="I168" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J168" s="219"/>
+      <c r="J168" s="215"/>
     </row>
     <row r="169" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
@@ -30967,16 +30971,16 @@
       <c r="F169" t="s">
         <v>1505</v>
       </c>
-      <c r="G169" s="218" t="s">
+      <c r="G169" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H169" s="83">
+      <c r="H169" s="6">
         <v>1177</v>
       </c>
-      <c r="I169" s="219" t="s">
+      <c r="I169" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J169" s="219"/>
+      <c r="J169" s="215"/>
     </row>
     <row r="170" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
@@ -30994,16 +30998,16 @@
       <c r="F170" t="s">
         <v>1505</v>
       </c>
-      <c r="G170" s="218" t="s">
+      <c r="G170" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H170" s="83">
+      <c r="H170" s="6">
         <v>1177</v>
       </c>
-      <c r="I170" s="219" t="s">
+      <c r="I170" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J170" s="219"/>
+      <c r="J170" s="215"/>
     </row>
     <row r="171" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
@@ -31021,16 +31025,16 @@
       <c r="F171" t="s">
         <v>1505</v>
       </c>
-      <c r="G171" s="218" t="s">
+      <c r="G171" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H171" s="84">
+      <c r="H171" s="6">
         <v>1265</v>
       </c>
-      <c r="I171" s="219" t="s">
+      <c r="I171" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J171" s="219"/>
+      <c r="J171" s="215"/>
     </row>
     <row r="172" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
@@ -31048,16 +31052,16 @@
       <c r="F172" t="s">
         <v>1505</v>
       </c>
-      <c r="G172" s="218" t="s">
+      <c r="G172" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H172" s="85">
+      <c r="H172" s="6">
         <v>1099</v>
       </c>
-      <c r="I172" s="219" t="s">
+      <c r="I172" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J172" s="219"/>
+      <c r="J172" s="215"/>
     </row>
     <row r="173" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
@@ -31075,16 +31079,16 @@
       <c r="F173" t="s">
         <v>1505</v>
       </c>
-      <c r="G173" s="218" t="s">
+      <c r="G173" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H173" s="86">
+      <c r="H173" s="6">
         <v>2145</v>
       </c>
-      <c r="I173" s="219" t="s">
+      <c r="I173" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J173" s="219"/>
+      <c r="J173" s="215"/>
     </row>
     <row r="174" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
@@ -31102,16 +31106,16 @@
       <c r="F174" t="s">
         <v>1505</v>
       </c>
-      <c r="G174" s="218" t="s">
+      <c r="G174" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H174" s="86">
+      <c r="H174" s="6">
         <v>2145</v>
       </c>
-      <c r="I174" s="219" t="s">
+      <c r="I174" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J174" s="219"/>
+      <c r="J174" s="215"/>
     </row>
     <row r="175" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
@@ -31129,16 +31133,16 @@
       <c r="F175" t="s">
         <v>1505</v>
       </c>
-      <c r="G175" s="218" t="s">
+      <c r="G175" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="H175" s="86">
+      <c r="H175" s="6">
         <v>2145</v>
       </c>
-      <c r="I175" s="219" t="s">
-        <v>1508</v>
-      </c>
-      <c r="J175" s="219"/>
+      <c r="I175" s="215" t="s">
+        <v>1544</v>
+      </c>
+      <c r="J175" s="215"/>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
@@ -31150,13 +31154,13 @@
       <c r="F176" t="s">
         <v>1505</v>
       </c>
-      <c r="G176" s="218" t="s">
+      <c r="G176" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="I176" s="219" t="s">
+      <c r="I176" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J176" s="219"/>
+      <c r="J176" s="215"/>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
@@ -31168,13 +31172,13 @@
       <c r="F177" t="s">
         <v>1505</v>
       </c>
-      <c r="G177" s="218" t="s">
+      <c r="G177" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="I177" s="219" t="s">
+      <c r="I177" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J177" s="219"/>
+      <c r="J177" s="215"/>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
@@ -31186,13 +31190,13 @@
       <c r="F178" t="s">
         <v>1505</v>
       </c>
-      <c r="G178" s="218" t="s">
+      <c r="G178" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="I178" s="219" t="s">
+      <c r="I178" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J178" s="219"/>
+      <c r="J178" s="215"/>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
@@ -31204,13 +31208,13 @@
       <c r="F179" t="s">
         <v>1505</v>
       </c>
-      <c r="G179" s="218" t="s">
+      <c r="G179" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="I179" s="219" t="s">
+      <c r="I179" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J179" s="219"/>
+      <c r="J179" s="215"/>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
@@ -31222,13 +31226,13 @@
       <c r="F180" t="s">
         <v>1505</v>
       </c>
-      <c r="G180" s="218" t="s">
+      <c r="G180" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="I180" s="219" t="s">
+      <c r="I180" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J180" s="219"/>
+      <c r="J180" s="215"/>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
@@ -31240,13 +31244,13 @@
       <c r="F181" t="s">
         <v>1505</v>
       </c>
-      <c r="G181" s="218" t="s">
+      <c r="G181" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="I181" s="219" t="s">
+      <c r="I181" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J181" s="219"/>
+      <c r="J181" s="215"/>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
@@ -31258,13 +31262,13 @@
       <c r="F182" t="s">
         <v>1505</v>
       </c>
-      <c r="G182" s="218" t="s">
+      <c r="G182" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="I182" s="219" t="s">
+      <c r="I182" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J182" s="219"/>
+      <c r="J182" s="215"/>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
@@ -31276,13 +31280,13 @@
       <c r="F183" t="s">
         <v>1505</v>
       </c>
-      <c r="G183" s="218" t="s">
+      <c r="G183" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="I183" s="219" t="s">
+      <c r="I183" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J183" s="219"/>
+      <c r="J183" s="215"/>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
@@ -31294,13 +31298,13 @@
       <c r="F184" t="s">
         <v>1505</v>
       </c>
-      <c r="G184" s="218" t="s">
+      <c r="G184" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="I184" s="219" t="s">
+      <c r="I184" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J184" s="219"/>
+      <c r="J184" s="215"/>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
@@ -31312,13 +31316,13 @@
       <c r="F185" t="s">
         <v>1505</v>
       </c>
-      <c r="G185" s="218" t="s">
+      <c r="G185" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="I185" s="219" t="s">
+      <c r="I185" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J185" s="219"/>
+      <c r="J185" s="215"/>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
@@ -31330,13 +31334,13 @@
       <c r="F186" t="s">
         <v>1505</v>
       </c>
-      <c r="G186" s="218" t="s">
+      <c r="G186" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="I186" s="219" t="s">
+      <c r="I186" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J186" s="219"/>
+      <c r="J186" s="215"/>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
@@ -31348,13 +31352,13 @@
       <c r="F187" t="s">
         <v>1505</v>
       </c>
-      <c r="G187" s="218" t="s">
+      <c r="G187" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="I187" s="219" t="s">
+      <c r="I187" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J187" s="219"/>
+      <c r="J187" s="215"/>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
@@ -31366,13 +31370,13 @@
       <c r="F188" t="s">
         <v>1505</v>
       </c>
-      <c r="G188" s="218" t="s">
+      <c r="G188" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="I188" s="219" t="s">
+      <c r="I188" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J188" s="219"/>
+      <c r="J188" s="215"/>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
@@ -31384,13 +31388,13 @@
       <c r="F189" t="s">
         <v>1505</v>
       </c>
-      <c r="G189" s="218" t="s">
+      <c r="G189" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="I189" s="219" t="s">
+      <c r="I189" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J189" s="219"/>
+      <c r="J189" s="215"/>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
@@ -31402,13 +31406,13 @@
       <c r="F190" t="s">
         <v>1505</v>
       </c>
-      <c r="G190" s="218" t="s">
+      <c r="G190" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="I190" s="219" t="s">
+      <c r="I190" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J190" s="219"/>
+      <c r="J190" s="215"/>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
@@ -31420,13 +31424,13 @@
       <c r="F191" t="s">
         <v>1505</v>
       </c>
-      <c r="G191" s="218" t="s">
+      <c r="G191" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="I191" s="219" t="s">
+      <c r="I191" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J191" s="219"/>
+      <c r="J191" s="215"/>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
@@ -31438,13 +31442,13 @@
       <c r="F192" t="s">
         <v>1505</v>
       </c>
-      <c r="G192" s="218" t="s">
+      <c r="G192" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="I192" s="219" t="s">
+      <c r="I192" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J192" s="219"/>
+      <c r="J192" s="215"/>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
@@ -31456,13 +31460,13 @@
       <c r="F193" t="s">
         <v>1505</v>
       </c>
-      <c r="G193" s="218" t="s">
+      <c r="G193" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="I193" s="219" t="s">
+      <c r="I193" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J193" s="219"/>
+      <c r="J193" s="215"/>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
@@ -31474,13 +31478,13 @@
       <c r="F194" t="s">
         <v>1505</v>
       </c>
-      <c r="G194" s="218" t="s">
+      <c r="G194" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="I194" s="219" t="s">
+      <c r="I194" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J194" s="219"/>
+      <c r="J194" s="215"/>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
@@ -31492,13 +31496,13 @@
       <c r="F195" t="s">
         <v>1505</v>
       </c>
-      <c r="G195" s="218" t="s">
+      <c r="G195" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="I195" s="219" t="s">
+      <c r="I195" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J195" s="219"/>
+      <c r="J195" s="215"/>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
@@ -31510,13 +31514,13 @@
       <c r="F196" t="s">
         <v>1505</v>
       </c>
-      <c r="G196" s="218" t="s">
+      <c r="G196" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="I196" s="219" t="s">
+      <c r="I196" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J196" s="219"/>
+      <c r="J196" s="215"/>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
@@ -31528,13 +31532,13 @@
       <c r="F197" t="s">
         <v>1505</v>
       </c>
-      <c r="G197" s="218" t="s">
+      <c r="G197" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="I197" s="219" t="s">
+      <c r="I197" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J197" s="219"/>
+      <c r="J197" s="215"/>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
@@ -31546,13 +31550,13 @@
       <c r="F198" t="s">
         <v>1505</v>
       </c>
-      <c r="G198" s="218" t="s">
+      <c r="G198" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="I198" s="219" t="s">
+      <c r="I198" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J198" s="219"/>
+      <c r="J198" s="215"/>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
@@ -31564,13 +31568,13 @@
       <c r="F199" t="s">
         <v>1505</v>
       </c>
-      <c r="G199" s="218" t="s">
+      <c r="G199" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="I199" s="219" t="s">
+      <c r="I199" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J199" s="219"/>
+      <c r="J199" s="215"/>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
@@ -31582,13 +31586,13 @@
       <c r="F200" t="s">
         <v>1505</v>
       </c>
-      <c r="G200" s="218" t="s">
+      <c r="G200" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="I200" s="219" t="s">
+      <c r="I200" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J200" s="219"/>
+      <c r="J200" s="215"/>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
@@ -31600,13 +31604,13 @@
       <c r="F201" t="s">
         <v>1505</v>
       </c>
-      <c r="G201" s="218" t="s">
+      <c r="G201" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="I201" s="219" t="s">
+      <c r="I201" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J201" s="219"/>
+      <c r="J201" s="215"/>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
@@ -31618,13 +31622,13 @@
       <c r="F202" t="s">
         <v>1505</v>
       </c>
-      <c r="G202" s="218" t="s">
+      <c r="G202" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="I202" s="219" t="s">
+      <c r="I202" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J202" s="219"/>
+      <c r="J202" s="215"/>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
@@ -31636,13 +31640,13 @@
       <c r="F203" t="s">
         <v>1505</v>
       </c>
-      <c r="G203" s="218" t="s">
+      <c r="G203" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="I203" s="219" t="s">
+      <c r="I203" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J203" s="219"/>
+      <c r="J203" s="215"/>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
@@ -31654,13 +31658,13 @@
       <c r="F204" t="s">
         <v>1505</v>
       </c>
-      <c r="G204" s="218" t="s">
+      <c r="G204" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="I204" s="219" t="s">
+      <c r="I204" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J204" s="219"/>
+      <c r="J204" s="215"/>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
@@ -31672,13 +31676,13 @@
       <c r="F205" t="s">
         <v>1505</v>
       </c>
-      <c r="G205" s="218" t="s">
+      <c r="G205" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="I205" s="219" t="s">
+      <c r="I205" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J205" s="219"/>
+      <c r="J205" s="215"/>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
@@ -31690,13 +31694,13 @@
       <c r="F206" t="s">
         <v>1505</v>
       </c>
-      <c r="G206" s="218" t="s">
+      <c r="G206" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="I206" s="219" t="s">
+      <c r="I206" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J206" s="219"/>
+      <c r="J206" s="215"/>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
@@ -31708,13 +31712,13 @@
       <c r="F207" t="s">
         <v>1505</v>
       </c>
-      <c r="G207" s="218" t="s">
+      <c r="G207" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="I207" s="219" t="s">
+      <c r="I207" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J207" s="219"/>
+      <c r="J207" s="215"/>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
@@ -31726,13 +31730,13 @@
       <c r="F208" t="s">
         <v>1505</v>
       </c>
-      <c r="G208" s="218" t="s">
+      <c r="G208" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="I208" s="219" t="s">
+      <c r="I208" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J208" s="219"/>
+      <c r="J208" s="215"/>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
@@ -31744,13 +31748,13 @@
       <c r="F209" t="s">
         <v>1505</v>
       </c>
-      <c r="G209" s="218" t="s">
+      <c r="G209" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="I209" s="219" t="s">
+      <c r="I209" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J209" s="219"/>
+      <c r="J209" s="215"/>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
@@ -31762,13 +31766,13 @@
       <c r="F210" t="s">
         <v>1505</v>
       </c>
-      <c r="G210" s="218" t="s">
+      <c r="G210" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="I210" s="219" t="s">
+      <c r="I210" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J210" s="219"/>
+      <c r="J210" s="215"/>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
@@ -31780,13 +31784,13 @@
       <c r="F211" t="s">
         <v>1505</v>
       </c>
-      <c r="G211" s="218" t="s">
+      <c r="G211" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="I211" s="219" t="s">
+      <c r="I211" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J211" s="219"/>
+      <c r="J211" s="215"/>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
@@ -31798,13 +31802,13 @@
       <c r="F212" t="s">
         <v>1505</v>
       </c>
-      <c r="G212" s="218" t="s">
+      <c r="G212" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="I212" s="219" t="s">
+      <c r="I212" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J212" s="219"/>
+      <c r="J212" s="215"/>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
@@ -31816,13 +31820,13 @@
       <c r="F213" t="s">
         <v>1505</v>
       </c>
-      <c r="G213" s="218" t="s">
+      <c r="G213" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="I213" s="219" t="s">
+      <c r="I213" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J213" s="219"/>
+      <c r="J213" s="215"/>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
@@ -31834,13 +31838,13 @@
       <c r="F214" t="s">
         <v>1505</v>
       </c>
-      <c r="G214" s="218" t="s">
+      <c r="G214" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="I214" s="219" t="s">
+      <c r="I214" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J214" s="219"/>
+      <c r="J214" s="215"/>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
@@ -31852,13 +31856,13 @@
       <c r="F215" t="s">
         <v>1505</v>
       </c>
-      <c r="G215" s="218" t="s">
+      <c r="G215" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="I215" s="219" t="s">
+      <c r="I215" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J215" s="219"/>
+      <c r="J215" s="215"/>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
@@ -31870,13 +31874,13 @@
       <c r="F216" t="s">
         <v>1505</v>
       </c>
-      <c r="G216" s="218" t="s">
+      <c r="G216" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="I216" s="219" t="s">
+      <c r="I216" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J216" s="219"/>
+      <c r="J216" s="215"/>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
@@ -31888,13 +31892,13 @@
       <c r="F217" t="s">
         <v>1505</v>
       </c>
-      <c r="G217" s="218" t="s">
+      <c r="G217" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="I217" s="219" t="s">
+      <c r="I217" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J217" s="219"/>
+      <c r="J217" s="215"/>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
@@ -31906,13 +31910,13 @@
       <c r="F218" t="s">
         <v>1505</v>
       </c>
-      <c r="G218" s="218" t="s">
+      <c r="G218" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="I218" s="219" t="s">
+      <c r="I218" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J218" s="219"/>
+      <c r="J218" s="215"/>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
@@ -31924,13 +31928,13 @@
       <c r="F219" t="s">
         <v>1505</v>
       </c>
-      <c r="G219" s="218" t="s">
+      <c r="G219" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="I219" s="219" t="s">
+      <c r="I219" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J219" s="219"/>
+      <c r="J219" s="215"/>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
@@ -31942,13 +31946,13 @@
       <c r="F220" t="s">
         <v>1505</v>
       </c>
-      <c r="G220" s="218" t="s">
+      <c r="G220" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="I220" s="219" t="s">
+      <c r="I220" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J220" s="219"/>
+      <c r="J220" s="215"/>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
@@ -31960,13 +31964,13 @@
       <c r="F221" t="s">
         <v>1505</v>
       </c>
-      <c r="G221" s="218" t="s">
+      <c r="G221" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="I221" s="219" t="s">
+      <c r="I221" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J221" s="219"/>
+      <c r="J221" s="215"/>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
@@ -31978,13 +31982,13 @@
       <c r="F222" t="s">
         <v>1505</v>
       </c>
-      <c r="G222" s="218" t="s">
+      <c r="G222" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="I222" s="219" t="s">
+      <c r="I222" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J222" s="219"/>
+      <c r="J222" s="215"/>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
@@ -31996,13 +32000,13 @@
       <c r="F223" t="s">
         <v>1505</v>
       </c>
-      <c r="G223" s="218" t="s">
+      <c r="G223" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="I223" s="219" t="s">
+      <c r="I223" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J223" s="219"/>
+      <c r="J223" s="215"/>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
@@ -32014,13 +32018,13 @@
       <c r="F224" t="s">
         <v>1505</v>
       </c>
-      <c r="G224" s="218" t="s">
+      <c r="G224" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="I224" s="219" t="s">
+      <c r="I224" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J224" s="219"/>
+      <c r="J224" s="215"/>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
@@ -32032,13 +32036,13 @@
       <c r="F225" t="s">
         <v>1505</v>
       </c>
-      <c r="G225" s="218" t="s">
+      <c r="G225" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="I225" s="219" t="s">
+      <c r="I225" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J225" s="219"/>
+      <c r="J225" s="215"/>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
@@ -32050,13 +32054,13 @@
       <c r="F226" t="s">
         <v>1505</v>
       </c>
-      <c r="G226" s="218" t="s">
+      <c r="G226" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="I226" s="219" t="s">
+      <c r="I226" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J226" s="219"/>
+      <c r="J226" s="215"/>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
@@ -32068,13 +32072,13 @@
       <c r="F227" t="s">
         <v>1505</v>
       </c>
-      <c r="G227" s="218" t="s">
+      <c r="G227" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="I227" s="219" t="s">
+      <c r="I227" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J227" s="219"/>
+      <c r="J227" s="215"/>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
@@ -32086,13 +32090,13 @@
       <c r="F228" t="s">
         <v>1505</v>
       </c>
-      <c r="G228" s="218" t="s">
+      <c r="G228" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="I228" s="219" t="s">
+      <c r="I228" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J228" s="219"/>
+      <c r="J228" s="215"/>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
@@ -32104,13 +32108,13 @@
       <c r="F229" t="s">
         <v>1505</v>
       </c>
-      <c r="G229" s="218" t="s">
+      <c r="G229" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="I229" s="219" t="s">
+      <c r="I229" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J229" s="219"/>
+      <c r="J229" s="215"/>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
@@ -32122,13 +32126,13 @@
       <c r="F230" t="s">
         <v>1505</v>
       </c>
-      <c r="G230" s="218" t="s">
+      <c r="G230" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="I230" s="219" t="s">
+      <c r="I230" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J230" s="219"/>
+      <c r="J230" s="215"/>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
@@ -32140,13 +32144,13 @@
       <c r="F231" t="s">
         <v>1505</v>
       </c>
-      <c r="G231" s="218" t="s">
+      <c r="G231" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="I231" s="219" t="s">
+      <c r="I231" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J231" s="219"/>
+      <c r="J231" s="215"/>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
@@ -32158,13 +32162,13 @@
       <c r="F232" t="s">
         <v>1505</v>
       </c>
-      <c r="G232" s="218" t="s">
+      <c r="G232" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="I232" s="219" t="s">
+      <c r="I232" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J232" s="219"/>
+      <c r="J232" s="215"/>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
@@ -32176,13 +32180,13 @@
       <c r="F233" t="s">
         <v>1505</v>
       </c>
-      <c r="G233" s="218" t="s">
+      <c r="G233" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="I233" s="219" t="s">
+      <c r="I233" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J233" s="219"/>
+      <c r="J233" s="215"/>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
@@ -32194,13 +32198,13 @@
       <c r="F234" t="s">
         <v>1505</v>
       </c>
-      <c r="G234" s="218" t="s">
+      <c r="G234" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="I234" s="219" t="s">
+      <c r="I234" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J234" s="219"/>
+      <c r="J234" s="215"/>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
@@ -32212,13 +32216,13 @@
       <c r="F235" t="s">
         <v>1505</v>
       </c>
-      <c r="G235" s="218" t="s">
+      <c r="G235" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="I235" s="219" t="s">
+      <c r="I235" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J235" s="219"/>
+      <c r="J235" s="215"/>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
@@ -32230,13 +32234,13 @@
       <c r="F236" t="s">
         <v>1505</v>
       </c>
-      <c r="G236" s="218" t="s">
+      <c r="G236" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="I236" s="219" t="s">
+      <c r="I236" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J236" s="219"/>
+      <c r="J236" s="215"/>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
@@ -32248,13 +32252,13 @@
       <c r="F237" t="s">
         <v>1505</v>
       </c>
-      <c r="G237" s="218" t="s">
+      <c r="G237" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="I237" s="219" t="s">
+      <c r="I237" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J237" s="219"/>
+      <c r="J237" s="215"/>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
@@ -32266,13 +32270,13 @@
       <c r="F238" t="s">
         <v>1505</v>
       </c>
-      <c r="G238" s="218" t="s">
+      <c r="G238" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="I238" s="219" t="s">
+      <c r="I238" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J238" s="219"/>
+      <c r="J238" s="215"/>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
@@ -32284,13 +32288,13 @@
       <c r="F239" t="s">
         <v>1505</v>
       </c>
-      <c r="G239" s="218" t="s">
+      <c r="G239" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="I239" s="219" t="s">
+      <c r="I239" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J239" s="219"/>
+      <c r="J239" s="215"/>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
@@ -32302,13 +32306,13 @@
       <c r="F240" t="s">
         <v>1505</v>
       </c>
-      <c r="G240" s="218" t="s">
+      <c r="G240" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="I240" s="219" t="s">
+      <c r="I240" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J240" s="219"/>
+      <c r="J240" s="215"/>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
@@ -32320,13 +32324,13 @@
       <c r="F241" t="s">
         <v>1505</v>
       </c>
-      <c r="G241" s="218" t="s">
+      <c r="G241" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="I241" s="219" t="s">
+      <c r="I241" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J241" s="219"/>
+      <c r="J241" s="215"/>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
@@ -32338,13 +32342,13 @@
       <c r="F242" t="s">
         <v>1505</v>
       </c>
-      <c r="G242" s="218" t="s">
+      <c r="G242" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="I242" s="219" t="s">
+      <c r="I242" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J242" s="219"/>
+      <c r="J242" s="215"/>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
@@ -32356,13 +32360,13 @@
       <c r="F243" t="s">
         <v>1505</v>
       </c>
-      <c r="G243" s="218" t="s">
+      <c r="G243" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="I243" s="219" t="s">
+      <c r="I243" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J243" s="219"/>
+      <c r="J243" s="215"/>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
@@ -32374,13 +32378,13 @@
       <c r="F244" t="s">
         <v>1505</v>
       </c>
-      <c r="G244" s="218" t="s">
+      <c r="G244" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="I244" s="219" t="s">
+      <c r="I244" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J244" s="219"/>
+      <c r="J244" s="215"/>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
@@ -32392,13 +32396,13 @@
       <c r="F245" t="s">
         <v>1505</v>
       </c>
-      <c r="G245" s="218" t="s">
+      <c r="G245" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="I245" s="219" t="s">
+      <c r="I245" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J245" s="219"/>
+      <c r="J245" s="215"/>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
@@ -32410,13 +32414,13 @@
       <c r="F246" t="s">
         <v>1505</v>
       </c>
-      <c r="G246" s="218" t="s">
+      <c r="G246" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="I246" s="219" t="s">
+      <c r="I246" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J246" s="219"/>
+      <c r="J246" s="215"/>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
@@ -32428,13 +32432,13 @@
       <c r="F247" t="s">
         <v>1505</v>
       </c>
-      <c r="G247" s="218" t="s">
+      <c r="G247" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="I247" s="219" t="s">
+      <c r="I247" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J247" s="219"/>
+      <c r="J247" s="215"/>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
@@ -32446,13 +32450,13 @@
       <c r="F248" t="s">
         <v>1505</v>
       </c>
-      <c r="G248" s="218" t="s">
+      <c r="G248" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="I248" s="219" t="s">
+      <c r="I248" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J248" s="219"/>
+      <c r="J248" s="215"/>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
@@ -32464,13 +32468,13 @@
       <c r="F249" t="s">
         <v>1505</v>
       </c>
-      <c r="G249" s="218" t="s">
+      <c r="G249" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="I249" s="219" t="s">
+      <c r="I249" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J249" s="219"/>
+      <c r="J249" s="215"/>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
@@ -32482,13 +32486,13 @@
       <c r="F250" t="s">
         <v>1505</v>
       </c>
-      <c r="G250" s="218" t="s">
+      <c r="G250" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="I250" s="219" t="s">
+      <c r="I250" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J250" s="219"/>
+      <c r="J250" s="215"/>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
@@ -32500,13 +32504,13 @@
       <c r="F251" t="s">
         <v>1505</v>
       </c>
-      <c r="G251" s="218" t="s">
+      <c r="G251" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="I251" s="219" t="s">
+      <c r="I251" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J251" s="219"/>
+      <c r="J251" s="215"/>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
@@ -32518,13 +32522,13 @@
       <c r="F252" t="s">
         <v>1505</v>
       </c>
-      <c r="G252" s="218" t="s">
+      <c r="G252" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="I252" s="219" t="s">
+      <c r="I252" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J252" s="219"/>
+      <c r="J252" s="215"/>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
@@ -32536,13 +32540,13 @@
       <c r="F253" t="s">
         <v>1505</v>
       </c>
-      <c r="G253" s="218" t="s">
+      <c r="G253" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="I253" s="219" t="s">
+      <c r="I253" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J253" s="219"/>
+      <c r="J253" s="215"/>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
@@ -32554,13 +32558,13 @@
       <c r="F254" t="s">
         <v>1505</v>
       </c>
-      <c r="G254" s="218" t="s">
+      <c r="G254" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="I254" s="219" t="s">
+      <c r="I254" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J254" s="219"/>
+      <c r="J254" s="215"/>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
@@ -32572,13 +32576,13 @@
       <c r="F255" t="s">
         <v>1505</v>
       </c>
-      <c r="G255" s="218" t="s">
+      <c r="G255" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="I255" s="219" t="s">
+      <c r="I255" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J255" s="219"/>
+      <c r="J255" s="215"/>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
@@ -32590,13 +32594,13 @@
       <c r="F256" t="s">
         <v>1505</v>
       </c>
-      <c r="G256" s="218" t="s">
+      <c r="G256" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="I256" s="219" t="s">
+      <c r="I256" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J256" s="219"/>
+      <c r="J256" s="215"/>
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
@@ -32608,13 +32612,13 @@
       <c r="F257" t="s">
         <v>1505</v>
       </c>
-      <c r="G257" s="218" t="s">
+      <c r="G257" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="I257" s="219" t="s">
+      <c r="I257" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J257" s="219"/>
+      <c r="J257" s="215"/>
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
@@ -32626,13 +32630,13 @@
       <c r="F258" t="s">
         <v>1505</v>
       </c>
-      <c r="G258" s="218" t="s">
+      <c r="G258" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="I258" s="219" t="s">
+      <c r="I258" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J258" s="219"/>
+      <c r="J258" s="215"/>
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
@@ -32644,13 +32648,13 @@
       <c r="F259" t="s">
         <v>1505</v>
       </c>
-      <c r="G259" s="218" t="s">
+      <c r="G259" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="I259" s="219" t="s">
+      <c r="I259" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J259" s="219"/>
+      <c r="J259" s="215"/>
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
@@ -32662,13 +32666,13 @@
       <c r="F260" t="s">
         <v>1505</v>
       </c>
-      <c r="G260" s="218" t="s">
+      <c r="G260" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="I260" s="219" t="s">
+      <c r="I260" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J260" s="219"/>
+      <c r="J260" s="215"/>
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
@@ -32680,13 +32684,13 @@
       <c r="F261" t="s">
         <v>1505</v>
       </c>
-      <c r="G261" s="218" t="s">
+      <c r="G261" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="I261" s="219" t="s">
+      <c r="I261" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J261" s="219"/>
+      <c r="J261" s="215"/>
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
@@ -32698,13 +32702,13 @@
       <c r="F262" t="s">
         <v>1505</v>
       </c>
-      <c r="G262" s="218" t="s">
+      <c r="G262" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="I262" s="219" t="s">
+      <c r="I262" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J262" s="219"/>
+      <c r="J262" s="215"/>
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
@@ -32716,13 +32720,13 @@
       <c r="F263" t="s">
         <v>1505</v>
       </c>
-      <c r="G263" s="218" t="s">
+      <c r="G263" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="I263" s="219" t="s">
+      <c r="I263" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J263" s="219"/>
+      <c r="J263" s="215"/>
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
@@ -32734,13 +32738,13 @@
       <c r="F264" t="s">
         <v>1505</v>
       </c>
-      <c r="G264" s="218" t="s">
+      <c r="G264" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="I264" s="219" t="s">
+      <c r="I264" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J264" s="219"/>
+      <c r="J264" s="215"/>
     </row>
     <row r="265" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
@@ -32752,13 +32756,13 @@
       <c r="F265" t="s">
         <v>1505</v>
       </c>
-      <c r="G265" s="218" t="s">
+      <c r="G265" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="I265" s="219" t="s">
+      <c r="I265" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J265" s="219"/>
+      <c r="J265" s="215"/>
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
@@ -32770,11 +32774,11 @@
       <c r="F266" t="s">
         <v>1505</v>
       </c>
-      <c r="G266" s="218" t="s">
+      <c r="G266" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="I266" s="219"/>
-      <c r="J266" s="219"/>
+      <c r="I266" s="215"/>
+      <c r="J266" s="215"/>
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
@@ -32786,11 +32790,11 @@
       <c r="F267" t="s">
         <v>1505</v>
       </c>
-      <c r="G267" s="218" t="s">
+      <c r="G267" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="I267" s="219"/>
-      <c r="J267" s="219"/>
+      <c r="I267" s="215"/>
+      <c r="J267" s="215"/>
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
@@ -32802,11 +32806,11 @@
       <c r="F268" t="s">
         <v>1505</v>
       </c>
-      <c r="G268" s="218" t="s">
+      <c r="G268" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="I268" s="219"/>
-      <c r="J268" s="219"/>
+      <c r="I268" s="215"/>
+      <c r="J268" s="215"/>
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
@@ -32818,11 +32822,11 @@
       <c r="F269" t="s">
         <v>1505</v>
       </c>
-      <c r="G269" s="218" t="s">
+      <c r="G269" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="I269" s="219"/>
-      <c r="J269" s="219"/>
+      <c r="I269" s="215"/>
+      <c r="J269" s="215"/>
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
@@ -32834,11 +32838,11 @@
       <c r="F270" t="s">
         <v>1505</v>
       </c>
-      <c r="G270" s="218" t="s">
+      <c r="G270" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="I270" s="219"/>
-      <c r="J270" s="219"/>
+      <c r="I270" s="215"/>
+      <c r="J270" s="215"/>
     </row>
     <row r="271" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
@@ -32850,11 +32854,11 @@
       <c r="F271" t="s">
         <v>1505</v>
       </c>
-      <c r="G271" s="218" t="s">
+      <c r="G271" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="I271" s="219"/>
-      <c r="J271" s="219"/>
+      <c r="I271" s="215"/>
+      <c r="J271" s="215"/>
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
@@ -32866,11 +32870,11 @@
       <c r="F272" t="s">
         <v>1505</v>
       </c>
-      <c r="G272" s="218" t="s">
+      <c r="G272" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="I272" s="219"/>
-      <c r="J272" s="219"/>
+      <c r="I272" s="215"/>
+      <c r="J272" s="215"/>
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
@@ -32882,11 +32886,11 @@
       <c r="F273" t="s">
         <v>1505</v>
       </c>
-      <c r="G273" s="218" t="s">
+      <c r="G273" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="I273" s="219"/>
-      <c r="J273" s="219"/>
+      <c r="I273" s="215"/>
+      <c r="J273" s="215"/>
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
@@ -32898,11 +32902,11 @@
       <c r="F274" t="s">
         <v>1505</v>
       </c>
-      <c r="G274" s="218" t="s">
+      <c r="G274" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="I274" s="219"/>
-      <c r="J274" s="219"/>
+      <c r="I274" s="215"/>
+      <c r="J274" s="215"/>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
@@ -32914,11 +32918,11 @@
       <c r="F275" t="s">
         <v>1505</v>
       </c>
-      <c r="G275" s="218" t="s">
+      <c r="G275" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="I275" s="219"/>
-      <c r="J275" s="219"/>
+      <c r="I275" s="215"/>
+      <c r="J275" s="215"/>
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
@@ -32930,11 +32934,11 @@
       <c r="F276" t="s">
         <v>1505</v>
       </c>
-      <c r="G276" s="218" t="s">
+      <c r="G276" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="I276" s="219"/>
-      <c r="J276" s="219"/>
+      <c r="I276" s="215"/>
+      <c r="J276" s="215"/>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
@@ -32946,11 +32950,11 @@
       <c r="F277" t="s">
         <v>1505</v>
       </c>
-      <c r="G277" s="218" t="s">
+      <c r="G277" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="I277" s="219"/>
-      <c r="J277" s="219"/>
+      <c r="I277" s="215"/>
+      <c r="J277" s="215"/>
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
@@ -32962,11 +32966,11 @@
       <c r="F278" t="s">
         <v>1505</v>
       </c>
-      <c r="G278" s="218" t="s">
+      <c r="G278" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="I278" s="219"/>
-      <c r="J278" s="219"/>
+      <c r="I278" s="215"/>
+      <c r="J278" s="215"/>
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
@@ -32978,11 +32982,11 @@
       <c r="F279" t="s">
         <v>1505</v>
       </c>
-      <c r="G279" s="218" t="s">
+      <c r="G279" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="I279" s="219"/>
-      <c r="J279" s="219"/>
+      <c r="I279" s="215"/>
+      <c r="J279" s="215"/>
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
@@ -32994,11 +32998,11 @@
       <c r="F280" t="s">
         <v>1505</v>
       </c>
-      <c r="G280" s="218" t="s">
+      <c r="G280" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="I280" s="219"/>
-      <c r="J280" s="219"/>
+      <c r="I280" s="215"/>
+      <c r="J280" s="215"/>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
@@ -33010,11 +33014,11 @@
       <c r="F281" t="s">
         <v>1505</v>
       </c>
-      <c r="G281" s="218" t="s">
+      <c r="G281" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="I281" s="219"/>
-      <c r="J281" s="219"/>
+      <c r="I281" s="215"/>
+      <c r="J281" s="215"/>
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
@@ -33026,11 +33030,11 @@
       <c r="F282" t="s">
         <v>1505</v>
       </c>
-      <c r="G282" s="218" t="s">
+      <c r="G282" s="214" t="s">
         <v>1507</v>
       </c>
-      <c r="I282" s="219"/>
-      <c r="J282" s="219"/>
+      <c r="I282" s="215"/>
+      <c r="J282" s="215"/>
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
@@ -33042,8 +33046,8 @@
       <c r="F283" t="s">
         <v>1505</v>
       </c>
-      <c r="I283" s="219"/>
-      <c r="J283" s="219"/>
+      <c r="I283" s="215"/>
+      <c r="J283" s="215"/>
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
@@ -33055,8 +33059,8 @@
       <c r="F284" t="s">
         <v>1505</v>
       </c>
-      <c r="I284" s="219"/>
-      <c r="J284" s="219"/>
+      <c r="I284" s="215"/>
+      <c r="J284" s="215"/>
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
@@ -33065,8 +33069,8 @@
       <c r="F285" t="s">
         <v>1505</v>
       </c>
-      <c r="I285" s="219"/>
-      <c r="J285" s="219"/>
+      <c r="I285" s="215"/>
+      <c r="J285" s="215"/>
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
@@ -33075,8 +33079,8 @@
       <c r="F286" t="s">
         <v>1505</v>
       </c>
-      <c r="I286" s="219"/>
-      <c r="J286" s="219"/>
+      <c r="I286" s="215"/>
+      <c r="J286" s="215"/>
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
@@ -33085,317 +33089,317 @@
       <c r="F287" t="s">
         <v>1505</v>
       </c>
-      <c r="I287" s="219"/>
-      <c r="J287" s="219"/>
+      <c r="I287" s="215"/>
+      <c r="J287" s="215"/>
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>1504</v>
       </c>
-      <c r="I288" s="219"/>
-      <c r="J288" s="219"/>
+      <c r="I288" s="215"/>
+      <c r="J288" s="215"/>
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>1504</v>
       </c>
-      <c r="I289" s="219"/>
-      <c r="J289" s="219"/>
+      <c r="I289" s="215"/>
+      <c r="J289" s="215"/>
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>1504</v>
       </c>
-      <c r="I290" s="219"/>
-      <c r="J290" s="219"/>
+      <c r="I290" s="215"/>
+      <c r="J290" s="215"/>
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>1504</v>
       </c>
-      <c r="I291" s="219"/>
-      <c r="J291" s="219"/>
+      <c r="I291" s="215"/>
+      <c r="J291" s="215"/>
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>1504</v>
       </c>
-      <c r="I292" s="219"/>
-      <c r="J292" s="219"/>
+      <c r="I292" s="215"/>
+      <c r="J292" s="215"/>
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>1504</v>
       </c>
-      <c r="I293" s="219"/>
-      <c r="J293" s="219"/>
+      <c r="I293" s="215"/>
+      <c r="J293" s="215"/>
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>1504</v>
       </c>
-      <c r="I294" s="219"/>
-      <c r="J294" s="219"/>
+      <c r="I294" s="215"/>
+      <c r="J294" s="215"/>
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>1504</v>
       </c>
-      <c r="I295" s="219"/>
-      <c r="J295" s="219"/>
+      <c r="I295" s="215"/>
+      <c r="J295" s="215"/>
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>1504</v>
       </c>
-      <c r="I296" s="219"/>
-      <c r="J296" s="219"/>
+      <c r="I296" s="215"/>
+      <c r="J296" s="215"/>
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>1504</v>
       </c>
-      <c r="I297" s="219"/>
-      <c r="J297" s="219"/>
+      <c r="I297" s="215"/>
+      <c r="J297" s="215"/>
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>1504</v>
       </c>
-      <c r="I298" s="219"/>
-      <c r="J298" s="219"/>
+      <c r="I298" s="215"/>
+      <c r="J298" s="215"/>
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>1504</v>
       </c>
-      <c r="I299" s="219"/>
-      <c r="J299" s="219"/>
+      <c r="I299" s="215"/>
+      <c r="J299" s="215"/>
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>1504</v>
       </c>
-      <c r="I300" s="219"/>
-      <c r="J300" s="219"/>
+      <c r="I300" s="215"/>
+      <c r="J300" s="215"/>
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>1504</v>
       </c>
-      <c r="I301" s="219"/>
-      <c r="J301" s="219"/>
+      <c r="I301" s="215"/>
+      <c r="J301" s="215"/>
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>1504</v>
       </c>
-      <c r="I302" s="219"/>
-      <c r="J302" s="219"/>
+      <c r="I302" s="215"/>
+      <c r="J302" s="215"/>
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>1504</v>
       </c>
-      <c r="I303" s="219"/>
-      <c r="J303" s="219"/>
+      <c r="I303" s="215"/>
+      <c r="J303" s="215"/>
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>1504</v>
       </c>
-      <c r="I304" s="219"/>
-      <c r="J304" s="219"/>
+      <c r="I304" s="215"/>
+      <c r="J304" s="215"/>
     </row>
     <row r="305" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>1504</v>
       </c>
-      <c r="I305" s="219"/>
-      <c r="J305" s="219"/>
+      <c r="I305" s="215"/>
+      <c r="J305" s="215"/>
     </row>
     <row r="306" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>1504</v>
       </c>
-      <c r="I306" s="219"/>
-      <c r="J306" s="219"/>
+      <c r="I306" s="215"/>
+      <c r="J306" s="215"/>
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>1504</v>
       </c>
-      <c r="I307" s="219"/>
-      <c r="J307" s="219"/>
+      <c r="I307" s="215"/>
+      <c r="J307" s="215"/>
     </row>
     <row r="308" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>1504</v>
       </c>
-      <c r="I308" s="219"/>
-      <c r="J308" s="219"/>
+      <c r="I308" s="215"/>
+      <c r="J308" s="215"/>
     </row>
     <row r="309" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>1504</v>
       </c>
-      <c r="I309" s="219"/>
-      <c r="J309" s="219"/>
+      <c r="I309" s="215"/>
+      <c r="J309" s="215"/>
     </row>
     <row r="310" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>1504</v>
       </c>
-      <c r="I310" s="219"/>
-      <c r="J310" s="219"/>
+      <c r="I310" s="215"/>
+      <c r="J310" s="215"/>
     </row>
     <row r="311" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>1504</v>
       </c>
-      <c r="I311" s="219"/>
-      <c r="J311" s="219"/>
+      <c r="I311" s="215"/>
+      <c r="J311" s="215"/>
     </row>
     <row r="312" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>1504</v>
       </c>
-      <c r="I312" s="219"/>
-      <c r="J312" s="219"/>
+      <c r="I312" s="215"/>
+      <c r="J312" s="215"/>
     </row>
     <row r="313" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>1504</v>
       </c>
-      <c r="I313" s="219"/>
-      <c r="J313" s="219"/>
+      <c r="I313" s="215"/>
+      <c r="J313" s="215"/>
     </row>
     <row r="314" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>1504</v>
       </c>
-      <c r="I314" s="219"/>
-      <c r="J314" s="219"/>
+      <c r="I314" s="215"/>
+      <c r="J314" s="215"/>
     </row>
     <row r="315" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>1504</v>
       </c>
-      <c r="I315" s="219"/>
-      <c r="J315" s="219"/>
+      <c r="I315" s="215"/>
+      <c r="J315" s="215"/>
     </row>
     <row r="316" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>1504</v>
       </c>
-      <c r="I316" s="219"/>
-      <c r="J316" s="219"/>
+      <c r="I316" s="215"/>
+      <c r="J316" s="215"/>
     </row>
     <row r="317" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I317" s="219"/>
-      <c r="J317" s="219"/>
+      <c r="I317" s="215"/>
+      <c r="J317" s="215"/>
     </row>
     <row r="318" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I318" s="219"/>
-      <c r="J318" s="219"/>
+      <c r="I318" s="215"/>
+      <c r="J318" s="215"/>
     </row>
     <row r="319" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I319" s="219"/>
-      <c r="J319" s="219"/>
+      <c r="I319" s="215"/>
+      <c r="J319" s="215"/>
     </row>
     <row r="320" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I320" s="219"/>
-      <c r="J320" s="219"/>
+      <c r="I320" s="215"/>
+      <c r="J320" s="215"/>
     </row>
     <row r="321" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I321" s="219"/>
-      <c r="J321" s="219"/>
+      <c r="I321" s="215"/>
+      <c r="J321" s="215"/>
     </row>
     <row r="322" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I322" s="219"/>
-      <c r="J322" s="219"/>
+      <c r="I322" s="215"/>
+      <c r="J322" s="215"/>
     </row>
     <row r="323" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I323" s="219"/>
-      <c r="J323" s="219"/>
+      <c r="I323" s="215"/>
+      <c r="J323" s="215"/>
     </row>
     <row r="324" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I324" s="219"/>
-      <c r="J324" s="219"/>
+      <c r="I324" s="215"/>
+      <c r="J324" s="215"/>
     </row>
     <row r="325" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I325" s="219"/>
-      <c r="J325" s="219"/>
+      <c r="I325" s="215"/>
+      <c r="J325" s="215"/>
     </row>
     <row r="326" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I326" s="219"/>
-      <c r="J326" s="219"/>
+      <c r="I326" s="215"/>
+      <c r="J326" s="215"/>
     </row>
     <row r="327" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I327" s="219"/>
-      <c r="J327" s="219"/>
+      <c r="I327" s="215"/>
+      <c r="J327" s="215"/>
     </row>
     <row r="328" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I328" s="219"/>
-      <c r="J328" s="219"/>
+      <c r="I328" s="215"/>
+      <c r="J328" s="215"/>
     </row>
     <row r="329" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I329" s="219"/>
-      <c r="J329" s="219"/>
+      <c r="I329" s="215"/>
+      <c r="J329" s="215"/>
     </row>
     <row r="330" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I330" s="219"/>
-      <c r="J330" s="219"/>
+      <c r="I330" s="215"/>
+      <c r="J330" s="215"/>
     </row>
     <row r="331" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I331" s="219"/>
-      <c r="J331" s="219"/>
+      <c r="I331" s="215"/>
+      <c r="J331" s="215"/>
     </row>
     <row r="332" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I332" s="219"/>
-      <c r="J332" s="219"/>
+      <c r="I332" s="215"/>
+      <c r="J332" s="215"/>
     </row>
     <row r="333" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I333" s="219"/>
-      <c r="J333" s="219"/>
+      <c r="I333" s="215"/>
+      <c r="J333" s="215"/>
     </row>
     <row r="334" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I334" s="219"/>
-      <c r="J334" s="219"/>
+      <c r="I334" s="215"/>
+      <c r="J334" s="215"/>
     </row>
     <row r="335" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I335" s="219"/>
-      <c r="J335" s="219"/>
+      <c r="I335" s="215"/>
+      <c r="J335" s="215"/>
     </row>
     <row r="336" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="J336" s="219"/>
+      <c r="J336" s="215"/>
     </row>
     <row r="337" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J337" s="219"/>
+      <c r="J337" s="215"/>
     </row>
     <row r="338" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J338" s="219"/>
+      <c r="J338" s="215"/>
     </row>
     <row r="339" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J339" s="219"/>
+      <c r="J339" s="215"/>
     </row>
     <row r="340" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J340" s="219"/>
+      <c r="J340" s="215"/>
     </row>
     <row r="341" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J341" s="219"/>
+      <c r="J341" s="215"/>
     </row>
     <row r="342" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J342" s="219"/>
+      <c r="J342" s="215"/>
     </row>
     <row r="343" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J343" s="219"/>
+      <c r="J343" s="215"/>
     </row>
     <row r="344" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J344" s="219"/>
+      <c r="J344" s="215"/>
     </row>
     <row r="345" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J345" s="219"/>
+      <c r="J345" s="215"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Named/MYSQL/PracticalTask/2/price/velosipedy.xlsx
+++ b/Named/MYSQL/PracticalTask/2/price/velosipedy.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4507" uniqueCount="1545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4507" uniqueCount="1549">
   <si>
     <t>Прайс www.sima-land.ru</t>
   </si>
@@ -4655,6 +4655,18 @@
   </si>
   <si>
     <t>);</t>
+  </si>
+  <si>
+    <t>Беговел 12, детский облегченный, 2+,  дюйм, цвет фиолетовый   7150582</t>
+  </si>
+  <si>
+    <t>Беговел 12, детский облегченный, 3+  дюйм,  цвет фиолетовый   7150583</t>
+  </si>
+  <si>
+    <t>Беговел 12, детский облегченный, 2+, дюймЧеловек-паук, цвет чёрный   7150584</t>
+  </si>
+  <si>
+    <t>Беговел 12,  детский облегченный, 2+  дюйм Тачки, цвет черный   7150585</t>
   </si>
 </sst>
 </file>
@@ -5593,19 +5605,19 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -5929,26 +5941,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="216" t="s">
+      <c r="A1" s="219" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="216"/>
-      <c r="C1" s="216"/>
-      <c r="D1" s="216"/>
+      <c r="B1" s="219"/>
+      <c r="C1" s="219"/>
+      <c r="D1" s="219"/>
     </row>
     <row r="2" spans="1:4" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="217" t="s">
+      <c r="A2" s="220" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="217"/>
-      <c r="C2" s="217"/>
-      <c r="D2" s="217"/>
+      <c r="B2" s="220"/>
+      <c r="C2" s="220"/>
+      <c r="D2" s="220"/>
     </row>
     <row r="3" spans="1:4" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="217" t="s">
+      <c r="A3" s="220" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="217"/>
+      <c r="B3" s="220"/>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:4" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -26346,84 +26358,84 @@
       </c>
     </row>
     <row r="1497" spans="1:4" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1497" s="219"/>
-      <c r="B1497" s="219"/>
-      <c r="C1497" s="219"/>
-      <c r="D1497" s="219"/>
+      <c r="A1497" s="217"/>
+      <c r="B1497" s="217"/>
+      <c r="C1497" s="217"/>
+      <c r="D1497" s="217"/>
     </row>
   </sheetData>
   <mergeCells count="71">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A131:D131"/>
+    <mergeCell ref="A171:D171"/>
+    <mergeCell ref="A194:D194"/>
+    <mergeCell ref="A205:D205"/>
+    <mergeCell ref="A220:D220"/>
+    <mergeCell ref="A224:D224"/>
+    <mergeCell ref="A226:D226"/>
+    <mergeCell ref="A251:D251"/>
+    <mergeCell ref="A306:D306"/>
+    <mergeCell ref="A318:D318"/>
+    <mergeCell ref="A343:D343"/>
+    <mergeCell ref="A355:D355"/>
+    <mergeCell ref="A372:D372"/>
+    <mergeCell ref="A454:D454"/>
+    <mergeCell ref="A471:D471"/>
+    <mergeCell ref="A473:D473"/>
+    <mergeCell ref="A486:D486"/>
+    <mergeCell ref="A495:D495"/>
+    <mergeCell ref="A522:D522"/>
+    <mergeCell ref="A541:D541"/>
+    <mergeCell ref="A581:D581"/>
+    <mergeCell ref="A583:D583"/>
+    <mergeCell ref="A588:D588"/>
+    <mergeCell ref="A620:D620"/>
+    <mergeCell ref="A651:D651"/>
+    <mergeCell ref="A663:D663"/>
+    <mergeCell ref="A680:D680"/>
+    <mergeCell ref="A712:D712"/>
+    <mergeCell ref="A743:D743"/>
+    <mergeCell ref="A843:D843"/>
+    <mergeCell ref="A876:D876"/>
+    <mergeCell ref="A923:D923"/>
+    <mergeCell ref="A947:D947"/>
+    <mergeCell ref="A969:D969"/>
+    <mergeCell ref="A999:D999"/>
+    <mergeCell ref="A1003:D1003"/>
+    <mergeCell ref="A1009:D1009"/>
+    <mergeCell ref="A1011:D1011"/>
+    <mergeCell ref="A1016:D1016"/>
+    <mergeCell ref="A1036:D1036"/>
+    <mergeCell ref="A1043:D1043"/>
+    <mergeCell ref="A1049:D1049"/>
+    <mergeCell ref="A1055:D1055"/>
+    <mergeCell ref="A1058:D1058"/>
+    <mergeCell ref="A1076:D1076"/>
+    <mergeCell ref="A1082:D1082"/>
+    <mergeCell ref="A1133:D1133"/>
+    <mergeCell ref="A1150:D1150"/>
+    <mergeCell ref="A1168:D1168"/>
+    <mergeCell ref="A1191:D1191"/>
+    <mergeCell ref="A1196:D1196"/>
+    <mergeCell ref="A1260:D1260"/>
+    <mergeCell ref="A1277:D1277"/>
+    <mergeCell ref="A1305:D1305"/>
+    <mergeCell ref="A1311:D1311"/>
+    <mergeCell ref="A1319:D1319"/>
     <mergeCell ref="A1497:D1497"/>
     <mergeCell ref="A1376:D1376"/>
     <mergeCell ref="A1450:D1450"/>
     <mergeCell ref="A1475:D1475"/>
     <mergeCell ref="A1486:D1486"/>
     <mergeCell ref="A1494:D1494"/>
-    <mergeCell ref="A1260:D1260"/>
-    <mergeCell ref="A1277:D1277"/>
-    <mergeCell ref="A1305:D1305"/>
-    <mergeCell ref="A1311:D1311"/>
-    <mergeCell ref="A1319:D1319"/>
-    <mergeCell ref="A1133:D1133"/>
-    <mergeCell ref="A1150:D1150"/>
-    <mergeCell ref="A1168:D1168"/>
-    <mergeCell ref="A1191:D1191"/>
-    <mergeCell ref="A1196:D1196"/>
-    <mergeCell ref="A1049:D1049"/>
-    <mergeCell ref="A1055:D1055"/>
-    <mergeCell ref="A1058:D1058"/>
-    <mergeCell ref="A1076:D1076"/>
-    <mergeCell ref="A1082:D1082"/>
-    <mergeCell ref="A1009:D1009"/>
-    <mergeCell ref="A1011:D1011"/>
-    <mergeCell ref="A1016:D1016"/>
-    <mergeCell ref="A1036:D1036"/>
-    <mergeCell ref="A1043:D1043"/>
-    <mergeCell ref="A923:D923"/>
-    <mergeCell ref="A947:D947"/>
-    <mergeCell ref="A969:D969"/>
-    <mergeCell ref="A999:D999"/>
-    <mergeCell ref="A1003:D1003"/>
-    <mergeCell ref="A680:D680"/>
-    <mergeCell ref="A712:D712"/>
-    <mergeCell ref="A743:D743"/>
-    <mergeCell ref="A843:D843"/>
-    <mergeCell ref="A876:D876"/>
-    <mergeCell ref="A583:D583"/>
-    <mergeCell ref="A588:D588"/>
-    <mergeCell ref="A620:D620"/>
-    <mergeCell ref="A651:D651"/>
-    <mergeCell ref="A663:D663"/>
-    <mergeCell ref="A486:D486"/>
-    <mergeCell ref="A495:D495"/>
-    <mergeCell ref="A522:D522"/>
-    <mergeCell ref="A541:D541"/>
-    <mergeCell ref="A581:D581"/>
-    <mergeCell ref="A355:D355"/>
-    <mergeCell ref="A372:D372"/>
-    <mergeCell ref="A454:D454"/>
-    <mergeCell ref="A471:D471"/>
-    <mergeCell ref="A473:D473"/>
-    <mergeCell ref="A226:D226"/>
-    <mergeCell ref="A251:D251"/>
-    <mergeCell ref="A306:D306"/>
-    <mergeCell ref="A318:D318"/>
-    <mergeCell ref="A343:D343"/>
-    <mergeCell ref="A171:D171"/>
-    <mergeCell ref="A194:D194"/>
-    <mergeCell ref="A205:D205"/>
-    <mergeCell ref="A220:D220"/>
-    <mergeCell ref="A224:D224"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A131:D131"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A24:D24"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
@@ -26434,8 +26446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J345"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I175" sqref="I175"/>
+    <sheetView tabSelected="1" topLeftCell="A154" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E99" sqref="E99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -26443,7 +26455,7 @@
     <col min="2" max="2" width="17.33203125" customWidth="1"/>
     <col min="5" max="5" width="111.6640625" customWidth="1"/>
     <col min="7" max="7" width="9.33203125" style="213"/>
-    <col min="8" max="8" width="38.83203125" style="220" customWidth="1"/>
+    <col min="8" max="8" width="38.83203125" style="216" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
@@ -28968,7 +28980,7 @@
         <v>1506</v>
       </c>
       <c r="E95" s="212" t="s">
-        <v>1111</v>
+        <v>1545</v>
       </c>
       <c r="F95" t="s">
         <v>1505</v>
@@ -28995,7 +29007,7 @@
         <v>1506</v>
       </c>
       <c r="E96" s="212" t="s">
-        <v>1112</v>
+        <v>1546</v>
       </c>
       <c r="F96" t="s">
         <v>1505</v>
@@ -29022,7 +29034,7 @@
         <v>1506</v>
       </c>
       <c r="E97" s="212" t="s">
-        <v>1113</v>
+        <v>1547</v>
       </c>
       <c r="F97" t="s">
         <v>1505</v>
@@ -29049,7 +29061,7 @@
         <v>1506</v>
       </c>
       <c r="E98" s="212" t="s">
-        <v>1114</v>
+        <v>1548</v>
       </c>
       <c r="F98" t="s">
         <v>1505</v>

--- a/Named/MYSQL/PracticalTask/2/price/velosipedy.xlsx
+++ b/Named/MYSQL/PracticalTask/2/price/velosipedy.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4507" uniqueCount="1549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4154" uniqueCount="1555">
   <si>
     <t>Прайс www.sima-land.ru</t>
   </si>
@@ -4667,6 +4667,24 @@
   </si>
   <si>
     <t>Беговел 12,  детский облегченный, 2+  дюйм Тачки, цвет черный   7150585</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>art</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>id_order</t>
   </si>
 </sst>
 </file>
@@ -4964,7 +4982,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="221">
+  <cellXfs count="222">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -5618,6 +5636,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -26444,21 +26465,38 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J345"/>
+  <dimension ref="A1:K345"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E99" sqref="E99"/>
+    <sheetView tabSelected="1" topLeftCell="A150" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E153" sqref="E153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="5" max="5" width="111.6640625" customWidth="1"/>
+    <col min="5" max="5" width="101.33203125" customWidth="1"/>
     <col min="7" max="7" width="9.33203125" style="213"/>
     <col min="8" max="8" width="38.83203125" style="216" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>1550</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1551</v>
+      </c>
+      <c r="G1" s="213" t="s">
+        <v>1552</v>
+      </c>
+      <c r="H1" s="221" t="s">
+        <v>1553</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1504</v>
       </c>
@@ -26480,12 +26518,17 @@
       <c r="H2" s="6">
         <v>19107</v>
       </c>
-      <c r="I2" s="215" t="s">
+      <c r="I2" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J2" s="215">
+        <v>1</v>
+      </c>
+      <c r="K2" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J2" s="215"/>
-    </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1504</v>
       </c>
@@ -26507,12 +26550,17 @@
       <c r="H3" s="6">
         <v>19107</v>
       </c>
-      <c r="I3" s="215" t="s">
+      <c r="I3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J3" s="215">
+        <v>2</v>
+      </c>
+      <c r="K3" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J3" s="215"/>
-    </row>
-    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1504</v>
       </c>
@@ -26534,12 +26582,17 @@
       <c r="H4" s="6">
         <v>19107</v>
       </c>
-      <c r="I4" s="215" t="s">
+      <c r="I4" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J4" s="215">
+        <v>3</v>
+      </c>
+      <c r="K4" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J4" s="215"/>
-    </row>
-    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1504</v>
       </c>
@@ -26561,12 +26614,17 @@
       <c r="H5" s="6">
         <v>19107</v>
       </c>
-      <c r="I5" s="215" t="s">
+      <c r="I5" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J5" s="215">
+        <v>4</v>
+      </c>
+      <c r="K5" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J5" s="215"/>
-    </row>
-    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1504</v>
       </c>
@@ -26588,12 +26646,17 @@
       <c r="H6" s="6">
         <v>20124</v>
       </c>
-      <c r="I6" s="215" t="s">
+      <c r="I6" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J6" s="215">
+        <v>5</v>
+      </c>
+      <c r="K6" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J6" s="215"/>
-    </row>
-    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1504</v>
       </c>
@@ -26615,12 +26678,17 @@
       <c r="H7" s="6">
         <v>20124</v>
       </c>
-      <c r="I7" s="215" t="s">
+      <c r="I7" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J7" s="215">
+        <v>6</v>
+      </c>
+      <c r="K7" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J7" s="215"/>
-    </row>
-    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1504</v>
       </c>
@@ -26642,12 +26710,17 @@
       <c r="H8" s="6">
         <v>22156</v>
       </c>
-      <c r="I8" s="215" t="s">
+      <c r="I8" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J8" s="215">
+        <v>7</v>
+      </c>
+      <c r="K8" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J8" s="215"/>
-    </row>
-    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1504</v>
       </c>
@@ -26669,12 +26742,17 @@
       <c r="H9" s="6">
         <v>22156</v>
       </c>
-      <c r="I9" s="215" t="s">
+      <c r="I9" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J9" s="215">
+        <v>8</v>
+      </c>
+      <c r="K9" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J9" s="215"/>
-    </row>
-    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1504</v>
       </c>
@@ -26696,12 +26774,17 @@
       <c r="H10" s="6">
         <v>20790</v>
       </c>
-      <c r="I10" s="215" t="s">
+      <c r="I10" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J10" s="215">
+        <v>9</v>
+      </c>
+      <c r="K10" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J10" s="215"/>
-    </row>
-    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1504</v>
       </c>
@@ -26723,12 +26806,17 @@
       <c r="H11" s="6">
         <v>20790</v>
       </c>
-      <c r="I11" s="215" t="s">
+      <c r="I11" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J11" s="215">
+        <v>10</v>
+      </c>
+      <c r="K11" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J11" s="215"/>
-    </row>
-    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1504</v>
       </c>
@@ -26750,12 +26838,17 @@
       <c r="H12" s="6">
         <v>19750</v>
       </c>
-      <c r="I12" s="215" t="s">
+      <c r="I12" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J12" s="215">
+        <v>11</v>
+      </c>
+      <c r="K12" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J12" s="215"/>
-    </row>
-    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1504</v>
       </c>
@@ -26777,12 +26870,17 @@
       <c r="H13" s="6">
         <v>15245</v>
       </c>
-      <c r="I13" s="215" t="s">
+      <c r="I13" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J13" s="215">
+        <v>12</v>
+      </c>
+      <c r="K13" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J13" s="215"/>
-    </row>
-    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1504</v>
       </c>
@@ -26804,12 +26902,17 @@
       <c r="H14" s="6">
         <v>15245</v>
       </c>
-      <c r="I14" s="215" t="s">
+      <c r="I14" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J14" s="215">
+        <v>13</v>
+      </c>
+      <c r="K14" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J14" s="215"/>
-    </row>
-    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1504</v>
       </c>
@@ -26831,12 +26934,17 @@
       <c r="H15" s="6">
         <v>15245</v>
       </c>
-      <c r="I15" s="215" t="s">
+      <c r="I15" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J15" s="215">
+        <v>14</v>
+      </c>
+      <c r="K15" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J15" s="215"/>
-    </row>
-    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1504</v>
       </c>
@@ -26858,12 +26966,17 @@
       <c r="H16" s="6">
         <v>19300</v>
       </c>
-      <c r="I16" s="215" t="s">
+      <c r="I16" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J16" s="215">
+        <v>15</v>
+      </c>
+      <c r="K16" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J16" s="215"/>
-    </row>
-    <row r="17" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1504</v>
       </c>
@@ -26885,12 +26998,17 @@
       <c r="H17" s="6">
         <v>17157</v>
       </c>
-      <c r="I17" s="215" t="s">
+      <c r="I17" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J17" s="215">
+        <v>16</v>
+      </c>
+      <c r="K17" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J17" s="215"/>
-    </row>
-    <row r="18" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1504</v>
       </c>
@@ -26912,12 +27030,17 @@
       <c r="H18" s="6">
         <v>16939</v>
       </c>
-      <c r="I18" s="215" t="s">
+      <c r="I18" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J18" s="215">
+        <v>17</v>
+      </c>
+      <c r="K18" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J18" s="215"/>
-    </row>
-    <row r="19" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>1504</v>
       </c>
@@ -26939,12 +27062,17 @@
       <c r="H19" s="6">
         <v>16939</v>
       </c>
-      <c r="I19" s="215" t="s">
+      <c r="I19" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J19" s="215">
+        <v>18</v>
+      </c>
+      <c r="K19" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J19" s="215"/>
-    </row>
-    <row r="20" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>1504</v>
       </c>
@@ -26966,12 +27094,17 @@
       <c r="H20" s="6">
         <v>16939</v>
       </c>
-      <c r="I20" s="215" t="s">
+      <c r="I20" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J20" s="215">
+        <v>19</v>
+      </c>
+      <c r="K20" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J20" s="215"/>
-    </row>
-    <row r="21" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>1504</v>
       </c>
@@ -26993,12 +27126,17 @@
       <c r="H21" s="6">
         <v>18091</v>
       </c>
-      <c r="I21" s="215" t="s">
+      <c r="I21" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J21" s="215">
+        <v>20</v>
+      </c>
+      <c r="K21" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J21" s="215"/>
-    </row>
-    <row r="22" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>1504</v>
       </c>
@@ -27020,12 +27158,17 @@
       <c r="H22" s="6">
         <v>18091</v>
       </c>
-      <c r="I22" s="215" t="s">
+      <c r="I22" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J22" s="215">
+        <v>21</v>
+      </c>
+      <c r="K22" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J22" s="215"/>
-    </row>
-    <row r="23" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>1504</v>
       </c>
@@ -27047,12 +27190,17 @@
       <c r="H23" s="6">
         <v>18091</v>
       </c>
-      <c r="I23" s="215" t="s">
+      <c r="I23" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J23" s="215">
+        <v>22</v>
+      </c>
+      <c r="K23" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J23" s="215"/>
-    </row>
-    <row r="24" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>1504</v>
       </c>
@@ -27074,12 +27222,17 @@
       <c r="H24" s="6">
         <v>17347</v>
       </c>
-      <c r="I24" s="215" t="s">
+      <c r="I24" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J24" s="215">
+        <v>23</v>
+      </c>
+      <c r="K24" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J24" s="215"/>
-    </row>
-    <row r="25" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>1504</v>
       </c>
@@ -27101,12 +27254,17 @@
       <c r="H25" s="6">
         <v>17347</v>
       </c>
-      <c r="I25" s="215" t="s">
+      <c r="I25" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J25" s="215">
+        <v>24</v>
+      </c>
+      <c r="K25" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J25" s="215"/>
-    </row>
-    <row r="26" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>1504</v>
       </c>
@@ -27128,12 +27286,17 @@
       <c r="H26" s="6">
         <v>16939</v>
       </c>
-      <c r="I26" s="215" t="s">
+      <c r="I26" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J26" s="215">
+        <v>25</v>
+      </c>
+      <c r="K26" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J26" s="215"/>
-    </row>
-    <row r="27" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>1504</v>
       </c>
@@ -27155,12 +27318,17 @@
       <c r="H27" s="6">
         <v>16939</v>
       </c>
-      <c r="I27" s="215" t="s">
+      <c r="I27" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J27" s="215">
+        <v>26</v>
+      </c>
+      <c r="K27" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J27" s="215"/>
-    </row>
-    <row r="28" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>1504</v>
       </c>
@@ -27182,12 +27350,17 @@
       <c r="H28" s="6">
         <v>16939</v>
       </c>
-      <c r="I28" s="215" t="s">
+      <c r="I28" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J28" s="215">
+        <v>27</v>
+      </c>
+      <c r="K28" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J28" s="215"/>
-    </row>
-    <row r="29" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>1504</v>
       </c>
@@ -27209,12 +27382,17 @@
       <c r="H29" s="6">
         <v>17137</v>
       </c>
-      <c r="I29" s="215" t="s">
+      <c r="I29" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J29" s="215">
+        <v>28</v>
+      </c>
+      <c r="K29" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J29" s="215"/>
-    </row>
-    <row r="30" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>1504</v>
       </c>
@@ -27236,12 +27414,17 @@
       <c r="H30" s="6">
         <v>17137</v>
       </c>
-      <c r="I30" s="215" t="s">
+      <c r="I30" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J30" s="215">
+        <v>29</v>
+      </c>
+      <c r="K30" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J30" s="215"/>
-    </row>
-    <row r="31" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>1504</v>
       </c>
@@ -27263,12 +27446,17 @@
       <c r="H31" s="6">
         <v>17137</v>
       </c>
-      <c r="I31" s="215" t="s">
+      <c r="I31" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J31" s="215">
+        <v>30</v>
+      </c>
+      <c r="K31" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J31" s="215"/>
-    </row>
-    <row r="32" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>1504</v>
       </c>
@@ -27290,12 +27478,17 @@
       <c r="H32" s="6">
         <v>17137</v>
       </c>
-      <c r="I32" s="215" t="s">
+      <c r="I32" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J32" s="215">
+        <v>31</v>
+      </c>
+      <c r="K32" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J32" s="215"/>
-    </row>
-    <row r="33" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>1504</v>
       </c>
@@ -27317,12 +27510,17 @@
       <c r="H33" s="6">
         <v>18990</v>
       </c>
-      <c r="I33" s="215" t="s">
+      <c r="I33" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J33" s="215">
+        <v>32</v>
+      </c>
+      <c r="K33" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J33" s="215"/>
-    </row>
-    <row r="34" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>1504</v>
       </c>
@@ -27344,12 +27542,17 @@
       <c r="H34" s="6">
         <v>16819</v>
       </c>
-      <c r="I34" s="215" t="s">
+      <c r="I34" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J34" s="215">
+        <v>33</v>
+      </c>
+      <c r="K34" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J34" s="215"/>
-    </row>
-    <row r="35" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>1504</v>
       </c>
@@ -27371,12 +27574,17 @@
       <c r="H35" s="6">
         <v>26200</v>
       </c>
-      <c r="I35" s="215" t="s">
+      <c r="I35" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J35" s="215">
+        <v>34</v>
+      </c>
+      <c r="K35" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J35" s="215"/>
-    </row>
-    <row r="36" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>1504</v>
       </c>
@@ -27398,12 +27606,17 @@
       <c r="H36" s="6">
         <v>30440</v>
       </c>
-      <c r="I36" s="215" t="s">
+      <c r="I36" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J36" s="215">
+        <v>35</v>
+      </c>
+      <c r="K36" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J36" s="215"/>
-    </row>
-    <row r="37" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>1504</v>
       </c>
@@ -27425,12 +27638,17 @@
       <c r="H37" s="6">
         <v>30440</v>
       </c>
-      <c r="I37" s="215" t="s">
+      <c r="I37" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J37" s="215">
+        <v>36</v>
+      </c>
+      <c r="K37" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J37" s="215"/>
-    </row>
-    <row r="38" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>1504</v>
       </c>
@@ -27452,12 +27670,17 @@
       <c r="H38" s="6">
         <v>30440</v>
       </c>
-      <c r="I38" s="215" t="s">
+      <c r="I38" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J38" s="215">
+        <v>37</v>
+      </c>
+      <c r="K38" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J38" s="215"/>
-    </row>
-    <row r="39" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>1504</v>
       </c>
@@ -27479,12 +27702,17 @@
       <c r="H39" s="6">
         <v>18290</v>
       </c>
-      <c r="I39" s="215" t="s">
+      <c r="I39" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J39" s="215">
+        <v>38</v>
+      </c>
+      <c r="K39" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J39" s="215"/>
-    </row>
-    <row r="40" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>1504</v>
       </c>
@@ -27506,12 +27734,17 @@
       <c r="H40" s="6">
         <v>18290</v>
       </c>
-      <c r="I40" s="215" t="s">
+      <c r="I40" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J40" s="215">
+        <v>39</v>
+      </c>
+      <c r="K40" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J40" s="215"/>
-    </row>
-    <row r="41" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>1504</v>
       </c>
@@ -27533,12 +27766,17 @@
       <c r="H41" s="6">
         <v>18290</v>
       </c>
-      <c r="I41" s="215" t="s">
+      <c r="I41" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J41" s="215">
+        <v>40</v>
+      </c>
+      <c r="K41" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J41" s="215"/>
-    </row>
-    <row r="42" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>1504</v>
       </c>
@@ -27560,12 +27798,17 @@
       <c r="H42" s="6">
         <v>20510</v>
       </c>
-      <c r="I42" s="215" t="s">
+      <c r="I42" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J42" s="215">
+        <v>41</v>
+      </c>
+      <c r="K42" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J42" s="215"/>
-    </row>
-    <row r="43" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>1504</v>
       </c>
@@ -27587,12 +27830,17 @@
       <c r="H43" s="6">
         <v>20510</v>
       </c>
-      <c r="I43" s="215" t="s">
+      <c r="I43" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J43" s="215">
+        <v>42</v>
+      </c>
+      <c r="K43" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J43" s="215"/>
-    </row>
-    <row r="44" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>1504</v>
       </c>
@@ -27614,12 +27862,17 @@
       <c r="H44" s="6">
         <v>20124</v>
       </c>
-      <c r="I44" s="215" t="s">
+      <c r="I44" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J44" s="215">
+        <v>43</v>
+      </c>
+      <c r="K44" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J44" s="215"/>
-    </row>
-    <row r="45" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>1504</v>
       </c>
@@ -27641,12 +27894,17 @@
       <c r="H45" s="6">
         <v>20124</v>
       </c>
-      <c r="I45" s="215" t="s">
+      <c r="I45" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J45" s="215">
+        <v>44</v>
+      </c>
+      <c r="K45" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J45" s="215"/>
-    </row>
-    <row r="46" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>1504</v>
       </c>
@@ -27668,12 +27926,17 @@
       <c r="H46" s="6">
         <v>20124</v>
       </c>
-      <c r="I46" s="215" t="s">
+      <c r="I46" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J46" s="215">
+        <v>45</v>
+      </c>
+      <c r="K46" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J46" s="215"/>
-    </row>
-    <row r="47" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>1504</v>
       </c>
@@ -27695,12 +27958,17 @@
       <c r="H47" s="6">
         <v>20124</v>
       </c>
-      <c r="I47" s="215" t="s">
+      <c r="I47" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J47" s="215">
+        <v>46</v>
+      </c>
+      <c r="K47" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J47" s="215"/>
-    </row>
-    <row r="48" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>1504</v>
       </c>
@@ -27722,12 +27990,17 @@
       <c r="H48" s="6">
         <v>20558</v>
       </c>
-      <c r="I48" s="215" t="s">
+      <c r="I48" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J48" s="215">
+        <v>47</v>
+      </c>
+      <c r="K48" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J48" s="215"/>
-    </row>
-    <row r="49" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>1504</v>
       </c>
@@ -27749,12 +28022,17 @@
       <c r="H49" s="6">
         <v>19107</v>
       </c>
-      <c r="I49" s="215" t="s">
+      <c r="I49" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J49" s="215">
+        <v>48</v>
+      </c>
+      <c r="K49" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J49" s="215"/>
-    </row>
-    <row r="50" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>1504</v>
       </c>
@@ -27776,12 +28054,17 @@
       <c r="H50" s="6">
         <v>18590</v>
       </c>
-      <c r="I50" s="215" t="s">
+      <c r="I50" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J50" s="215">
+        <v>49</v>
+      </c>
+      <c r="K50" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J50" s="215"/>
-    </row>
-    <row r="51" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>1504</v>
       </c>
@@ -27803,12 +28086,17 @@
       <c r="H51" s="6">
         <v>18590</v>
       </c>
-      <c r="I51" s="215" t="s">
+      <c r="I51" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J51" s="215">
+        <v>50</v>
+      </c>
+      <c r="K51" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J51" s="215"/>
-    </row>
-    <row r="52" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>1504</v>
       </c>
@@ -27830,12 +28118,17 @@
       <c r="H52" s="6">
         <v>18590</v>
       </c>
-      <c r="I52" s="215" t="s">
+      <c r="I52" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J52" s="215">
+        <v>51</v>
+      </c>
+      <c r="K52" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J52" s="215"/>
-    </row>
-    <row r="53" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>1504</v>
       </c>
@@ -27857,12 +28150,17 @@
       <c r="H53" s="6">
         <v>20510</v>
       </c>
-      <c r="I53" s="215" t="s">
+      <c r="I53" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J53" s="215">
+        <v>52</v>
+      </c>
+      <c r="K53" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J53" s="215"/>
-    </row>
-    <row r="54" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>1504</v>
       </c>
@@ -27884,12 +28182,17 @@
       <c r="H54" s="6">
         <v>20510</v>
       </c>
-      <c r="I54" s="215" t="s">
+      <c r="I54" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J54" s="215">
+        <v>53</v>
+      </c>
+      <c r="K54" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J54" s="215"/>
-    </row>
-    <row r="55" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>1504</v>
       </c>
@@ -27911,12 +28214,17 @@
       <c r="H55" s="6">
         <v>20510</v>
       </c>
-      <c r="I55" s="215" t="s">
+      <c r="I55" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J55" s="215">
+        <v>54</v>
+      </c>
+      <c r="K55" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J55" s="215"/>
-    </row>
-    <row r="56" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>1504</v>
       </c>
@@ -27938,12 +28246,17 @@
       <c r="H56" s="6">
         <v>29472</v>
       </c>
-      <c r="I56" s="215" t="s">
+      <c r="I56" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J56" s="215">
+        <v>55</v>
+      </c>
+      <c r="K56" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J56" s="215"/>
-    </row>
-    <row r="57" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>1504</v>
       </c>
@@ -27965,12 +28278,17 @@
       <c r="H57" s="6">
         <v>29472</v>
       </c>
-      <c r="I57" s="215" t="s">
+      <c r="I57" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J57" s="215">
+        <v>56</v>
+      </c>
+      <c r="K57" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J57" s="215"/>
-    </row>
-    <row r="58" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>1504</v>
       </c>
@@ -27992,12 +28310,17 @@
       <c r="H58" s="6">
         <v>29472</v>
       </c>
-      <c r="I58" s="215" t="s">
+      <c r="I58" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J58" s="215">
+        <v>57</v>
+      </c>
+      <c r="K58" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J58" s="215"/>
-    </row>
-    <row r="59" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>1504</v>
       </c>
@@ -28019,12 +28342,17 @@
       <c r="H59" s="6">
         <v>23838</v>
       </c>
-      <c r="I59" s="215" t="s">
+      <c r="I59" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J59" s="215">
+        <v>58</v>
+      </c>
+      <c r="K59" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J59" s="215"/>
-    </row>
-    <row r="60" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>1504</v>
       </c>
@@ -28046,12 +28374,17 @@
       <c r="H60" s="6">
         <v>23838</v>
       </c>
-      <c r="I60" s="215" t="s">
+      <c r="I60" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J60" s="215">
+        <v>59</v>
+      </c>
+      <c r="K60" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J60" s="215"/>
-    </row>
-    <row r="61" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>1504</v>
       </c>
@@ -28073,12 +28406,17 @@
       <c r="H61" s="6">
         <v>23838</v>
       </c>
-      <c r="I61" s="215" t="s">
+      <c r="I61" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J61" s="215">
+        <v>60</v>
+      </c>
+      <c r="K61" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J61" s="215"/>
-    </row>
-    <row r="62" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>1504</v>
       </c>
@@ -28100,12 +28438,17 @@
       <c r="H62" s="6">
         <v>19878</v>
       </c>
-      <c r="I62" s="215" t="s">
+      <c r="I62" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J62" s="215">
+        <v>61</v>
+      </c>
+      <c r="K62" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J62" s="215"/>
-    </row>
-    <row r="63" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>1504</v>
       </c>
@@ -28127,12 +28470,17 @@
       <c r="H63" s="6">
         <v>19878</v>
       </c>
-      <c r="I63" s="215" t="s">
+      <c r="I63" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J63" s="215">
+        <v>62</v>
+      </c>
+      <c r="K63" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J63" s="215"/>
-    </row>
-    <row r="64" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>1504</v>
       </c>
@@ -28154,12 +28502,17 @@
       <c r="H64" s="6">
         <v>19878</v>
       </c>
-      <c r="I64" s="215" t="s">
+      <c r="I64" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J64" s="215">
+        <v>63</v>
+      </c>
+      <c r="K64" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J64" s="215"/>
-    </row>
-    <row r="65" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>1504</v>
       </c>
@@ -28181,12 +28534,17 @@
       <c r="H65" s="6">
         <v>19878</v>
       </c>
-      <c r="I65" s="215" t="s">
+      <c r="I65" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J65" s="215">
+        <v>64</v>
+      </c>
+      <c r="K65" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J65" s="215"/>
-    </row>
-    <row r="66" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>1504</v>
       </c>
@@ -28208,12 +28566,17 @@
       <c r="H66" s="6">
         <v>19878</v>
       </c>
-      <c r="I66" s="215" t="s">
+      <c r="I66" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J66" s="215">
+        <v>65</v>
+      </c>
+      <c r="K66" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J66" s="215"/>
-    </row>
-    <row r="67" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>1504</v>
       </c>
@@ -28235,12 +28598,17 @@
       <c r="H67" s="6">
         <v>19878</v>
       </c>
-      <c r="I67" s="215" t="s">
+      <c r="I67" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J67" s="215">
+        <v>66</v>
+      </c>
+      <c r="K67" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J67" s="215"/>
-    </row>
-    <row r="68" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>1504</v>
       </c>
@@ -28262,12 +28630,17 @@
       <c r="H68" s="6">
         <v>14091</v>
       </c>
-      <c r="I68" s="215" t="s">
+      <c r="I68" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J68" s="215">
+        <v>67</v>
+      </c>
+      <c r="K68" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J68" s="215"/>
-    </row>
-    <row r="69" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>1504</v>
       </c>
@@ -28289,12 +28662,17 @@
       <c r="H69" s="6">
         <v>14091</v>
       </c>
-      <c r="I69" s="215" t="s">
+      <c r="I69" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J69" s="215">
+        <v>68</v>
+      </c>
+      <c r="K69" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J69" s="215"/>
-    </row>
-    <row r="70" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>1504</v>
       </c>
@@ -28316,12 +28694,17 @@
       <c r="H70" s="6">
         <v>20449</v>
       </c>
-      <c r="I70" s="215" t="s">
+      <c r="I70" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J70" s="215">
+        <v>69</v>
+      </c>
+      <c r="K70" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J70" s="215"/>
-    </row>
-    <row r="71" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>1504</v>
       </c>
@@ -28343,12 +28726,17 @@
       <c r="H71" s="6">
         <v>20449</v>
       </c>
-      <c r="I71" s="215" t="s">
+      <c r="I71" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J71" s="215">
+        <v>70</v>
+      </c>
+      <c r="K71" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J71" s="215"/>
-    </row>
-    <row r="72" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>1504</v>
       </c>
@@ -28370,12 +28758,17 @@
       <c r="H72" s="6">
         <v>2493</v>
       </c>
-      <c r="I72" s="215" t="s">
+      <c r="I72" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J72" s="215">
+        <v>71</v>
+      </c>
+      <c r="K72" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J72" s="215"/>
-    </row>
-    <row r="73" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>1504</v>
       </c>
@@ -28397,12 +28790,17 @@
       <c r="H73" s="6">
         <v>2572</v>
       </c>
-      <c r="I73" s="215" t="s">
+      <c r="I73" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J73" s="215">
+        <v>72</v>
+      </c>
+      <c r="K73" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J73" s="215"/>
-    </row>
-    <row r="74" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>1504</v>
       </c>
@@ -28424,12 +28822,17 @@
       <c r="H74" s="6">
         <v>7817</v>
       </c>
-      <c r="I74" s="215" t="s">
+      <c r="I74" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J74" s="215">
+        <v>73</v>
+      </c>
+      <c r="K74" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J74" s="215"/>
-    </row>
-    <row r="75" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>1504</v>
       </c>
@@ -28451,12 +28854,17 @@
       <c r="H75" s="6">
         <v>4200</v>
       </c>
-      <c r="I75" s="215" t="s">
+      <c r="I75" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J75" s="215">
+        <v>74</v>
+      </c>
+      <c r="K75" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J75" s="215"/>
-    </row>
-    <row r="76" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>1504</v>
       </c>
@@ -28478,12 +28886,17 @@
       <c r="H76" s="6">
         <v>2679</v>
       </c>
-      <c r="I76" s="215" t="s">
+      <c r="I76" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J76" s="215">
+        <v>75</v>
+      </c>
+      <c r="K76" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J76" s="215"/>
-    </row>
-    <row r="77" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>1504</v>
       </c>
@@ -28505,12 +28918,17 @@
       <c r="H77" s="6">
         <v>8249</v>
       </c>
-      <c r="I77" s="215" t="s">
+      <c r="I77" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J77" s="215">
+        <v>76</v>
+      </c>
+      <c r="K77" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J77" s="215"/>
-    </row>
-    <row r="78" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>1504</v>
       </c>
@@ -28532,12 +28950,17 @@
       <c r="H78" s="6">
         <v>8799</v>
       </c>
-      <c r="I78" s="215" t="s">
+      <c r="I78" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J78" s="215">
+        <v>77</v>
+      </c>
+      <c r="K78" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J78" s="215"/>
-    </row>
-    <row r="79" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>1504</v>
       </c>
@@ -28559,12 +28982,17 @@
       <c r="H79" s="6">
         <v>8326</v>
       </c>
-      <c r="I79" s="215" t="s">
+      <c r="I79" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J79" s="215">
+        <v>78</v>
+      </c>
+      <c r="K79" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J79" s="215"/>
-    </row>
-    <row r="80" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>1504</v>
       </c>
@@ -28586,12 +29014,17 @@
       <c r="H80" s="6">
         <v>6490</v>
       </c>
-      <c r="I80" s="215" t="s">
+      <c r="I80" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J80" s="215">
+        <v>79</v>
+      </c>
+      <c r="K80" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J80" s="215"/>
-    </row>
-    <row r="81" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>1504</v>
       </c>
@@ -28613,12 +29046,17 @@
       <c r="H81" s="6">
         <v>9651</v>
       </c>
-      <c r="I81" s="215" t="s">
+      <c r="I81" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J81" s="215">
+        <v>80</v>
+      </c>
+      <c r="K81" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J81" s="215"/>
-    </row>
-    <row r="82" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>1504</v>
       </c>
@@ -28640,12 +29078,17 @@
       <c r="H82" s="6">
         <v>5900</v>
       </c>
-      <c r="I82" s="215" t="s">
+      <c r="I82" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J82" s="215">
+        <v>81</v>
+      </c>
+      <c r="K82" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J82" s="215"/>
-    </row>
-    <row r="83" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>1504</v>
       </c>
@@ -28667,12 +29110,17 @@
       <c r="H83" s="6">
         <v>8685</v>
       </c>
-      <c r="I83" s="215" t="s">
+      <c r="I83" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J83" s="215">
+        <v>82</v>
+      </c>
+      <c r="K83" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J83" s="215"/>
-    </row>
-    <row r="84" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>1504</v>
       </c>
@@ -28694,12 +29142,17 @@
       <c r="H84" s="6">
         <v>9204</v>
       </c>
-      <c r="I84" s="215" t="s">
+      <c r="I84" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J84" s="215">
+        <v>83</v>
+      </c>
+      <c r="K84" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J84" s="215"/>
-    </row>
-    <row r="85" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>1504</v>
       </c>
@@ -28721,12 +29174,17 @@
       <c r="H85" s="6">
         <v>9614</v>
       </c>
-      <c r="I85" s="215" t="s">
+      <c r="I85" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J85" s="215">
+        <v>84</v>
+      </c>
+      <c r="K85" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J85" s="215"/>
-    </row>
-    <row r="86" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>1504</v>
       </c>
@@ -28748,12 +29206,17 @@
       <c r="H86" s="6">
         <v>9999</v>
       </c>
-      <c r="I86" s="215" t="s">
+      <c r="I86" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J86" s="215">
+        <v>85</v>
+      </c>
+      <c r="K86" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J86" s="215"/>
-    </row>
-    <row r="87" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>1504</v>
       </c>
@@ -28775,12 +29238,17 @@
       <c r="H87" s="6">
         <v>6985</v>
       </c>
-      <c r="I87" s="215" t="s">
+      <c r="I87" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J87" s="215">
+        <v>86</v>
+      </c>
+      <c r="K87" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J87" s="215"/>
-    </row>
-    <row r="88" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>1504</v>
       </c>
@@ -28802,12 +29270,17 @@
       <c r="H88" s="6">
         <v>6985</v>
       </c>
-      <c r="I88" s="215" t="s">
+      <c r="I88" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J88" s="215">
+        <v>87</v>
+      </c>
+      <c r="K88" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J88" s="215"/>
-    </row>
-    <row r="89" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>1504</v>
       </c>
@@ -28829,12 +29302,17 @@
       <c r="H89" s="6">
         <v>10648</v>
       </c>
-      <c r="I89" s="215" t="s">
+      <c r="I89" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J89" s="215">
+        <v>88</v>
+      </c>
+      <c r="K89" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J89" s="215"/>
-    </row>
-    <row r="90" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>1504</v>
       </c>
@@ -28856,12 +29334,17 @@
       <c r="H90" s="6">
         <v>9050</v>
       </c>
-      <c r="I90" s="215" t="s">
+      <c r="I90" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J90" s="215">
+        <v>89</v>
+      </c>
+      <c r="K90" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J90" s="215"/>
-    </row>
-    <row r="91" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>1504</v>
       </c>
@@ -28883,12 +29366,17 @@
       <c r="H91" s="6">
         <v>8349</v>
       </c>
-      <c r="I91" s="215" t="s">
+      <c r="I91" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J91" s="215">
+        <v>90</v>
+      </c>
+      <c r="K91" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J91" s="215"/>
-    </row>
-    <row r="92" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>1504</v>
       </c>
@@ -28910,12 +29398,17 @@
       <c r="H92" s="6">
         <v>9123</v>
       </c>
-      <c r="I92" s="215" t="s">
+      <c r="I92" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J92" s="215">
+        <v>91</v>
+      </c>
+      <c r="K92" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J92" s="215"/>
-    </row>
-    <row r="93" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>1504</v>
       </c>
@@ -28937,12 +29430,17 @@
       <c r="H93" s="6">
         <v>10368</v>
       </c>
-      <c r="I93" s="215" t="s">
+      <c r="I93" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J93" s="215">
+        <v>92</v>
+      </c>
+      <c r="K93" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J93" s="215"/>
-    </row>
-    <row r="94" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>1504</v>
       </c>
@@ -28964,12 +29462,17 @@
       <c r="H94" s="6">
         <v>6490</v>
       </c>
-      <c r="I94" s="215" t="s">
+      <c r="I94" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J94" s="215">
+        <v>93</v>
+      </c>
+      <c r="K94" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J94" s="215"/>
-    </row>
-    <row r="95" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>1504</v>
       </c>
@@ -28991,12 +29494,17 @@
       <c r="H95" s="6">
         <v>3350</v>
       </c>
-      <c r="I95" s="215" t="s">
+      <c r="I95" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J95" s="215">
+        <v>94</v>
+      </c>
+      <c r="K95" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J95" s="215"/>
-    </row>
-    <row r="96" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>1504</v>
       </c>
@@ -29018,12 +29526,17 @@
       <c r="H96" s="6">
         <v>3350</v>
       </c>
-      <c r="I96" s="215" t="s">
+      <c r="I96" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J96" s="215">
+        <v>95</v>
+      </c>
+      <c r="K96" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J96" s="215"/>
-    </row>
-    <row r="97" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>1504</v>
       </c>
@@ -29045,12 +29558,17 @@
       <c r="H97" s="6">
         <v>2850</v>
       </c>
-      <c r="I97" s="215" t="s">
+      <c r="I97" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J97" s="215">
+        <v>96</v>
+      </c>
+      <c r="K97" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J97" s="215"/>
-    </row>
-    <row r="98" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>1504</v>
       </c>
@@ -29072,12 +29590,17 @@
       <c r="H98" s="6">
         <v>2850</v>
       </c>
-      <c r="I98" s="215" t="s">
+      <c r="I98" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J98" s="215">
+        <v>97</v>
+      </c>
+      <c r="K98" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J98" s="215"/>
-    </row>
-    <row r="99" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>1504</v>
       </c>
@@ -29099,12 +29622,17 @@
       <c r="H99" s="6">
         <v>4389</v>
       </c>
-      <c r="I99" s="215" t="s">
+      <c r="I99" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J99" s="215">
+        <v>98</v>
+      </c>
+      <c r="K99" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J99" s="215"/>
-    </row>
-    <row r="100" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>1504</v>
       </c>
@@ -29126,12 +29654,17 @@
       <c r="H100" s="6">
         <v>15732</v>
       </c>
-      <c r="I100" s="215" t="s">
+      <c r="I100" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J100" s="215">
+        <v>99</v>
+      </c>
+      <c r="K100" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J100" s="215"/>
-    </row>
-    <row r="101" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>1504</v>
       </c>
@@ -29153,12 +29686,17 @@
       <c r="H101" s="6">
         <v>14142</v>
       </c>
-      <c r="I101" s="215" t="s">
+      <c r="I101" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J101" s="215">
+        <v>100</v>
+      </c>
+      <c r="K101" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J101" s="215"/>
-    </row>
-    <row r="102" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>1504</v>
       </c>
@@ -29180,12 +29718,17 @@
       <c r="H102" s="6">
         <v>12727</v>
       </c>
-      <c r="I102" s="215" t="s">
+      <c r="I102" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J102" s="215">
+        <v>101</v>
+      </c>
+      <c r="K102" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J102" s="215"/>
-    </row>
-    <row r="103" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>1504</v>
       </c>
@@ -29207,12 +29750,17 @@
       <c r="H103" s="6">
         <v>13915</v>
       </c>
-      <c r="I103" s="215" t="s">
+      <c r="I103" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J103" s="215">
+        <v>102</v>
+      </c>
+      <c r="K103" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J103" s="215"/>
-    </row>
-    <row r="104" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>1504</v>
       </c>
@@ -29234,12 +29782,17 @@
       <c r="H104" s="6">
         <v>13915</v>
       </c>
-      <c r="I104" s="215" t="s">
+      <c r="I104" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J104" s="215">
+        <v>103</v>
+      </c>
+      <c r="K104" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J104" s="215"/>
-    </row>
-    <row r="105" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>1504</v>
       </c>
@@ -29261,12 +29814,17 @@
       <c r="H105" s="6">
         <v>9129</v>
       </c>
-      <c r="I105" s="215" t="s">
+      <c r="I105" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J105" s="215">
+        <v>104</v>
+      </c>
+      <c r="K105" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J105" s="215"/>
-    </row>
-    <row r="106" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>1504</v>
       </c>
@@ -29288,12 +29846,17 @@
       <c r="H106" s="6">
         <v>9129</v>
       </c>
-      <c r="I106" s="215" t="s">
+      <c r="I106" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J106" s="215">
+        <v>105</v>
+      </c>
+      <c r="K106" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J106" s="215"/>
-    </row>
-    <row r="107" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>1504</v>
       </c>
@@ -29315,12 +29878,17 @@
       <c r="H107" s="6">
         <v>8799</v>
       </c>
-      <c r="I107" s="215" t="s">
+      <c r="I107" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J107" s="215">
+        <v>106</v>
+      </c>
+      <c r="K107" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J107" s="215"/>
-    </row>
-    <row r="108" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>1504</v>
       </c>
@@ -29342,12 +29910,17 @@
       <c r="H108" s="6">
         <v>7999</v>
       </c>
-      <c r="I108" s="215" t="s">
+      <c r="I108" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J108" s="215">
+        <v>107</v>
+      </c>
+      <c r="K108" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J108" s="215"/>
-    </row>
-    <row r="109" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>1504</v>
       </c>
@@ -29369,12 +29942,17 @@
       <c r="H109" s="6">
         <v>10999</v>
       </c>
-      <c r="I109" s="215" t="s">
+      <c r="I109" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J109" s="215">
+        <v>108</v>
+      </c>
+      <c r="K109" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J109" s="215"/>
-    </row>
-    <row r="110" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>1504</v>
       </c>
@@ -29396,12 +29974,17 @@
       <c r="H110" s="6">
         <v>6499</v>
       </c>
-      <c r="I110" s="215" t="s">
+      <c r="I110" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J110" s="215">
+        <v>109</v>
+      </c>
+      <c r="K110" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J110" s="215"/>
-    </row>
-    <row r="111" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>1504</v>
       </c>
@@ -29423,12 +30006,17 @@
       <c r="H111" s="6">
         <v>6499</v>
       </c>
-      <c r="I111" s="215" t="s">
+      <c r="I111" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J111" s="215">
+        <v>110</v>
+      </c>
+      <c r="K111" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J111" s="215"/>
-    </row>
-    <row r="112" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>1504</v>
       </c>
@@ -29450,12 +30038,17 @@
       <c r="H112" s="6">
         <v>9999</v>
       </c>
-      <c r="I112" s="215" t="s">
+      <c r="I112" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J112" s="215">
+        <v>111</v>
+      </c>
+      <c r="K112" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J112" s="215"/>
-    </row>
-    <row r="113" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>1504</v>
       </c>
@@ -29477,12 +30070,17 @@
       <c r="H113" s="6">
         <v>8799</v>
       </c>
-      <c r="I113" s="215" t="s">
+      <c r="I113" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J113" s="215">
+        <v>112</v>
+      </c>
+      <c r="K113" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J113" s="215"/>
-    </row>
-    <row r="114" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>1504</v>
       </c>
@@ -29504,12 +30102,17 @@
       <c r="H114" s="6">
         <v>9830</v>
       </c>
-      <c r="I114" s="215" t="s">
+      <c r="I114" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J114" s="215">
+        <v>113</v>
+      </c>
+      <c r="K114" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J114" s="215"/>
-    </row>
-    <row r="115" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>1504</v>
       </c>
@@ -29531,12 +30134,17 @@
       <c r="H115" s="6">
         <v>10527</v>
       </c>
-      <c r="I115" s="215" t="s">
+      <c r="I115" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J115" s="215">
+        <v>114</v>
+      </c>
+      <c r="K115" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J115" s="215"/>
-    </row>
-    <row r="116" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>1504</v>
       </c>
@@ -29558,12 +30166,17 @@
       <c r="H116" s="6">
         <v>10527</v>
       </c>
-      <c r="I116" s="215" t="s">
+      <c r="I116" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J116" s="215">
+        <v>115</v>
+      </c>
+      <c r="K116" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J116" s="215"/>
-    </row>
-    <row r="117" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>1504</v>
       </c>
@@ -29585,12 +30198,17 @@
       <c r="H117" s="6">
         <v>10527</v>
       </c>
-      <c r="I117" s="215" t="s">
+      <c r="I117" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J117" s="215">
+        <v>116</v>
+      </c>
+      <c r="K117" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J117" s="215"/>
-    </row>
-    <row r="118" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>1504</v>
       </c>
@@ -29612,12 +30230,17 @@
       <c r="H118" s="6">
         <v>7150</v>
       </c>
-      <c r="I118" s="215" t="s">
+      <c r="I118" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J118" s="215">
+        <v>117</v>
+      </c>
+      <c r="K118" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J118" s="215"/>
-    </row>
-    <row r="119" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>1504</v>
       </c>
@@ -29639,12 +30262,17 @@
       <c r="H119" s="6">
         <v>7150</v>
       </c>
-      <c r="I119" s="215" t="s">
+      <c r="I119" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J119" s="215">
+        <v>118</v>
+      </c>
+      <c r="K119" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J119" s="215"/>
-    </row>
-    <row r="120" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>1504</v>
       </c>
@@ -29666,12 +30294,17 @@
       <c r="H120" s="6">
         <v>7150</v>
       </c>
-      <c r="I120" s="215" t="s">
+      <c r="I120" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J120" s="215">
+        <v>119</v>
+      </c>
+      <c r="K120" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J120" s="215"/>
-    </row>
-    <row r="121" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>1504</v>
       </c>
@@ -29693,12 +30326,17 @@
       <c r="H121" s="6">
         <v>6989</v>
       </c>
-      <c r="I121" s="215" t="s">
+      <c r="I121" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J121" s="215">
+        <v>120</v>
+      </c>
+      <c r="K121" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J121" s="215"/>
-    </row>
-    <row r="122" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>1504</v>
       </c>
@@ -29720,12 +30358,17 @@
       <c r="H122" s="6">
         <v>6989</v>
       </c>
-      <c r="I122" s="215" t="s">
+      <c r="I122" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J122" s="215">
+        <v>121</v>
+      </c>
+      <c r="K122" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J122" s="215"/>
-    </row>
-    <row r="123" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>1504</v>
       </c>
@@ -29747,12 +30390,17 @@
       <c r="H123" s="6">
         <v>10732</v>
       </c>
-      <c r="I123" s="215" t="s">
+      <c r="I123" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J123" s="215">
+        <v>122</v>
+      </c>
+      <c r="K123" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J123" s="215"/>
-    </row>
-    <row r="124" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>1504</v>
       </c>
@@ -29774,12 +30422,17 @@
       <c r="H124" s="6">
         <v>7179</v>
       </c>
-      <c r="I124" s="215" t="s">
+      <c r="I124" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J124" s="215">
+        <v>123</v>
+      </c>
+      <c r="K124" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J124" s="215"/>
-    </row>
-    <row r="125" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>1504</v>
       </c>
@@ -29801,12 +30454,17 @@
       <c r="H125" s="6">
         <v>7179</v>
       </c>
-      <c r="I125" s="215" t="s">
+      <c r="I125" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J125" s="215">
+        <v>124</v>
+      </c>
+      <c r="K125" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J125" s="215"/>
-    </row>
-    <row r="126" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>1504</v>
       </c>
@@ -29828,12 +30486,17 @@
       <c r="H126" s="6">
         <v>7179</v>
       </c>
-      <c r="I126" s="215" t="s">
+      <c r="I126" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J126" s="215">
+        <v>125</v>
+      </c>
+      <c r="K126" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J126" s="215"/>
-    </row>
-    <row r="127" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>1504</v>
       </c>
@@ -29855,12 +30518,17 @@
       <c r="H127" s="6">
         <v>7179</v>
       </c>
-      <c r="I127" s="215" t="s">
+      <c r="I127" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J127" s="215">
+        <v>126</v>
+      </c>
+      <c r="K127" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J127" s="215"/>
-    </row>
-    <row r="128" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>1504</v>
       </c>
@@ -29882,12 +30550,17 @@
       <c r="H128" s="6">
         <v>7381</v>
       </c>
-      <c r="I128" s="215" t="s">
+      <c r="I128" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J128" s="215">
+        <v>127</v>
+      </c>
+      <c r="K128" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J128" s="215"/>
-    </row>
-    <row r="129" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>1504</v>
       </c>
@@ -29909,12 +30582,17 @@
       <c r="H129" s="6">
         <v>7381</v>
       </c>
-      <c r="I129" s="215" t="s">
+      <c r="I129" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J129" s="215">
+        <v>128</v>
+      </c>
+      <c r="K129" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J129" s="215"/>
-    </row>
-    <row r="130" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>1504</v>
       </c>
@@ -29936,12 +30614,17 @@
       <c r="H130" s="6">
         <v>7381</v>
       </c>
-      <c r="I130" s="215" t="s">
+      <c r="I130" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J130" s="215">
+        <v>129</v>
+      </c>
+      <c r="K130" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J130" s="215"/>
-    </row>
-    <row r="131" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>1504</v>
       </c>
@@ -29963,12 +30646,17 @@
       <c r="H131" s="6">
         <v>7381</v>
       </c>
-      <c r="I131" s="215" t="s">
+      <c r="I131" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J131" s="215">
+        <v>130</v>
+      </c>
+      <c r="K131" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J131" s="215"/>
-    </row>
-    <row r="132" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>1504</v>
       </c>
@@ -29990,12 +30678,17 @@
       <c r="H132" s="6">
         <v>8107</v>
       </c>
-      <c r="I132" s="215" t="s">
+      <c r="I132" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J132" s="215">
+        <v>131</v>
+      </c>
+      <c r="K132" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J132" s="215"/>
-    </row>
-    <row r="133" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>1504</v>
       </c>
@@ -30017,12 +30710,17 @@
       <c r="H133" s="6">
         <v>8107</v>
       </c>
-      <c r="I133" s="215" t="s">
+      <c r="I133" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J133" s="215">
+        <v>132</v>
+      </c>
+      <c r="K133" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J133" s="215"/>
-    </row>
-    <row r="134" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>1504</v>
       </c>
@@ -30044,12 +30742,17 @@
       <c r="H134" s="6">
         <v>8107</v>
       </c>
-      <c r="I134" s="215" t="s">
+      <c r="I134" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J134" s="215">
+        <v>133</v>
+      </c>
+      <c r="K134" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J134" s="215"/>
-    </row>
-    <row r="135" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>1504</v>
       </c>
@@ -30071,12 +30774,17 @@
       <c r="H135" s="6">
         <v>9075</v>
       </c>
-      <c r="I135" s="215" t="s">
+      <c r="I135" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J135" s="215">
+        <v>134</v>
+      </c>
+      <c r="K135" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J135" s="215"/>
-    </row>
-    <row r="136" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>1504</v>
       </c>
@@ -30098,12 +30806,17 @@
       <c r="H136" s="6">
         <v>9075</v>
       </c>
-      <c r="I136" s="215" t="s">
+      <c r="I136" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J136" s="215">
+        <v>135</v>
+      </c>
+      <c r="K136" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J136" s="215"/>
-    </row>
-    <row r="137" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>1504</v>
       </c>
@@ -30125,12 +30838,17 @@
       <c r="H137" s="6">
         <v>9075</v>
       </c>
-      <c r="I137" s="215" t="s">
+      <c r="I137" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J137" s="215">
+        <v>136</v>
+      </c>
+      <c r="K137" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J137" s="215"/>
-    </row>
-    <row r="138" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>1504</v>
       </c>
@@ -30152,12 +30870,17 @@
       <c r="H138" s="6">
         <v>9075</v>
       </c>
-      <c r="I138" s="215" t="s">
+      <c r="I138" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J138" s="215">
+        <v>137</v>
+      </c>
+      <c r="K138" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J138" s="215"/>
-    </row>
-    <row r="139" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>1504</v>
       </c>
@@ -30179,12 +30902,17 @@
       <c r="H139" s="6">
         <v>7293</v>
       </c>
-      <c r="I139" s="215" t="s">
+      <c r="I139" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J139" s="215">
+        <v>138</v>
+      </c>
+      <c r="K139" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J139" s="215"/>
-    </row>
-    <row r="140" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>1504</v>
       </c>
@@ -30206,12 +30934,17 @@
       <c r="H140" s="6">
         <v>7293</v>
       </c>
-      <c r="I140" s="215" t="s">
+      <c r="I140" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J140" s="215">
+        <v>139</v>
+      </c>
+      <c r="K140" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J140" s="215"/>
-    </row>
-    <row r="141" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>1504</v>
       </c>
@@ -30233,12 +30966,17 @@
       <c r="H141" s="6">
         <v>7293</v>
       </c>
-      <c r="I141" s="215" t="s">
+      <c r="I141" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J141" s="215">
+        <v>140</v>
+      </c>
+      <c r="K141" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J141" s="215"/>
-    </row>
-    <row r="142" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>1504</v>
       </c>
@@ -30260,12 +30998,17 @@
       <c r="H142" s="6">
         <v>9075</v>
       </c>
-      <c r="I142" s="215" t="s">
+      <c r="I142" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J142" s="215">
+        <v>141</v>
+      </c>
+      <c r="K142" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J142" s="215"/>
-    </row>
-    <row r="143" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>1504</v>
       </c>
@@ -30287,12 +31030,17 @@
       <c r="H143" s="6">
         <v>8168</v>
       </c>
-      <c r="I143" s="215" t="s">
+      <c r="I143" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J143" s="215">
+        <v>142</v>
+      </c>
+      <c r="K143" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J143" s="215"/>
-    </row>
-    <row r="144" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>1504</v>
       </c>
@@ -30314,12 +31062,17 @@
       <c r="H144" s="6">
         <v>7826</v>
       </c>
-      <c r="I144" s="215" t="s">
+      <c r="I144" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J144" s="215">
+        <v>143</v>
+      </c>
+      <c r="K144" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J144" s="215"/>
-    </row>
-    <row r="145" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>1504</v>
       </c>
@@ -30341,12 +31094,17 @@
       <c r="H145" s="6">
         <v>7826</v>
       </c>
-      <c r="I145" s="215" t="s">
+      <c r="I145" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J145" s="215">
+        <v>144</v>
+      </c>
+      <c r="K145" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J145" s="215"/>
-    </row>
-    <row r="146" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>1504</v>
       </c>
@@ -30368,12 +31126,17 @@
       <c r="H146" s="6">
         <v>10285</v>
       </c>
-      <c r="I146" s="215" t="s">
+      <c r="I146" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J146" s="215">
+        <v>145</v>
+      </c>
+      <c r="K146" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J146" s="215"/>
-    </row>
-    <row r="147" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>1504</v>
       </c>
@@ -30395,12 +31158,17 @@
       <c r="H147" s="6">
         <v>6655</v>
       </c>
-      <c r="I147" s="215" t="s">
+      <c r="I147" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J147" s="215">
+        <v>146</v>
+      </c>
+      <c r="K147" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J147" s="215"/>
-    </row>
-    <row r="148" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>1504</v>
       </c>
@@ -30422,12 +31190,17 @@
       <c r="H148" s="6">
         <v>6655</v>
       </c>
-      <c r="I148" s="215" t="s">
+      <c r="I148" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J148" s="215">
+        <v>147</v>
+      </c>
+      <c r="K148" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J148" s="215"/>
-    </row>
-    <row r="149" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>1504</v>
       </c>
@@ -30449,12 +31222,17 @@
       <c r="H149" s="6">
         <v>6655</v>
       </c>
-      <c r="I149" s="215" t="s">
+      <c r="I149" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J149" s="215">
+        <v>148</v>
+      </c>
+      <c r="K149" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J149" s="215"/>
-    </row>
-    <row r="150" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="150" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>1504</v>
       </c>
@@ -30476,12 +31254,17 @@
       <c r="H150" s="6">
         <v>7079</v>
       </c>
-      <c r="I150" s="215" t="s">
+      <c r="I150" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J150" s="215">
+        <v>149</v>
+      </c>
+      <c r="K150" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J150" s="215"/>
-    </row>
-    <row r="151" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="151" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>1504</v>
       </c>
@@ -30503,12 +31286,17 @@
       <c r="H151" s="6">
         <v>7079</v>
       </c>
-      <c r="I151" s="215" t="s">
+      <c r="I151" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J151" s="215">
+        <v>150</v>
+      </c>
+      <c r="K151" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J151" s="215"/>
-    </row>
-    <row r="152" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="152" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>1504</v>
       </c>
@@ -30530,12 +31318,17 @@
       <c r="H152" s="6">
         <v>8349</v>
       </c>
-      <c r="I152" s="215" t="s">
+      <c r="I152" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J152" s="215">
+        <v>151</v>
+      </c>
+      <c r="K152" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J152" s="215"/>
-    </row>
-    <row r="153" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="153" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>1504</v>
       </c>
@@ -30557,12 +31350,17 @@
       <c r="H153" s="6">
         <v>8349</v>
       </c>
-      <c r="I153" s="215" t="s">
+      <c r="I153" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J153" s="215">
+        <v>152</v>
+      </c>
+      <c r="K153" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J153" s="215"/>
-    </row>
-    <row r="154" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="154" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>1504</v>
       </c>
@@ -30584,12 +31382,17 @@
       <c r="H154" s="6">
         <v>189</v>
       </c>
-      <c r="I154" s="215" t="s">
+      <c r="I154" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J154" s="215">
+        <v>153</v>
+      </c>
+      <c r="K154" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J154" s="215"/>
-    </row>
-    <row r="155" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="155" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>1504</v>
       </c>
@@ -30611,12 +31414,17 @@
       <c r="H155" s="6">
         <v>291</v>
       </c>
-      <c r="I155" s="215" t="s">
+      <c r="I155" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J155" s="215">
+        <v>154</v>
+      </c>
+      <c r="K155" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J155" s="215"/>
-    </row>
-    <row r="156" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="156" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>1504</v>
       </c>
@@ -30638,12 +31446,17 @@
       <c r="H156" s="6">
         <v>189</v>
       </c>
-      <c r="I156" s="215" t="s">
+      <c r="I156" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J156" s="215">
+        <v>155</v>
+      </c>
+      <c r="K156" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J156" s="215"/>
-    </row>
-    <row r="157" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="157" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>1504</v>
       </c>
@@ -30665,12 +31478,17 @@
       <c r="H157" s="6">
         <v>291</v>
       </c>
-      <c r="I157" s="215" t="s">
+      <c r="I157" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J157" s="215">
+        <v>156</v>
+      </c>
+      <c r="K157" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J157" s="215"/>
-    </row>
-    <row r="158" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="158" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>1504</v>
       </c>
@@ -30692,12 +31510,17 @@
       <c r="H158" s="6">
         <v>291</v>
       </c>
-      <c r="I158" s="215" t="s">
+      <c r="I158" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J158" s="215">
+        <v>157</v>
+      </c>
+      <c r="K158" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J158" s="215"/>
-    </row>
-    <row r="159" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="159" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>1504</v>
       </c>
@@ -30719,12 +31542,17 @@
       <c r="H159" s="6">
         <v>291</v>
       </c>
-      <c r="I159" s="215" t="s">
+      <c r="I159" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J159" s="215">
+        <v>158</v>
+      </c>
+      <c r="K159" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J159" s="215"/>
-    </row>
-    <row r="160" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="160" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>1504</v>
       </c>
@@ -30746,12 +31574,17 @@
       <c r="H160" s="6">
         <v>2100</v>
       </c>
-      <c r="I160" s="215" t="s">
+      <c r="I160" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J160" s="215">
+        <v>159</v>
+      </c>
+      <c r="K160" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J160" s="215"/>
-    </row>
-    <row r="161" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="161" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>1504</v>
       </c>
@@ -30773,12 +31606,17 @@
       <c r="H161" s="6">
         <v>2299</v>
       </c>
-      <c r="I161" s="215" t="s">
+      <c r="I161" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J161" s="215">
+        <v>160</v>
+      </c>
+      <c r="K161" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J161" s="215"/>
-    </row>
-    <row r="162" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="162" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>1504</v>
       </c>
@@ -30800,12 +31638,17 @@
       <c r="H162" s="6">
         <v>625</v>
       </c>
-      <c r="I162" s="215" t="s">
+      <c r="I162" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J162" s="215">
+        <v>161</v>
+      </c>
+      <c r="K162" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J162" s="215"/>
-    </row>
-    <row r="163" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="163" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>1504</v>
       </c>
@@ -30827,12 +31670,17 @@
       <c r="H163" s="6">
         <v>210</v>
       </c>
-      <c r="I163" s="215" t="s">
+      <c r="I163" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J163" s="215">
+        <v>162</v>
+      </c>
+      <c r="K163" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J163" s="215"/>
-    </row>
-    <row r="164" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="164" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>1504</v>
       </c>
@@ -30854,12 +31702,17 @@
       <c r="H164" s="6">
         <v>715</v>
       </c>
-      <c r="I164" s="215" t="s">
+      <c r="I164" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J164" s="215">
+        <v>163</v>
+      </c>
+      <c r="K164" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J164" s="215"/>
-    </row>
-    <row r="165" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="165" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>1504</v>
       </c>
@@ -30881,12 +31734,17 @@
       <c r="H165" s="6">
         <v>715</v>
       </c>
-      <c r="I165" s="215" t="s">
+      <c r="I165" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J165" s="215">
+        <v>164</v>
+      </c>
+      <c r="K165" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J165" s="215"/>
-    </row>
-    <row r="166" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="166" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>1504</v>
       </c>
@@ -30908,12 +31766,17 @@
       <c r="H166" s="6">
         <v>715</v>
       </c>
-      <c r="I166" s="215" t="s">
+      <c r="I166" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J166" s="215">
+        <v>165</v>
+      </c>
+      <c r="K166" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J166" s="215"/>
-    </row>
-    <row r="167" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="167" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>1504</v>
       </c>
@@ -30935,12 +31798,17 @@
       <c r="H167" s="6">
         <v>715</v>
       </c>
-      <c r="I167" s="215" t="s">
+      <c r="I167" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J167" s="215">
+        <v>166</v>
+      </c>
+      <c r="K167" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J167" s="215"/>
-    </row>
-    <row r="168" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="168" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>1504</v>
       </c>
@@ -30962,12 +31830,17 @@
       <c r="H168" s="6">
         <v>1177</v>
       </c>
-      <c r="I168" s="215" t="s">
+      <c r="I168" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J168" s="215">
+        <v>167</v>
+      </c>
+      <c r="K168" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J168" s="215"/>
-    </row>
-    <row r="169" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="169" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>1504</v>
       </c>
@@ -30989,12 +31862,17 @@
       <c r="H169" s="6">
         <v>1177</v>
       </c>
-      <c r="I169" s="215" t="s">
+      <c r="I169" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J169" s="215">
+        <v>168</v>
+      </c>
+      <c r="K169" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J169" s="215"/>
-    </row>
-    <row r="170" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="170" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>1504</v>
       </c>
@@ -31016,12 +31894,17 @@
       <c r="H170" s="6">
         <v>1177</v>
       </c>
-      <c r="I170" s="215" t="s">
+      <c r="I170" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J170" s="215">
+        <v>169</v>
+      </c>
+      <c r="K170" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J170" s="215"/>
-    </row>
-    <row r="171" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="171" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>1504</v>
       </c>
@@ -31043,12 +31926,17 @@
       <c r="H171" s="6">
         <v>1265</v>
       </c>
-      <c r="I171" s="215" t="s">
+      <c r="I171" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J171" s="215">
+        <v>170</v>
+      </c>
+      <c r="K171" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J171" s="215"/>
-    </row>
-    <row r="172" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="172" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>1504</v>
       </c>
@@ -31070,12 +31958,17 @@
       <c r="H172" s="6">
         <v>1099</v>
       </c>
-      <c r="I172" s="215" t="s">
+      <c r="I172" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J172" s="215">
+        <v>171</v>
+      </c>
+      <c r="K172" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J172" s="215"/>
-    </row>
-    <row r="173" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="173" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>1504</v>
       </c>
@@ -31097,12 +31990,17 @@
       <c r="H173" s="6">
         <v>2145</v>
       </c>
-      <c r="I173" s="215" t="s">
+      <c r="I173" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J173" s="215">
+        <v>172</v>
+      </c>
+      <c r="K173" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J173" s="215"/>
-    </row>
-    <row r="174" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="174" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>1504</v>
       </c>
@@ -31124,12 +32022,17 @@
       <c r="H174" s="6">
         <v>2145</v>
       </c>
-      <c r="I174" s="215" t="s">
+      <c r="I174" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J174" s="215">
+        <v>173</v>
+      </c>
+      <c r="K174" s="215" t="s">
         <v>1508</v>
       </c>
-      <c r="J174" s="215"/>
-    </row>
-    <row r="175" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="175" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>1504</v>
       </c>
@@ -31151,2239 +32054,845 @@
       <c r="H175" s="6">
         <v>2145</v>
       </c>
-      <c r="I175" s="215" t="s">
+      <c r="I175" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J175" s="215">
+        <v>174</v>
+      </c>
+      <c r="K175" s="215" t="s">
         <v>1544</v>
       </c>
-      <c r="J175" s="215"/>
-    </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A176" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C176" t="s">
-        <v>1506</v>
-      </c>
-      <c r="F176" t="s">
-        <v>1505</v>
-      </c>
-      <c r="G176" s="214" t="s">
-        <v>1507</v>
-      </c>
-      <c r="I176" s="215" t="s">
-        <v>1508</v>
-      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G176" s="214"/>
       <c r="J176" s="215"/>
-    </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A177" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C177" t="s">
-        <v>1506</v>
-      </c>
-      <c r="F177" t="s">
-        <v>1505</v>
-      </c>
-      <c r="G177" s="214" t="s">
-        <v>1507</v>
-      </c>
-      <c r="I177" s="215" t="s">
-        <v>1508</v>
-      </c>
+      <c r="K176" s="215"/>
+    </row>
+    <row r="177" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G177" s="214"/>
       <c r="J177" s="215"/>
-    </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A178" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C178" t="s">
-        <v>1506</v>
-      </c>
-      <c r="F178" t="s">
-        <v>1505</v>
-      </c>
-      <c r="G178" s="214" t="s">
-        <v>1507</v>
-      </c>
-      <c r="I178" s="215" t="s">
-        <v>1508</v>
-      </c>
+      <c r="K177" s="215"/>
+    </row>
+    <row r="178" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G178" s="214"/>
       <c r="J178" s="215"/>
-    </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A179" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C179" t="s">
-        <v>1506</v>
-      </c>
-      <c r="F179" t="s">
-        <v>1505</v>
-      </c>
-      <c r="G179" s="214" t="s">
-        <v>1507</v>
-      </c>
-      <c r="I179" s="215" t="s">
-        <v>1508</v>
-      </c>
+      <c r="K178" s="215"/>
+    </row>
+    <row r="179" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G179" s="214"/>
       <c r="J179" s="215"/>
-    </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A180" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C180" t="s">
-        <v>1506</v>
-      </c>
-      <c r="F180" t="s">
-        <v>1505</v>
-      </c>
-      <c r="G180" s="214" t="s">
-        <v>1507</v>
-      </c>
-      <c r="I180" s="215" t="s">
-        <v>1508</v>
-      </c>
+      <c r="K179" s="215"/>
+    </row>
+    <row r="180" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G180" s="214"/>
       <c r="J180" s="215"/>
-    </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A181" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C181" t="s">
-        <v>1506</v>
-      </c>
-      <c r="F181" t="s">
-        <v>1505</v>
-      </c>
-      <c r="G181" s="214" t="s">
-        <v>1507</v>
-      </c>
-      <c r="I181" s="215" t="s">
-        <v>1508</v>
-      </c>
+      <c r="K180" s="215"/>
+    </row>
+    <row r="181" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G181" s="214"/>
       <c r="J181" s="215"/>
-    </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A182" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C182" t="s">
-        <v>1506</v>
-      </c>
-      <c r="F182" t="s">
-        <v>1505</v>
-      </c>
-      <c r="G182" s="214" t="s">
-        <v>1507</v>
-      </c>
-      <c r="I182" s="215" t="s">
-        <v>1508</v>
-      </c>
+      <c r="K181" s="215"/>
+    </row>
+    <row r="182" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G182" s="214"/>
       <c r="J182" s="215"/>
-    </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A183" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C183" t="s">
-        <v>1506</v>
-      </c>
-      <c r="F183" t="s">
-        <v>1505</v>
-      </c>
-      <c r="G183" s="214" t="s">
-        <v>1507</v>
-      </c>
-      <c r="I183" s="215" t="s">
-        <v>1508</v>
-      </c>
+      <c r="K182" s="215"/>
+    </row>
+    <row r="183" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G183" s="214"/>
       <c r="J183" s="215"/>
-    </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A184" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C184" t="s">
-        <v>1506</v>
-      </c>
-      <c r="F184" t="s">
-        <v>1505</v>
-      </c>
-      <c r="G184" s="214" t="s">
-        <v>1507</v>
-      </c>
-      <c r="I184" s="215" t="s">
-        <v>1508</v>
-      </c>
+      <c r="K183" s="215"/>
+    </row>
+    <row r="184" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G184" s="214"/>
       <c r="J184" s="215"/>
-    </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A185" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C185" t="s">
-        <v>1506</v>
-      </c>
-      <c r="F185" t="s">
-        <v>1505</v>
-      </c>
-      <c r="G185" s="214" t="s">
-        <v>1507</v>
-      </c>
-      <c r="I185" s="215" t="s">
-        <v>1508</v>
-      </c>
+      <c r="K184" s="215"/>
+    </row>
+    <row r="185" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G185" s="214"/>
       <c r="J185" s="215"/>
-    </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A186" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C186" t="s">
-        <v>1506</v>
-      </c>
-      <c r="F186" t="s">
-        <v>1505</v>
-      </c>
-      <c r="G186" s="214" t="s">
-        <v>1507</v>
-      </c>
-      <c r="I186" s="215" t="s">
-        <v>1508</v>
-      </c>
+      <c r="K185" s="215"/>
+    </row>
+    <row r="186" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G186" s="214"/>
       <c r="J186" s="215"/>
-    </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A187" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C187" t="s">
-        <v>1506</v>
-      </c>
-      <c r="F187" t="s">
-        <v>1505</v>
-      </c>
-      <c r="G187" s="214" t="s">
-        <v>1507</v>
-      </c>
-      <c r="I187" s="215" t="s">
-        <v>1508</v>
-      </c>
+      <c r="K186" s="215"/>
+    </row>
+    <row r="187" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G187" s="214"/>
       <c r="J187" s="215"/>
-    </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A188" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C188" t="s">
-        <v>1506</v>
-      </c>
-      <c r="F188" t="s">
-        <v>1505</v>
-      </c>
-      <c r="G188" s="214" t="s">
-        <v>1507</v>
-      </c>
-      <c r="I188" s="215" t="s">
-        <v>1508</v>
-      </c>
+      <c r="K187" s="215"/>
+    </row>
+    <row r="188" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G188" s="214"/>
       <c r="J188" s="215"/>
-    </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A189" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C189" t="s">
-        <v>1506</v>
-      </c>
-      <c r="F189" t="s">
-        <v>1505</v>
-      </c>
-      <c r="G189" s="214" t="s">
-        <v>1507</v>
-      </c>
-      <c r="I189" s="215" t="s">
-        <v>1508</v>
-      </c>
+      <c r="K188" s="215"/>
+    </row>
+    <row r="189" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G189" s="214"/>
       <c r="J189" s="215"/>
-    </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A190" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C190" t="s">
-        <v>1506</v>
-      </c>
-      <c r="F190" t="s">
-        <v>1505</v>
-      </c>
-      <c r="G190" s="214" t="s">
-        <v>1507</v>
-      </c>
-      <c r="I190" s="215" t="s">
-        <v>1508</v>
-      </c>
+      <c r="K189" s="215"/>
+    </row>
+    <row r="190" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G190" s="214"/>
       <c r="J190" s="215"/>
-    </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A191" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C191" t="s">
-        <v>1506</v>
-      </c>
-      <c r="F191" t="s">
-        <v>1505</v>
-      </c>
-      <c r="G191" s="214" t="s">
-        <v>1507</v>
-      </c>
-      <c r="I191" s="215" t="s">
-        <v>1508</v>
-      </c>
+      <c r="K190" s="215"/>
+    </row>
+    <row r="191" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G191" s="214"/>
       <c r="J191" s="215"/>
-    </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A192" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C192" t="s">
-        <v>1506</v>
-      </c>
-      <c r="F192" t="s">
-        <v>1505</v>
-      </c>
-      <c r="G192" s="214" t="s">
-        <v>1507</v>
-      </c>
-      <c r="I192" s="215" t="s">
-        <v>1508</v>
-      </c>
+      <c r="K191" s="215"/>
+    </row>
+    <row r="192" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G192" s="214"/>
       <c r="J192" s="215"/>
-    </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A193" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C193" t="s">
-        <v>1506</v>
-      </c>
-      <c r="F193" t="s">
-        <v>1505</v>
-      </c>
-      <c r="G193" s="214" t="s">
-        <v>1507</v>
-      </c>
-      <c r="I193" s="215" t="s">
-        <v>1508</v>
-      </c>
+      <c r="K192" s="215"/>
+    </row>
+    <row r="193" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G193" s="214"/>
       <c r="J193" s="215"/>
-    </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A194" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C194" t="s">
-        <v>1506</v>
-      </c>
-      <c r="F194" t="s">
-        <v>1505</v>
-      </c>
-      <c r="G194" s="214" t="s">
-        <v>1507</v>
-      </c>
-      <c r="I194" s="215" t="s">
-        <v>1508</v>
-      </c>
+      <c r="K193" s="215"/>
+    </row>
+    <row r="194" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G194" s="214"/>
       <c r="J194" s="215"/>
-    </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A195" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C195" t="s">
-        <v>1506</v>
-      </c>
-      <c r="F195" t="s">
-        <v>1505</v>
-      </c>
-      <c r="G195" s="214" t="s">
-        <v>1507</v>
-      </c>
-      <c r="I195" s="215" t="s">
-        <v>1508</v>
-      </c>
+      <c r="K194" s="215"/>
+    </row>
+    <row r="195" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G195" s="214"/>
       <c r="J195" s="215"/>
-    </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A196" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C196" t="s">
-        <v>1506</v>
-      </c>
-      <c r="F196" t="s">
-        <v>1505</v>
-      </c>
-      <c r="G196" s="214" t="s">
-        <v>1507</v>
-      </c>
-      <c r="I196" s="215" t="s">
-        <v>1508</v>
-      </c>
+      <c r="K195" s="215"/>
+    </row>
+    <row r="196" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G196" s="214"/>
       <c r="J196" s="215"/>
-    </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A197" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C197" t="s">
-        <v>1506</v>
-      </c>
-      <c r="F197" t="s">
-        <v>1505</v>
-      </c>
-      <c r="G197" s="214" t="s">
-        <v>1507</v>
-      </c>
-      <c r="I197" s="215" t="s">
-        <v>1508</v>
-      </c>
+      <c r="K196" s="215"/>
+    </row>
+    <row r="197" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G197" s="214"/>
       <c r="J197" s="215"/>
-    </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A198" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C198" t="s">
-        <v>1506</v>
-      </c>
-      <c r="F198" t="s">
-        <v>1505</v>
-      </c>
-      <c r="G198" s="214" t="s">
-        <v>1507</v>
-      </c>
-      <c r="I198" s="215" t="s">
-        <v>1508</v>
-      </c>
+      <c r="K197" s="215"/>
+    </row>
+    <row r="198" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G198" s="214"/>
       <c r="J198" s="215"/>
-    </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A199" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C199" t="s">
-        <v>1506</v>
-      </c>
-      <c r="F199" t="s">
-        <v>1505</v>
-      </c>
-      <c r="G199" s="214" t="s">
-        <v>1507</v>
-      </c>
-      <c r="I199" s="215" t="s">
-        <v>1508</v>
-      </c>
+      <c r="K198" s="215"/>
+    </row>
+    <row r="199" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G199" s="214"/>
       <c r="J199" s="215"/>
-    </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A200" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C200" t="s">
-        <v>1506</v>
-      </c>
-      <c r="F200" t="s">
-        <v>1505</v>
-      </c>
-      <c r="G200" s="214" t="s">
-        <v>1507</v>
-      </c>
-      <c r="I200" s="215" t="s">
-        <v>1508</v>
-      </c>
+      <c r="K199" s="215"/>
+    </row>
+    <row r="200" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G200" s="214"/>
       <c r="J200" s="215"/>
-    </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A201" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C201" t="s">
-        <v>1506</v>
-      </c>
-      <c r="F201" t="s">
-        <v>1505</v>
-      </c>
-      <c r="G201" s="214" t="s">
-        <v>1507</v>
-      </c>
-      <c r="I201" s="215" t="s">
-        <v>1508</v>
-      </c>
+      <c r="K200" s="215"/>
+    </row>
+    <row r="201" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G201" s="214"/>
       <c r="J201" s="215"/>
-    </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A202" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C202" t="s">
-        <v>1506</v>
-      </c>
-      <c r="F202" t="s">
-        <v>1505</v>
-      </c>
-      <c r="G202" s="214" t="s">
-        <v>1507</v>
-      </c>
-      <c r="I202" s="215" t="s">
-        <v>1508</v>
-      </c>
+      <c r="K201" s="215"/>
+    </row>
+    <row r="202" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G202" s="214"/>
       <c r="J202" s="215"/>
-    </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A203" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C203" t="s">
-        <v>1506</v>
-      </c>
-      <c r="F203" t="s">
-        <v>1505</v>
-      </c>
-      <c r="G203" s="214" t="s">
-        <v>1507</v>
-      </c>
-      <c r="I203" s="215" t="s">
-        <v>1508</v>
-      </c>
+      <c r="K202" s="215"/>
+    </row>
+    <row r="203" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G203" s="214"/>
       <c r="J203" s="215"/>
-    </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A204" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C204" t="s">
-        <v>1506</v>
-      </c>
-      <c r="F204" t="s">
-        <v>1505</v>
-      </c>
-      <c r="G204" s="214" t="s">
-        <v>1507</v>
-      </c>
-      <c r="I204" s="215" t="s">
-        <v>1508</v>
-      </c>
+      <c r="K203" s="215"/>
+    </row>
+    <row r="204" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G204" s="214"/>
       <c r="J204" s="215"/>
-    </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A205" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C205" t="s">
-        <v>1506</v>
-      </c>
-      <c r="F205" t="s">
-        <v>1505</v>
-      </c>
-      <c r="G205" s="214" t="s">
-        <v>1507</v>
-      </c>
-      <c r="I205" s="215" t="s">
-        <v>1508</v>
-      </c>
+      <c r="K204" s="215"/>
+    </row>
+    <row r="205" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G205" s="214"/>
       <c r="J205" s="215"/>
-    </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A206" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C206" t="s">
-        <v>1506</v>
-      </c>
-      <c r="F206" t="s">
-        <v>1505</v>
-      </c>
-      <c r="G206" s="214" t="s">
-        <v>1507</v>
-      </c>
-      <c r="I206" s="215" t="s">
-        <v>1508</v>
-      </c>
+      <c r="K205" s="215"/>
+    </row>
+    <row r="206" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G206" s="214"/>
       <c r="J206" s="215"/>
-    </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A207" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C207" t="s">
-        <v>1506</v>
-      </c>
-      <c r="F207" t="s">
-        <v>1505</v>
-      </c>
-      <c r="G207" s="214" t="s">
-        <v>1507</v>
-      </c>
-      <c r="I207" s="215" t="s">
-        <v>1508</v>
-      </c>
+      <c r="K206" s="215"/>
+    </row>
+    <row r="207" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G207" s="214"/>
       <c r="J207" s="215"/>
-    </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A208" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C208" t="s">
-        <v>1506</v>
-      </c>
-      <c r="F208" t="s">
-        <v>1505</v>
-      </c>
-      <c r="G208" s="214" t="s">
-        <v>1507</v>
-      </c>
-      <c r="I208" s="215" t="s">
-        <v>1508</v>
-      </c>
+      <c r="K207" s="215"/>
+    </row>
+    <row r="208" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G208" s="214"/>
       <c r="J208" s="215"/>
-    </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A209" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C209" t="s">
-        <v>1506</v>
-      </c>
-      <c r="F209" t="s">
-        <v>1505</v>
-      </c>
-      <c r="G209" s="214" t="s">
-        <v>1507</v>
-      </c>
-      <c r="I209" s="215" t="s">
-        <v>1508</v>
-      </c>
+      <c r="K208" s="215"/>
+    </row>
+    <row r="209" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G209" s="214"/>
       <c r="J209" s="215"/>
-    </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A210" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C210" t="s">
-        <v>1506</v>
-      </c>
-      <c r="F210" t="s">
-        <v>1505</v>
-      </c>
-      <c r="G210" s="214" t="s">
-        <v>1507</v>
-      </c>
-      <c r="I210" s="215" t="s">
-        <v>1508</v>
-      </c>
+      <c r="K209" s="215"/>
+    </row>
+    <row r="210" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G210" s="214"/>
       <c r="J210" s="215"/>
-    </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A211" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C211" t="s">
-        <v>1506</v>
-      </c>
-      <c r="F211" t="s">
-        <v>1505</v>
-      </c>
-      <c r="G211" s="214" t="s">
-        <v>1507</v>
-      </c>
-      <c r="I211" s="215" t="s">
-        <v>1508</v>
-      </c>
+      <c r="K210" s="215"/>
+    </row>
+    <row r="211" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G211" s="214"/>
       <c r="J211" s="215"/>
-    </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A212" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C212" t="s">
-        <v>1506</v>
-      </c>
-      <c r="F212" t="s">
-        <v>1505</v>
-      </c>
-      <c r="G212" s="214" t="s">
-        <v>1507</v>
-      </c>
-      <c r="I212" s="215" t="s">
-        <v>1508</v>
-      </c>
+      <c r="K211" s="215"/>
+    </row>
+    <row r="212" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G212" s="214"/>
       <c r="J212" s="215"/>
-    </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A213" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C213" t="s">
-        <v>1506</v>
-      </c>
-      <c r="F213" t="s">
-        <v>1505</v>
-      </c>
-      <c r="G213" s="214" t="s">
-        <v>1507</v>
-      </c>
-      <c r="I213" s="215" t="s">
-        <v>1508</v>
-      </c>
+      <c r="K212" s="215"/>
+    </row>
+    <row r="213" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G213" s="214"/>
       <c r="J213" s="215"/>
-    </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A214" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C214" t="s">
-        <v>1506</v>
-      </c>
-      <c r="F214" t="s">
-        <v>1505</v>
-      </c>
-      <c r="G214" s="214" t="s">
-        <v>1507</v>
-      </c>
-      <c r="I214" s="215" t="s">
-        <v>1508</v>
-      </c>
+      <c r="K213" s="215"/>
+    </row>
+    <row r="214" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G214" s="214"/>
       <c r="J214" s="215"/>
-    </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A215" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C215" t="s">
-        <v>1506</v>
-      </c>
-      <c r="F215" t="s">
-        <v>1505</v>
-      </c>
-      <c r="G215" s="214" t="s">
-        <v>1507</v>
-      </c>
-      <c r="I215" s="215" t="s">
-        <v>1508</v>
-      </c>
+      <c r="K214" s="215"/>
+    </row>
+    <row r="215" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G215" s="214"/>
       <c r="J215" s="215"/>
-    </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A216" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C216" t="s">
-        <v>1506</v>
-      </c>
-      <c r="F216" t="s">
-        <v>1505</v>
-      </c>
-      <c r="G216" s="214" t="s">
-        <v>1507</v>
-      </c>
-      <c r="I216" s="215" t="s">
-        <v>1508</v>
-      </c>
+      <c r="K215" s="215"/>
+    </row>
+    <row r="216" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G216" s="214"/>
       <c r="J216" s="215"/>
-    </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A217" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C217" t="s">
-        <v>1506</v>
-      </c>
-      <c r="F217" t="s">
-        <v>1505</v>
-      </c>
-      <c r="G217" s="214" t="s">
-        <v>1507</v>
-      </c>
-      <c r="I217" s="215" t="s">
-        <v>1508</v>
-      </c>
+      <c r="K216" s="215"/>
+    </row>
+    <row r="217" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G217" s="214"/>
       <c r="J217" s="215"/>
-    </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A218" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C218" t="s">
-        <v>1506</v>
-      </c>
-      <c r="F218" t="s">
-        <v>1505</v>
-      </c>
-      <c r="G218" s="214" t="s">
-        <v>1507</v>
-      </c>
-      <c r="I218" s="215" t="s">
-        <v>1508</v>
-      </c>
+      <c r="K217" s="215"/>
+    </row>
+    <row r="218" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G218" s="214"/>
       <c r="J218" s="215"/>
-    </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A219" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C219" t="s">
-        <v>1506</v>
-      </c>
-      <c r="F219" t="s">
-        <v>1505</v>
-      </c>
-      <c r="G219" s="214" t="s">
-        <v>1507</v>
-      </c>
-      <c r="I219" s="215" t="s">
-        <v>1508</v>
-      </c>
+      <c r="K218" s="215"/>
+    </row>
+    <row r="219" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G219" s="214"/>
       <c r="J219" s="215"/>
-    </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A220" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C220" t="s">
-        <v>1506</v>
-      </c>
-      <c r="F220" t="s">
-        <v>1505</v>
-      </c>
-      <c r="G220" s="214" t="s">
-        <v>1507</v>
-      </c>
-      <c r="I220" s="215" t="s">
-        <v>1508</v>
-      </c>
+      <c r="K219" s="215"/>
+    </row>
+    <row r="220" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G220" s="214"/>
       <c r="J220" s="215"/>
-    </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A221" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C221" t="s">
-        <v>1506</v>
-      </c>
-      <c r="F221" t="s">
-        <v>1505</v>
-      </c>
-      <c r="G221" s="214" t="s">
-        <v>1507</v>
-      </c>
-      <c r="I221" s="215" t="s">
-        <v>1508</v>
-      </c>
+      <c r="K220" s="215"/>
+    </row>
+    <row r="221" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G221" s="214"/>
       <c r="J221" s="215"/>
-    </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A222" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C222" t="s">
-        <v>1506</v>
-      </c>
-      <c r="F222" t="s">
-        <v>1505</v>
-      </c>
-      <c r="G222" s="214" t="s">
-        <v>1507</v>
-      </c>
-      <c r="I222" s="215" t="s">
-        <v>1508</v>
-      </c>
+      <c r="K221" s="215"/>
+    </row>
+    <row r="222" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G222" s="214"/>
       <c r="J222" s="215"/>
-    </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A223" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C223" t="s">
-        <v>1506</v>
-      </c>
-      <c r="F223" t="s">
-        <v>1505</v>
-      </c>
-      <c r="G223" s="214" t="s">
-        <v>1507</v>
-      </c>
-      <c r="I223" s="215" t="s">
-        <v>1508</v>
-      </c>
+      <c r="K222" s="215"/>
+    </row>
+    <row r="223" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G223" s="214"/>
       <c r="J223" s="215"/>
-    </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A224" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C224" t="s">
-        <v>1506</v>
-      </c>
-      <c r="F224" t="s">
-        <v>1505</v>
-      </c>
-      <c r="G224" s="214" t="s">
-        <v>1507</v>
-      </c>
-      <c r="I224" s="215" t="s">
-        <v>1508</v>
-      </c>
+      <c r="K223" s="215"/>
+    </row>
+    <row r="224" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G224" s="214"/>
       <c r="J224" s="215"/>
-    </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A225" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C225" t="s">
-        <v>1506</v>
-      </c>
-      <c r="F225" t="s">
-        <v>1505</v>
-      </c>
-      <c r="G225" s="214" t="s">
-        <v>1507</v>
-      </c>
-      <c r="I225" s="215" t="s">
-        <v>1508</v>
-      </c>
+      <c r="K224" s="215"/>
+    </row>
+    <row r="225" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G225" s="214"/>
       <c r="J225" s="215"/>
-    </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A226" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C226" t="s">
-        <v>1506</v>
-      </c>
-      <c r="F226" t="s">
-        <v>1505</v>
-      </c>
-      <c r="G226" s="214" t="s">
-        <v>1507</v>
-      </c>
-      <c r="I226" s="215" t="s">
-        <v>1508</v>
-      </c>
+      <c r="K225" s="215"/>
+    </row>
+    <row r="226" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G226" s="214"/>
       <c r="J226" s="215"/>
-    </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A227" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C227" t="s">
-        <v>1506</v>
-      </c>
-      <c r="F227" t="s">
-        <v>1505</v>
-      </c>
-      <c r="G227" s="214" t="s">
-        <v>1507</v>
-      </c>
-      <c r="I227" s="215" t="s">
-        <v>1508</v>
-      </c>
+      <c r="K226" s="215"/>
+    </row>
+    <row r="227" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G227" s="214"/>
       <c r="J227" s="215"/>
-    </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A228" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C228" t="s">
-        <v>1506</v>
-      </c>
-      <c r="F228" t="s">
-        <v>1505</v>
-      </c>
-      <c r="G228" s="214" t="s">
-        <v>1507</v>
-      </c>
-      <c r="I228" s="215" t="s">
-        <v>1508</v>
-      </c>
+      <c r="K227" s="215"/>
+    </row>
+    <row r="228" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G228" s="214"/>
       <c r="J228" s="215"/>
-    </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A229" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C229" t="s">
-        <v>1506</v>
-      </c>
-      <c r="F229" t="s">
-        <v>1505</v>
-      </c>
-      <c r="G229" s="214" t="s">
-        <v>1507</v>
-      </c>
-      <c r="I229" s="215" t="s">
-        <v>1508</v>
-      </c>
+      <c r="K228" s="215"/>
+    </row>
+    <row r="229" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G229" s="214"/>
       <c r="J229" s="215"/>
-    </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A230" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C230" t="s">
-        <v>1506</v>
-      </c>
-      <c r="F230" t="s">
-        <v>1505</v>
-      </c>
-      <c r="G230" s="214" t="s">
-        <v>1507</v>
-      </c>
-      <c r="I230" s="215" t="s">
-        <v>1508</v>
-      </c>
+      <c r="K229" s="215"/>
+    </row>
+    <row r="230" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G230" s="214"/>
       <c r="J230" s="215"/>
-    </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A231" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C231" t="s">
-        <v>1506</v>
-      </c>
-      <c r="F231" t="s">
-        <v>1505</v>
-      </c>
-      <c r="G231" s="214" t="s">
-        <v>1507</v>
-      </c>
-      <c r="I231" s="215" t="s">
-        <v>1508</v>
-      </c>
+      <c r="K230" s="215"/>
+    </row>
+    <row r="231" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G231" s="214"/>
       <c r="J231" s="215"/>
-    </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A232" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C232" t="s">
-        <v>1506</v>
-      </c>
-      <c r="F232" t="s">
-        <v>1505</v>
-      </c>
-      <c r="G232" s="214" t="s">
-        <v>1507</v>
-      </c>
-      <c r="I232" s="215" t="s">
-        <v>1508</v>
-      </c>
+      <c r="K231" s="215"/>
+    </row>
+    <row r="232" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G232" s="214"/>
       <c r="J232" s="215"/>
-    </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A233" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C233" t="s">
-        <v>1506</v>
-      </c>
-      <c r="F233" t="s">
-        <v>1505</v>
-      </c>
-      <c r="G233" s="214" t="s">
-        <v>1507</v>
-      </c>
-      <c r="I233" s="215" t="s">
-        <v>1508</v>
-      </c>
+      <c r="K232" s="215"/>
+    </row>
+    <row r="233" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G233" s="214"/>
       <c r="J233" s="215"/>
-    </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A234" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C234" t="s">
-        <v>1506</v>
-      </c>
-      <c r="F234" t="s">
-        <v>1505</v>
-      </c>
-      <c r="G234" s="214" t="s">
-        <v>1507</v>
-      </c>
-      <c r="I234" s="215" t="s">
-        <v>1508</v>
-      </c>
+      <c r="K233" s="215"/>
+    </row>
+    <row r="234" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G234" s="214"/>
       <c r="J234" s="215"/>
-    </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A235" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C235" t="s">
-        <v>1506</v>
-      </c>
-      <c r="F235" t="s">
-        <v>1505</v>
-      </c>
-      <c r="G235" s="214" t="s">
-        <v>1507</v>
-      </c>
-      <c r="I235" s="215" t="s">
-        <v>1508</v>
-      </c>
+      <c r="K234" s="215"/>
+    </row>
+    <row r="235" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G235" s="214"/>
       <c r="J235" s="215"/>
-    </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A236" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C236" t="s">
-        <v>1506</v>
-      </c>
-      <c r="F236" t="s">
-        <v>1505</v>
-      </c>
-      <c r="G236" s="214" t="s">
-        <v>1507</v>
-      </c>
-      <c r="I236" s="215" t="s">
-        <v>1508</v>
-      </c>
+      <c r="K235" s="215"/>
+    </row>
+    <row r="236" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G236" s="214"/>
       <c r="J236" s="215"/>
-    </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A237" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C237" t="s">
-        <v>1506</v>
-      </c>
-      <c r="F237" t="s">
-        <v>1505</v>
-      </c>
-      <c r="G237" s="214" t="s">
-        <v>1507</v>
-      </c>
-      <c r="I237" s="215" t="s">
-        <v>1508</v>
-      </c>
+      <c r="K236" s="215"/>
+    </row>
+    <row r="237" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G237" s="214"/>
       <c r="J237" s="215"/>
-    </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A238" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C238" t="s">
-        <v>1506</v>
-      </c>
-      <c r="F238" t="s">
-        <v>1505</v>
-      </c>
-      <c r="G238" s="214" t="s">
-        <v>1507</v>
-      </c>
-      <c r="I238" s="215" t="s">
-        <v>1508</v>
-      </c>
+      <c r="K237" s="215"/>
+    </row>
+    <row r="238" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G238" s="214"/>
       <c r="J238" s="215"/>
-    </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A239" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C239" t="s">
-        <v>1506</v>
-      </c>
-      <c r="F239" t="s">
-        <v>1505</v>
-      </c>
-      <c r="G239" s="214" t="s">
-        <v>1507</v>
-      </c>
-      <c r="I239" s="215" t="s">
-        <v>1508</v>
-      </c>
+      <c r="K238" s="215"/>
+    </row>
+    <row r="239" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G239" s="214"/>
       <c r="J239" s="215"/>
-    </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A240" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C240" t="s">
-        <v>1506</v>
-      </c>
-      <c r="F240" t="s">
-        <v>1505</v>
-      </c>
-      <c r="G240" s="214" t="s">
-        <v>1507</v>
-      </c>
-      <c r="I240" s="215" t="s">
-        <v>1508</v>
-      </c>
+      <c r="K239" s="215"/>
+    </row>
+    <row r="240" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G240" s="214"/>
       <c r="J240" s="215"/>
-    </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A241" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C241" t="s">
-        <v>1506</v>
-      </c>
-      <c r="F241" t="s">
-        <v>1505</v>
-      </c>
-      <c r="G241" s="214" t="s">
-        <v>1507</v>
-      </c>
-      <c r="I241" s="215" t="s">
-        <v>1508</v>
-      </c>
+      <c r="K240" s="215"/>
+    </row>
+    <row r="241" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G241" s="214"/>
       <c r="J241" s="215"/>
-    </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A242" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C242" t="s">
-        <v>1506</v>
-      </c>
-      <c r="F242" t="s">
-        <v>1505</v>
-      </c>
-      <c r="G242" s="214" t="s">
-        <v>1507</v>
-      </c>
-      <c r="I242" s="215" t="s">
-        <v>1508</v>
-      </c>
+      <c r="K241" s="215"/>
+    </row>
+    <row r="242" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G242" s="214"/>
       <c r="J242" s="215"/>
-    </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A243" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C243" t="s">
-        <v>1506</v>
-      </c>
-      <c r="F243" t="s">
-        <v>1505</v>
-      </c>
-      <c r="G243" s="214" t="s">
-        <v>1507</v>
-      </c>
-      <c r="I243" s="215" t="s">
-        <v>1508</v>
-      </c>
+      <c r="K242" s="215"/>
+    </row>
+    <row r="243" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G243" s="214"/>
       <c r="J243" s="215"/>
-    </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A244" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C244" t="s">
-        <v>1506</v>
-      </c>
-      <c r="F244" t="s">
-        <v>1505</v>
-      </c>
-      <c r="G244" s="214" t="s">
-        <v>1507</v>
-      </c>
-      <c r="I244" s="215" t="s">
-        <v>1508</v>
-      </c>
+      <c r="K243" s="215"/>
+    </row>
+    <row r="244" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G244" s="214"/>
       <c r="J244" s="215"/>
-    </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A245" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C245" t="s">
-        <v>1506</v>
-      </c>
-      <c r="F245" t="s">
-        <v>1505</v>
-      </c>
-      <c r="G245" s="214" t="s">
-        <v>1507</v>
-      </c>
-      <c r="I245" s="215" t="s">
-        <v>1508</v>
-      </c>
+      <c r="K244" s="215"/>
+    </row>
+    <row r="245" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G245" s="214"/>
       <c r="J245" s="215"/>
-    </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A246" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C246" t="s">
-        <v>1506</v>
-      </c>
-      <c r="F246" t="s">
-        <v>1505</v>
-      </c>
-      <c r="G246" s="214" t="s">
-        <v>1507</v>
-      </c>
-      <c r="I246" s="215" t="s">
-        <v>1508</v>
-      </c>
+      <c r="K245" s="215"/>
+    </row>
+    <row r="246" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G246" s="214"/>
       <c r="J246" s="215"/>
-    </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A247" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C247" t="s">
-        <v>1506</v>
-      </c>
-      <c r="F247" t="s">
-        <v>1505</v>
-      </c>
-      <c r="G247" s="214" t="s">
-        <v>1507</v>
-      </c>
-      <c r="I247" s="215" t="s">
-        <v>1508</v>
-      </c>
+      <c r="K246" s="215"/>
+    </row>
+    <row r="247" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G247" s="214"/>
       <c r="J247" s="215"/>
-    </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A248" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C248" t="s">
-        <v>1506</v>
-      </c>
-      <c r="F248" t="s">
-        <v>1505</v>
-      </c>
-      <c r="G248" s="214" t="s">
-        <v>1507</v>
-      </c>
-      <c r="I248" s="215" t="s">
-        <v>1508</v>
-      </c>
+      <c r="K247" s="215"/>
+    </row>
+    <row r="248" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G248" s="214"/>
       <c r="J248" s="215"/>
-    </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A249" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C249" t="s">
-        <v>1506</v>
-      </c>
-      <c r="F249" t="s">
-        <v>1505</v>
-      </c>
-      <c r="G249" s="214" t="s">
-        <v>1507</v>
-      </c>
-      <c r="I249" s="215" t="s">
-        <v>1508</v>
-      </c>
+      <c r="K248" s="215"/>
+    </row>
+    <row r="249" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G249" s="214"/>
       <c r="J249" s="215"/>
-    </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A250" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C250" t="s">
-        <v>1506</v>
-      </c>
-      <c r="F250" t="s">
-        <v>1505</v>
-      </c>
-      <c r="G250" s="214" t="s">
-        <v>1507</v>
-      </c>
-      <c r="I250" s="215" t="s">
-        <v>1508</v>
-      </c>
+      <c r="K249" s="215"/>
+    </row>
+    <row r="250" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G250" s="214"/>
       <c r="J250" s="215"/>
-    </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A251" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C251" t="s">
-        <v>1506</v>
-      </c>
-      <c r="F251" t="s">
-        <v>1505</v>
-      </c>
-      <c r="G251" s="214" t="s">
-        <v>1507</v>
-      </c>
-      <c r="I251" s="215" t="s">
-        <v>1508</v>
-      </c>
+      <c r="K250" s="215"/>
+    </row>
+    <row r="251" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G251" s="214"/>
       <c r="J251" s="215"/>
-    </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A252" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C252" t="s">
-        <v>1506</v>
-      </c>
-      <c r="F252" t="s">
-        <v>1505</v>
-      </c>
-      <c r="G252" s="214" t="s">
-        <v>1507</v>
-      </c>
-      <c r="I252" s="215" t="s">
-        <v>1508</v>
-      </c>
+      <c r="K251" s="215"/>
+    </row>
+    <row r="252" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G252" s="214"/>
       <c r="J252" s="215"/>
-    </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A253" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C253" t="s">
-        <v>1506</v>
-      </c>
-      <c r="F253" t="s">
-        <v>1505</v>
-      </c>
-      <c r="G253" s="214" t="s">
-        <v>1507</v>
-      </c>
-      <c r="I253" s="215" t="s">
-        <v>1508</v>
-      </c>
+      <c r="K252" s="215"/>
+    </row>
+    <row r="253" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G253" s="214"/>
       <c r="J253" s="215"/>
-    </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A254" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C254" t="s">
-        <v>1506</v>
-      </c>
-      <c r="F254" t="s">
-        <v>1505</v>
-      </c>
-      <c r="G254" s="214" t="s">
-        <v>1507</v>
-      </c>
-      <c r="I254" s="215" t="s">
-        <v>1508</v>
-      </c>
+      <c r="K253" s="215"/>
+    </row>
+    <row r="254" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G254" s="214"/>
       <c r="J254" s="215"/>
-    </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A255" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C255" t="s">
-        <v>1506</v>
-      </c>
-      <c r="F255" t="s">
-        <v>1505</v>
-      </c>
-      <c r="G255" s="214" t="s">
-        <v>1507</v>
-      </c>
-      <c r="I255" s="215" t="s">
-        <v>1508</v>
-      </c>
+      <c r="K254" s="215"/>
+    </row>
+    <row r="255" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G255" s="214"/>
       <c r="J255" s="215"/>
-    </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A256" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C256" t="s">
-        <v>1506</v>
-      </c>
-      <c r="F256" t="s">
-        <v>1505</v>
-      </c>
-      <c r="G256" s="214" t="s">
-        <v>1507</v>
-      </c>
-      <c r="I256" s="215" t="s">
-        <v>1508</v>
-      </c>
+      <c r="K255" s="215"/>
+    </row>
+    <row r="256" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G256" s="214"/>
       <c r="J256" s="215"/>
-    </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A257" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C257" t="s">
-        <v>1506</v>
-      </c>
-      <c r="F257" t="s">
-        <v>1505</v>
-      </c>
-      <c r="G257" s="214" t="s">
-        <v>1507</v>
-      </c>
-      <c r="I257" s="215" t="s">
-        <v>1508</v>
-      </c>
+      <c r="K256" s="215"/>
+    </row>
+    <row r="257" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G257" s="214"/>
       <c r="J257" s="215"/>
-    </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A258" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C258" t="s">
-        <v>1506</v>
-      </c>
-      <c r="F258" t="s">
-        <v>1505</v>
-      </c>
-      <c r="G258" s="214" t="s">
-        <v>1507</v>
-      </c>
-      <c r="I258" s="215" t="s">
-        <v>1508</v>
-      </c>
+      <c r="K257" s="215"/>
+    </row>
+    <row r="258" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G258" s="214"/>
       <c r="J258" s="215"/>
-    </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A259" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C259" t="s">
-        <v>1506</v>
-      </c>
-      <c r="F259" t="s">
-        <v>1505</v>
-      </c>
-      <c r="G259" s="214" t="s">
-        <v>1507</v>
-      </c>
-      <c r="I259" s="215" t="s">
-        <v>1508</v>
-      </c>
+      <c r="K258" s="215"/>
+    </row>
+    <row r="259" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G259" s="214"/>
       <c r="J259" s="215"/>
-    </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A260" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C260" t="s">
-        <v>1506</v>
-      </c>
-      <c r="F260" t="s">
-        <v>1505</v>
-      </c>
-      <c r="G260" s="214" t="s">
-        <v>1507</v>
-      </c>
-      <c r="I260" s="215" t="s">
-        <v>1508</v>
-      </c>
+      <c r="K259" s="215"/>
+    </row>
+    <row r="260" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G260" s="214"/>
       <c r="J260" s="215"/>
-    </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A261" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C261" t="s">
-        <v>1506</v>
-      </c>
-      <c r="F261" t="s">
-        <v>1505</v>
-      </c>
-      <c r="G261" s="214" t="s">
-        <v>1507</v>
-      </c>
-      <c r="I261" s="215" t="s">
-        <v>1508</v>
-      </c>
+      <c r="K260" s="215"/>
+    </row>
+    <row r="261" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G261" s="214"/>
       <c r="J261" s="215"/>
-    </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A262" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C262" t="s">
-        <v>1506</v>
-      </c>
-      <c r="F262" t="s">
-        <v>1505</v>
-      </c>
-      <c r="G262" s="214" t="s">
-        <v>1507</v>
-      </c>
-      <c r="I262" s="215" t="s">
-        <v>1508</v>
-      </c>
+      <c r="K261" s="215"/>
+    </row>
+    <row r="262" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G262" s="214"/>
       <c r="J262" s="215"/>
-    </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A263" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C263" t="s">
-        <v>1506</v>
-      </c>
-      <c r="F263" t="s">
-        <v>1505</v>
-      </c>
-      <c r="G263" s="214" t="s">
-        <v>1507</v>
-      </c>
-      <c r="I263" s="215" t="s">
-        <v>1508</v>
-      </c>
+      <c r="K262" s="215"/>
+    </row>
+    <row r="263" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G263" s="214"/>
       <c r="J263" s="215"/>
-    </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A264" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C264" t="s">
-        <v>1506</v>
-      </c>
-      <c r="F264" t="s">
-        <v>1505</v>
-      </c>
-      <c r="G264" s="214" t="s">
-        <v>1507</v>
-      </c>
-      <c r="I264" s="215" t="s">
-        <v>1508</v>
-      </c>
+      <c r="K263" s="215"/>
+    </row>
+    <row r="264" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G264" s="214"/>
       <c r="J264" s="215"/>
-    </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A265" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C265" t="s">
-        <v>1506</v>
-      </c>
-      <c r="F265" t="s">
-        <v>1505</v>
-      </c>
-      <c r="G265" s="214" t="s">
-        <v>1507</v>
-      </c>
-      <c r="I265" s="215" t="s">
-        <v>1508</v>
-      </c>
+      <c r="K264" s="215"/>
+    </row>
+    <row r="265" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G265" s="214"/>
       <c r="J265" s="215"/>
-    </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A266" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C266" t="s">
-        <v>1506</v>
-      </c>
-      <c r="F266" t="s">
-        <v>1505</v>
-      </c>
-      <c r="G266" s="214" t="s">
-        <v>1507</v>
-      </c>
-      <c r="I266" s="215"/>
+      <c r="K265" s="215"/>
+    </row>
+    <row r="266" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G266" s="214"/>
       <c r="J266" s="215"/>
-    </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A267" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C267" t="s">
-        <v>1506</v>
-      </c>
-      <c r="F267" t="s">
-        <v>1505</v>
-      </c>
-      <c r="G267" s="214" t="s">
-        <v>1507</v>
-      </c>
-      <c r="I267" s="215"/>
+      <c r="K266" s="215"/>
+    </row>
+    <row r="267" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G267" s="214"/>
       <c r="J267" s="215"/>
-    </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A268" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C268" t="s">
-        <v>1506</v>
-      </c>
-      <c r="F268" t="s">
-        <v>1505</v>
-      </c>
-      <c r="G268" s="214" t="s">
-        <v>1507</v>
-      </c>
-      <c r="I268" s="215"/>
+      <c r="K267" s="215"/>
+    </row>
+    <row r="268" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G268" s="214"/>
       <c r="J268" s="215"/>
-    </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A269" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C269" t="s">
-        <v>1506</v>
-      </c>
-      <c r="F269" t="s">
-        <v>1505</v>
-      </c>
-      <c r="G269" s="214" t="s">
-        <v>1507</v>
-      </c>
-      <c r="I269" s="215"/>
+      <c r="K268" s="215"/>
+    </row>
+    <row r="269" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G269" s="214"/>
       <c r="J269" s="215"/>
-    </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A270" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C270" t="s">
-        <v>1506</v>
-      </c>
-      <c r="F270" t="s">
-        <v>1505</v>
-      </c>
-      <c r="G270" s="214" t="s">
-        <v>1507</v>
-      </c>
-      <c r="I270" s="215"/>
+      <c r="K269" s="215"/>
+    </row>
+    <row r="270" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G270" s="214"/>
       <c r="J270" s="215"/>
-    </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A271" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C271" t="s">
-        <v>1506</v>
-      </c>
-      <c r="F271" t="s">
-        <v>1505</v>
-      </c>
-      <c r="G271" s="214" t="s">
-        <v>1507</v>
-      </c>
-      <c r="I271" s="215"/>
+      <c r="K270" s="215"/>
+    </row>
+    <row r="271" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G271" s="214"/>
       <c r="J271" s="215"/>
-    </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A272" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C272" t="s">
-        <v>1506</v>
-      </c>
-      <c r="F272" t="s">
-        <v>1505</v>
-      </c>
-      <c r="G272" s="214" t="s">
-        <v>1507</v>
-      </c>
-      <c r="I272" s="215"/>
+      <c r="K271" s="215"/>
+    </row>
+    <row r="272" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G272" s="214"/>
       <c r="J272" s="215"/>
-    </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A273" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C273" t="s">
-        <v>1506</v>
-      </c>
-      <c r="F273" t="s">
-        <v>1505</v>
-      </c>
-      <c r="G273" s="214" t="s">
-        <v>1507</v>
-      </c>
-      <c r="I273" s="215"/>
+      <c r="K272" s="215"/>
+    </row>
+    <row r="273" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G273" s="214"/>
       <c r="J273" s="215"/>
-    </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A274" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C274" t="s">
-        <v>1506</v>
-      </c>
-      <c r="F274" t="s">
-        <v>1505</v>
-      </c>
-      <c r="G274" s="214" t="s">
-        <v>1507</v>
-      </c>
-      <c r="I274" s="215"/>
+      <c r="K273" s="215"/>
+    </row>
+    <row r="274" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G274" s="214"/>
       <c r="J274" s="215"/>
-    </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A275" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C275" t="s">
-        <v>1506</v>
-      </c>
-      <c r="F275" t="s">
-        <v>1505</v>
-      </c>
-      <c r="G275" s="214" t="s">
-        <v>1507</v>
-      </c>
-      <c r="I275" s="215"/>
+      <c r="K274" s="215"/>
+    </row>
+    <row r="275" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G275" s="214"/>
       <c r="J275" s="215"/>
-    </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A276" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C276" t="s">
-        <v>1506</v>
-      </c>
-      <c r="F276" t="s">
-        <v>1505</v>
-      </c>
-      <c r="G276" s="214" t="s">
-        <v>1507</v>
-      </c>
-      <c r="I276" s="215"/>
+      <c r="K275" s="215"/>
+    </row>
+    <row r="276" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G276" s="214"/>
       <c r="J276" s="215"/>
-    </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A277" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C277" t="s">
-        <v>1506</v>
-      </c>
-      <c r="F277" t="s">
-        <v>1505</v>
-      </c>
-      <c r="G277" s="214" t="s">
-        <v>1507</v>
-      </c>
-      <c r="I277" s="215"/>
+      <c r="K276" s="215"/>
+    </row>
+    <row r="277" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G277" s="214"/>
       <c r="J277" s="215"/>
-    </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A278" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C278" t="s">
-        <v>1506</v>
-      </c>
-      <c r="F278" t="s">
-        <v>1505</v>
-      </c>
-      <c r="G278" s="214" t="s">
-        <v>1507</v>
-      </c>
-      <c r="I278" s="215"/>
+      <c r="K277" s="215"/>
+    </row>
+    <row r="278" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G278" s="214"/>
       <c r="J278" s="215"/>
-    </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A279" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C279" t="s">
-        <v>1506</v>
-      </c>
-      <c r="F279" t="s">
-        <v>1505</v>
-      </c>
-      <c r="G279" s="214" t="s">
-        <v>1507</v>
-      </c>
-      <c r="I279" s="215"/>
+      <c r="K278" s="215"/>
+    </row>
+    <row r="279" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G279" s="214"/>
       <c r="J279" s="215"/>
-    </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A280" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C280" t="s">
-        <v>1506</v>
-      </c>
-      <c r="F280" t="s">
-        <v>1505</v>
-      </c>
-      <c r="G280" s="214" t="s">
-        <v>1507</v>
-      </c>
-      <c r="I280" s="215"/>
+      <c r="K279" s="215"/>
+    </row>
+    <row r="280" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G280" s="214"/>
       <c r="J280" s="215"/>
-    </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A281" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C281" t="s">
-        <v>1506</v>
-      </c>
-      <c r="F281" t="s">
-        <v>1505</v>
-      </c>
-      <c r="G281" s="214" t="s">
-        <v>1507</v>
-      </c>
-      <c r="I281" s="215"/>
+      <c r="K280" s="215"/>
+    </row>
+    <row r="281" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G281" s="214"/>
       <c r="J281" s="215"/>
-    </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A282" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C282" t="s">
-        <v>1506</v>
-      </c>
-      <c r="F282" t="s">
-        <v>1505</v>
-      </c>
-      <c r="G282" s="214" t="s">
-        <v>1507</v>
-      </c>
-      <c r="I282" s="215"/>
+      <c r="K281" s="215"/>
+    </row>
+    <row r="282" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G282" s="214"/>
       <c r="J282" s="215"/>
-    </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A283" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C283" t="s">
-        <v>1506</v>
-      </c>
-      <c r="F283" t="s">
-        <v>1505</v>
-      </c>
-      <c r="I283" s="215"/>
+      <c r="K282" s="215"/>
+    </row>
+    <row r="283" spans="7:11" x14ac:dyDescent="0.2">
       <c r="J283" s="215"/>
-    </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A284" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C284" t="s">
-        <v>1506</v>
-      </c>
-      <c r="F284" t="s">
-        <v>1505</v>
-      </c>
-      <c r="I284" s="215"/>
+      <c r="K283" s="215"/>
+    </row>
+    <row r="284" spans="7:11" x14ac:dyDescent="0.2">
       <c r="J284" s="215"/>
-    </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A285" t="s">
-        <v>1504</v>
-      </c>
-      <c r="F285" t="s">
-        <v>1505</v>
-      </c>
-      <c r="I285" s="215"/>
+      <c r="K284" s="215"/>
+    </row>
+    <row r="285" spans="7:11" x14ac:dyDescent="0.2">
       <c r="J285" s="215"/>
-    </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A286" t="s">
-        <v>1504</v>
-      </c>
-      <c r="F286" t="s">
-        <v>1505</v>
-      </c>
-      <c r="I286" s="215"/>
+      <c r="K285" s="215"/>
+    </row>
+    <row r="286" spans="7:11" x14ac:dyDescent="0.2">
       <c r="J286" s="215"/>
-    </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A287" t="s">
-        <v>1504</v>
-      </c>
-      <c r="F287" t="s">
-        <v>1505</v>
-      </c>
-      <c r="I287" s="215"/>
+      <c r="K286" s="215"/>
+    </row>
+    <row r="287" spans="7:11" x14ac:dyDescent="0.2">
       <c r="J287" s="215"/>
-    </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A288" t="s">
-        <v>1504</v>
-      </c>
-      <c r="I288" s="215"/>
+      <c r="K287" s="215"/>
+    </row>
+    <row r="288" spans="7:11" x14ac:dyDescent="0.2">
       <c r="J288" s="215"/>
-    </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A289" t="s">
-        <v>1504</v>
-      </c>
-      <c r="I289" s="215"/>
+      <c r="K288" s="215"/>
+    </row>
+    <row r="289" spans="1:11" x14ac:dyDescent="0.2">
       <c r="J289" s="215"/>
-    </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K289" s="215"/>
+    </row>
+    <row r="290" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>1504</v>
       </c>
-      <c r="I290" s="215"/>
       <c r="J290" s="215"/>
-    </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K290" s="215"/>
+    </row>
+    <row r="291" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>1504</v>
       </c>
-      <c r="I291" s="215"/>
       <c r="J291" s="215"/>
-    </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K291" s="215"/>
+    </row>
+    <row r="292" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>1504</v>
       </c>
-      <c r="I292" s="215"/>
       <c r="J292" s="215"/>
-    </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K292" s="215"/>
+    </row>
+    <row r="293" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>1504</v>
       </c>
-      <c r="I293" s="215"/>
       <c r="J293" s="215"/>
-    </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K293" s="215"/>
+    </row>
+    <row r="294" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>1504</v>
       </c>
-      <c r="I294" s="215"/>
       <c r="J294" s="215"/>
-    </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K294" s="215"/>
+    </row>
+    <row r="295" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>1504</v>
       </c>
-      <c r="I295" s="215"/>
       <c r="J295" s="215"/>
-    </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K295" s="215"/>
+    </row>
+    <row r="296" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>1504</v>
       </c>
-      <c r="I296" s="215"/>
       <c r="J296" s="215"/>
-    </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K296" s="215"/>
+    </row>
+    <row r="297" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>1504</v>
       </c>
-      <c r="I297" s="215"/>
       <c r="J297" s="215"/>
-    </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K297" s="215"/>
+    </row>
+    <row r="298" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>1504</v>
       </c>
-      <c r="I298" s="215"/>
       <c r="J298" s="215"/>
-    </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K298" s="215"/>
+    </row>
+    <row r="299" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>1504</v>
       </c>
-      <c r="I299" s="215"/>
       <c r="J299" s="215"/>
-    </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K299" s="215"/>
+    </row>
+    <row r="300" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>1504</v>
       </c>
-      <c r="I300" s="215"/>
       <c r="J300" s="215"/>
-    </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K300" s="215"/>
+    </row>
+    <row r="301" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>1504</v>
       </c>
-      <c r="I301" s="215"/>
       <c r="J301" s="215"/>
-    </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K301" s="215"/>
+    </row>
+    <row r="302" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>1504</v>
       </c>
-      <c r="I302" s="215"/>
       <c r="J302" s="215"/>
-    </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K302" s="215"/>
+    </row>
+    <row r="303" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>1504</v>
       </c>
-      <c r="I303" s="215"/>
       <c r="J303" s="215"/>
-    </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K303" s="215"/>
+    </row>
+    <row r="304" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>1504</v>
       </c>
-      <c r="I304" s="215"/>
       <c r="J304" s="215"/>
-    </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K304" s="215"/>
+    </row>
+    <row r="305" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>1504</v>
       </c>
-      <c r="I305" s="215"/>
       <c r="J305" s="215"/>
-    </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K305" s="215"/>
+    </row>
+    <row r="306" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>1504</v>
       </c>
-      <c r="I306" s="215"/>
       <c r="J306" s="215"/>
-    </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K306" s="215"/>
+    </row>
+    <row r="307" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>1504</v>
       </c>
-      <c r="I307" s="215"/>
       <c r="J307" s="215"/>
-    </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K307" s="215"/>
+    </row>
+    <row r="308" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>1504</v>
       </c>
-      <c r="I308" s="215"/>
       <c r="J308" s="215"/>
-    </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K308" s="215"/>
+    </row>
+    <row r="309" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>1504</v>
       </c>
-      <c r="I309" s="215"/>
       <c r="J309" s="215"/>
-    </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K309" s="215"/>
+    </row>
+    <row r="310" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>1504</v>
       </c>
-      <c r="I310" s="215"/>
       <c r="J310" s="215"/>
-    </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K310" s="215"/>
+    </row>
+    <row r="311" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>1504</v>
       </c>
-      <c r="I311" s="215"/>
       <c r="J311" s="215"/>
-    </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K311" s="215"/>
+    </row>
+    <row r="312" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>1504</v>
       </c>
-      <c r="I312" s="215"/>
       <c r="J312" s="215"/>
-    </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K312" s="215"/>
+    </row>
+    <row r="313" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>1504</v>
       </c>
-      <c r="I313" s="215"/>
       <c r="J313" s="215"/>
-    </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K313" s="215"/>
+    </row>
+    <row r="314" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>1504</v>
       </c>
-      <c r="I314" s="215"/>
       <c r="J314" s="215"/>
-    </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K314" s="215"/>
+    </row>
+    <row r="315" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>1504</v>
       </c>
-      <c r="I315" s="215"/>
       <c r="J315" s="215"/>
-    </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K315" s="215"/>
+    </row>
+    <row r="316" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>1504</v>
       </c>
-      <c r="I316" s="215"/>
       <c r="J316" s="215"/>
-    </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I317" s="215"/>
+      <c r="K316" s="215"/>
+    </row>
+    <row r="317" spans="1:11" x14ac:dyDescent="0.2">
       <c r="J317" s="215"/>
-    </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I318" s="215"/>
+      <c r="K317" s="215"/>
+    </row>
+    <row r="318" spans="1:11" x14ac:dyDescent="0.2">
       <c r="J318" s="215"/>
-    </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I319" s="215"/>
+      <c r="K318" s="215"/>
+    </row>
+    <row r="319" spans="1:11" x14ac:dyDescent="0.2">
       <c r="J319" s="215"/>
-    </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I320" s="215"/>
+      <c r="K319" s="215"/>
+    </row>
+    <row r="320" spans="1:11" x14ac:dyDescent="0.2">
       <c r="J320" s="215"/>
-    </row>
-    <row r="321" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I321" s="215"/>
+      <c r="K320" s="215"/>
+    </row>
+    <row r="321" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J321" s="215"/>
-    </row>
-    <row r="322" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I322" s="215"/>
+      <c r="K321" s="215"/>
+    </row>
+    <row r="322" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J322" s="215"/>
-    </row>
-    <row r="323" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I323" s="215"/>
+      <c r="K322" s="215"/>
+    </row>
+    <row r="323" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J323" s="215"/>
-    </row>
-    <row r="324" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I324" s="215"/>
+      <c r="K323" s="215"/>
+    </row>
+    <row r="324" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J324" s="215"/>
-    </row>
-    <row r="325" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I325" s="215"/>
+      <c r="K324" s="215"/>
+    </row>
+    <row r="325" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J325" s="215"/>
-    </row>
-    <row r="326" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I326" s="215"/>
+      <c r="K325" s="215"/>
+    </row>
+    <row r="326" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J326" s="215"/>
-    </row>
-    <row r="327" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I327" s="215"/>
+      <c r="K326" s="215"/>
+    </row>
+    <row r="327" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J327" s="215"/>
-    </row>
-    <row r="328" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I328" s="215"/>
+      <c r="K327" s="215"/>
+    </row>
+    <row r="328" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J328" s="215"/>
-    </row>
-    <row r="329" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I329" s="215"/>
+      <c r="K328" s="215"/>
+    </row>
+    <row r="329" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J329" s="215"/>
-    </row>
-    <row r="330" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I330" s="215"/>
+      <c r="K329" s="215"/>
+    </row>
+    <row r="330" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J330" s="215"/>
-    </row>
-    <row r="331" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I331" s="215"/>
+      <c r="K330" s="215"/>
+    </row>
+    <row r="331" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J331" s="215"/>
-    </row>
-    <row r="332" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I332" s="215"/>
+      <c r="K331" s="215"/>
+    </row>
+    <row r="332" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J332" s="215"/>
-    </row>
-    <row r="333" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I333" s="215"/>
+      <c r="K332" s="215"/>
+    </row>
+    <row r="333" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J333" s="215"/>
-    </row>
-    <row r="334" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I334" s="215"/>
+      <c r="K333" s="215"/>
+    </row>
+    <row r="334" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J334" s="215"/>
-    </row>
-    <row r="335" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I335" s="215"/>
+      <c r="K334" s="215"/>
+    </row>
+    <row r="335" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J335" s="215"/>
-    </row>
-    <row r="336" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="K335" s="215"/>
+    </row>
+    <row r="336" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J336" s="215"/>
     </row>
     <row r="337" spans="10:10" x14ac:dyDescent="0.2">
